--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EXP lvls" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="TabPrz" sheetId="5" r:id="rId6"/>
     <sheet name="Runes to mobs" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="218">
   <si>
     <t>Star</t>
   </si>
@@ -675,11 +675,14 @@
   <si>
     <t>19.54.42</t>
   </si>
+  <si>
+    <t>XP drop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -933,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1015,11 +1018,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -9585,7 +9592,7 @@
     <dataField name="Licznik z Drop" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -9595,7 +9602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9643,7 +9650,7 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Missing"/>
     <tableColumn id="3" name="Done"/>
-    <tableColumn id="4" name="XP to gain" dataDxfId="5"/>
+    <tableColumn id="4" name="XP to gain" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9656,7 +9663,7 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Missing"/>
     <tableColumn id="3" name="Done"/>
-    <tableColumn id="4" name="XP to gain" dataDxfId="4"/>
+    <tableColumn id="4" name="XP to gain" dataDxfId="5"/>
     <tableColumn id="5" name="Kolumna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9664,9 +9671,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="LocFeatures" displayName="LocFeatures" ref="A1:T115" totalsRowShown="0">
-  <autoFilter ref="A1:T115"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="LocFeatures" displayName="LocFeatures" ref="A1:U115" totalsRowShown="0">
+  <autoFilter ref="A1:U115">
+    <filterColumn colId="12"/>
+  </autoFilter>
+  <tableColumns count="21">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="LVL"/>
     <tableColumn id="3" name="Stage"/>
@@ -9677,10 +9686,13 @@
     <tableColumn id="8" name="Soloable"/>
     <tableColumn id="9" name="Drop worth gain"/>
     <tableColumn id="10" name="Energy gain"/>
-    <tableColumn id="17" name="XP Total Gain" dataDxfId="3">
+    <tableColumn id="17" name="XP Total Gain" dataDxfId="4">
       <calculatedColumnFormula>4*LocFeatures[[#This Row],[XP Gain per member]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="XP Train Gain"/>
+    <tableColumn id="22" name="XP drop" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A2,DropAnalityka[LVL],'Location features'!$B2,DropAnalityka[Stage],'Location features'!$C2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="12" name="DropWorthGain/Energy"/>
     <tableColumn id="13" name="XP/Energy"/>
     <tableColumn id="15" name="Kolumna2"/>
@@ -9707,7 +9719,7 @@
     <tableColumn id="8" name="Quality/Quantity"/>
     <tableColumn id="11" name="Sell Drop"/>
     <tableColumn id="7" name="Drop Worth"/>
-    <tableColumn id="10" name="Exp Gain" dataDxfId="2">
+    <tableColumn id="10" name="Exp Gain" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Time"/>
@@ -9806,7 +9818,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9841,7 +9852,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -10017,11 +10027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10970,10 +10980,10 @@
       </c>
       <c r="M19">
         <f>3*(M17+M16)-Tabela66[[#This Row],[Done]]</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19">
@@ -11004,14 +11014,14 @@
       </c>
       <c r="M20">
         <f>M19+M18-Tabela66[[#This Row],[Done]]</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" s="1">
         <f>M20*$B$3</f>
-        <v>716440</v>
+        <v>644796</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -11035,10 +11045,10 @@
       </c>
       <c r="M21" s="6">
         <f>2*(M19+M18)-Tabela66[[#This Row],[Done]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O21" s="45"/>
       <c r="P21">
@@ -11066,14 +11076,14 @@
       </c>
       <c r="M22">
         <f>(M21+M20)-Tabela66[[#This Row],[Done]]</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" s="52">
         <f>Tabela66[[#This Row],[Missing]]*$B$2</f>
-        <v>907200</v>
+        <v>574560</v>
       </c>
     </row>
     <row r="23" spans="4:17">
@@ -11097,7 +11107,7 @@
       </c>
       <c r="M23" s="6">
         <f>2*M22-Tabela66[[#This Row],[Done]]</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>26</v>
@@ -11128,7 +11138,7 @@
       </c>
       <c r="O24" s="44">
         <f>SUM(Tabela66[XP to gain])</f>
-        <v>2034550</v>
+        <v>1630266</v>
       </c>
     </row>
     <row r="25" spans="4:17">
@@ -11331,11 +11341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11347,13 +11357,13 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
     <col min="10" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="19" max="19" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11391,31 +11401,34 @@
         <v>59</v>
       </c>
       <c r="M1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" t="s">
         <v>212</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>151</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>155</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11456,16 +11469,20 @@
         <f>3*E2</f>
         <v>1890</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="49">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A2,DropAnalityka[LVL],'Location features'!$B2,DropAnalityka[Stage],'Location features'!$C2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
         <f>I2/(D2-J2)</f>
         <v>2227</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f>L2/(D2-J2)</f>
         <v>1890</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -11482,8 +11499,9 @@
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11524,16 +11542,20 @@
         <f>3*E4</f>
         <v>1926</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="49">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A4,DropAnalityka[LVL],'Location features'!$B4,DropAnalityka[Stage],'Location features'!$C4)</f>
+        <v>1106.3414634146341</v>
+      </c>
+      <c r="N4">
         <f>I4/(D4-J4)</f>
         <v>896.83146067415737</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f>L4/(D4-J4)</f>
         <v>887.25842696629206</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11550,8 +11572,9 @@
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -11575,12 +11598,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -11604,12 +11628,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" s="10" customFormat="1">
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" s="10" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -11647,17 +11672,21 @@
         <f>3*E8</f>
         <v>3294</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
+        <v>2724.2692307692309</v>
+      </c>
+      <c r="N8" s="10">
         <f>I8/(D8-J8)</f>
         <v>954.52941176470563</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <f>L8/(D8-J8)</f>
         <v>1038.1090909090908</v>
       </c>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:20" s="10" customFormat="1">
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:21" s="10" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -11695,36 +11724,40 @@
         <f>3*E9</f>
         <v>2268</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A9,DropAnalityka[LVL],'Location features'!$B9,DropAnalityka[Stage],'Location features'!$C9)</f>
+        <v>560</v>
+      </c>
+      <c r="N9" s="10">
         <f>I9/(D9-J9)</f>
         <v>1317.8662790697672</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <f>L9/(D9-J9)</f>
         <v>1068.0697674418604</v>
       </c>
-      <c r="O9" s="10">
-        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/M8-1</f>
+      <c r="P9" s="10">
+        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N8-1</f>
         <v>0.38064502028631586</v>
       </c>
-      <c r="P9" s="10">
-        <f>LocFeatures[[#This Row],[XP/Energy]]/N8-1</f>
+      <c r="Q9" s="10">
+        <f>LocFeatures[[#This Row],[XP/Energy]]/O8-1</f>
         <v>2.8860817032757557E-2</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>62</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>125</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="U9" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="10" customFormat="1">
+    <row r="10" spans="1:21" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -11747,9 +11780,10 @@
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>4476</v>
       </c>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:20" s="10" customFormat="1">
+      <c r="M10" s="53"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -11772,9 +11806,13 @@
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>4464</v>
       </c>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:20" s="10" customFormat="1">
+      <c r="M11" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A11,DropAnalityka[LVL],'Location features'!$B11,DropAnalityka[Stage],'Location features'!$C11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -11795,11 +11833,11 @@
       </c>
       <c r="I12" s="10">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="J12" s="10">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="K12" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
@@ -11809,33 +11847,37 @@
         <f t="shared" ref="L12:L17" si="0">3*E12</f>
         <v>5400</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" ref="M12:M19" si="1">I12/(D12-J12)</f>
-        <v>816.47422617223401</v>
+      <c r="M12" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
+        <v>1527.3823529411766</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N17" si="2">L12/(D12-J12)</f>
-        <v>1312.3505976095616</v>
+        <f t="shared" ref="N12:N19" si="1">I12/(D12-J12)</f>
+        <v>844.25</v>
       </c>
       <c r="O12" s="10">
-        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/M9-1</f>
-        <v>-0.38045745676977727</v>
+        <f t="shared" ref="O12:O17" si="2">L12/(D12-J12)</f>
+        <v>1320.8633093525182</v>
       </c>
       <c r="P12" s="10">
-        <f>LocFeatures[[#This Row],[XP/Energy]]/N9-1</f>
-        <v>0.22871242835828931</v>
-      </c>
-      <c r="Q12">
+        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N9-1</f>
+        <v>-0.35938113493887658</v>
+      </c>
+      <c r="Q12" s="10">
+        <f>LocFeatures[[#This Row],[XP/Energy]]/O9-1</f>
+        <v>0.23668261158269166</v>
+      </c>
+      <c r="R12">
         <v>178</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="U12" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="10" customFormat="1">
+    <row r="13" spans="1:21" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -11870,17 +11912,21 @@
         <f t="shared" si="0"/>
         <v>1317</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A13,DropAnalityka[LVL],'Location features'!$B13,DropAnalityka[Stage],'Location features'!$C13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="1"/>
         <v>962.46666666666681</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <f t="shared" si="2"/>
         <v>307.3</v>
       </c>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:20" s="10" customFormat="1">
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
@@ -11914,17 +11960,21 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A14,DropAnalityka[LVL],'Location features'!$B14,DropAnalityka[Stage],'Location features'!$C14)</f>
+        <v>81182</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="1"/>
         <v>274.02298850574715</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="2"/>
         <v>1034.4827586206898</v>
       </c>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:20" s="10" customFormat="1">
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:21" s="10" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -11959,25 +12009,29 @@
         <f t="shared" si="0"/>
         <v>2397</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A15,DropAnalityka[LVL],'Location features'!$B15,DropAnalityka[Stage],'Location features'!$C15)</f>
+        <v>1528.9887640449438</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="1"/>
         <v>1275.9042553191491</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="2"/>
         <v>1134.75</v>
       </c>
-      <c r="O15" s="10">
-        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/M9-1</f>
+      <c r="P15" s="10">
+        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N9-1</f>
         <v>-3.1840881292021117E-2</v>
       </c>
-      <c r="P15" s="10">
-        <f>LocFeatures[[#This Row],[XP/Energy]]/N9-1</f>
+      <c r="Q15" s="10">
+        <f>LocFeatures[[#This Row],[XP/Energy]]/O9-1</f>
         <v>6.2430596381213732E-2</v>
       </c>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:20" s="10" customFormat="1">
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -12012,17 +12066,21 @@
         <f t="shared" si="0"/>
         <v>2412</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A16,DropAnalityka[LVL],'Location features'!$B16,DropAnalityka[Stage],'Location features'!$C16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="1"/>
         <v>1130.6666666666667</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:18" s="10" customFormat="1">
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:19" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
@@ -12054,17 +12112,21 @@
         <f t="shared" si="0"/>
         <v>2412</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A17,DropAnalityka[LVL],'Location features'!$B17,DropAnalityka[Stage],'Location features'!$C17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="1"/>
         <v>988</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:18" s="10" customFormat="1">
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -12096,22 +12158,26 @@
         <f>3*E18</f>
         <v>3828</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A18,DropAnalityka[LVL],'Location features'!$B18,DropAnalityka[Stage],'Location features'!$C18)</f>
+        <v>4830.7906976744189</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="1"/>
         <v>1187.4961853111499</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f>L18/(D18-J18)</f>
         <v>1225.5652173913043</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>122</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="S18" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -12143,19 +12209,20 @@
         <f>3*E19</f>
         <v>6075</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="53"/>
+      <c r="N19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f>L19/(D19-J19)</f>
         <v>1473.2784431137725</v>
       </c>
-      <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="Q19" s="10"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="10" t="s">
         <v>166</v>
       </c>
@@ -12190,18 +12257,22 @@
         <f>3*E20</f>
         <v>1176</v>
       </c>
-      <c r="M20" s="10">
-        <f t="shared" ref="M20" si="3">I20/(D20-J20)</f>
+      <c r="M20" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A20,DropAnalityka[LVL],'Location features'!$B20,DropAnalityka[Stage],'Location features'!$C20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" ref="N20" si="3">I20/(D20-J20)</f>
         <v>506.95454545454544</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f>L20/(D20-J20)</f>
         <v>213.81818181818181</v>
       </c>
-      <c r="O20" s="10"/>
       <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="10" t="s">
         <v>206</v>
       </c>
@@ -12236,18 +12307,22 @@
         <f>3*E21</f>
         <v>1815</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="53">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A21,DropAnalityka[LVL],'Location features'!$B21,DropAnalityka[Stage],'Location features'!$C21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <f>I21/(D21-J21)</f>
         <v>1408.4761904761904</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f>L21/(D21-J21)</f>
         <v>345.71428571428572</v>
       </c>
-      <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -12258,17 +12333,15 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
+      <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="53"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -12279,573 +12352,296 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
+      <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="J24" s="10"/>
-      <c r="K24" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
+      <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="K25">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="K26">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="K27">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="K28">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="K29">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="K30">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="K31">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="K32">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11">
-      <c r="K33">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11">
-      <c r="K34">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11">
-      <c r="K35">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11">
-      <c r="K36">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11">
-      <c r="K37">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="11:11">
-      <c r="K38">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11">
-      <c r="K39">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11">
-      <c r="K41">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11">
-      <c r="K42">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="11:11">
-      <c r="K43">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="11:11">
-      <c r="K44">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="11:11">
-      <c r="K45">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11">
-      <c r="K46">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="11:11">
-      <c r="K47">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="11:11">
-      <c r="K48">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="M25" s="49"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="M26" s="49"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="M27" s="49"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="M28" s="49"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="M29" s="49"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="M30" s="49"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="M31" s="49"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="M32" s="49"/>
+    </row>
+    <row r="33" spans="13:13">
+      <c r="M33" s="49"/>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" s="49"/>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35" s="49"/>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36" s="49"/>
+    </row>
+    <row r="37" spans="13:13">
+      <c r="M37" s="49"/>
+    </row>
+    <row r="38" spans="13:13">
+      <c r="M38" s="49"/>
+    </row>
+    <row r="39" spans="13:13">
+      <c r="M39" s="49"/>
+    </row>
+    <row r="40" spans="13:13">
+      <c r="M40" s="49"/>
+    </row>
+    <row r="41" spans="13:13">
+      <c r="M41" s="49"/>
+    </row>
+    <row r="42" spans="13:13">
+      <c r="M42" s="49"/>
+    </row>
+    <row r="43" spans="13:13">
+      <c r="M43" s="49"/>
+    </row>
+    <row r="44" spans="13:13">
+      <c r="M44" s="49"/>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" s="49"/>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="49"/>
+    </row>
+    <row r="47" spans="13:13">
+      <c r="M47" s="49"/>
+    </row>
+    <row r="48" spans="13:13">
+      <c r="M48" s="49"/>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" s="49"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="49"/>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" s="49"/>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" s="49"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="49"/>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="49"/>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" s="49"/>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="49"/>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" s="49"/>
+    </row>
+    <row r="58" spans="13:13">
+      <c r="M58" s="49"/>
+    </row>
+    <row r="59" spans="13:13">
+      <c r="M59" s="49"/>
+    </row>
+    <row r="60" spans="13:13">
+      <c r="M60" s="49"/>
+    </row>
+    <row r="61" spans="13:13">
+      <c r="M61" s="49"/>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" s="49"/>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" s="49"/>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" s="49"/>
+    </row>
+    <row r="65" spans="13:13">
+      <c r="M65" s="49"/>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66" s="49"/>
+    </row>
+    <row r="67" spans="13:13">
+      <c r="M67" s="49"/>
+    </row>
+    <row r="68" spans="13:13">
+      <c r="M68" s="49"/>
+    </row>
+    <row r="69" spans="13:13">
+      <c r="M69" s="49"/>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" s="49"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="49"/>
+    </row>
+    <row r="72" spans="13:13">
+      <c r="M72" s="49"/>
+    </row>
+    <row r="73" spans="13:13">
+      <c r="M73" s="49"/>
+    </row>
+    <row r="74" spans="13:13">
+      <c r="M74" s="49"/>
+    </row>
+    <row r="75" spans="13:13">
+      <c r="M75" s="49"/>
+    </row>
+    <row r="76" spans="13:13">
+      <c r="M76" s="49"/>
+    </row>
+    <row r="77" spans="13:13">
+      <c r="M77" s="49"/>
+    </row>
+    <row r="78" spans="13:13">
+      <c r="M78" s="49"/>
+    </row>
+    <row r="79" spans="13:13">
+      <c r="M79" s="49"/>
+    </row>
+    <row r="80" spans="13:13">
+      <c r="M80" s="49"/>
+    </row>
+    <row r="81" spans="13:13">
+      <c r="M81" s="49"/>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" s="49"/>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" s="49"/>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" s="49"/>
+    </row>
+    <row r="85" spans="13:13">
+      <c r="M85" s="49"/>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" s="49"/>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" s="49"/>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" s="49"/>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" s="49"/>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" s="49"/>
+    </row>
+    <row r="91" spans="13:13">
+      <c r="M91" s="49"/>
+    </row>
+    <row r="92" spans="13:13">
+      <c r="M92" s="49"/>
+    </row>
+    <row r="93" spans="13:13">
+      <c r="M93" s="49"/>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" s="49"/>
+    </row>
+    <row r="95" spans="13:13">
+      <c r="M95" s="49"/>
+    </row>
+    <row r="96" spans="13:13">
+      <c r="M96" s="49"/>
+    </row>
+    <row r="97" spans="13:13">
+      <c r="M97" s="49"/>
+    </row>
+    <row r="98" spans="13:13">
+      <c r="M98" s="49"/>
+    </row>
+    <row r="99" spans="13:13">
+      <c r="M99" s="49"/>
+    </row>
+    <row r="100" spans="13:13">
+      <c r="M100" s="49"/>
+    </row>
+    <row r="101" spans="13:13">
+      <c r="M101" s="49"/>
+    </row>
+    <row r="102" spans="13:13">
+      <c r="M102" s="49"/>
+    </row>
+    <row r="103" spans="13:13">
+      <c r="M103" s="49"/>
+    </row>
+    <row r="104" spans="13:13">
+      <c r="M104" s="49"/>
+    </row>
+    <row r="105" spans="13:13">
+      <c r="M105" s="49"/>
+    </row>
+    <row r="106" spans="13:13">
+      <c r="M106" s="49"/>
+    </row>
+    <row r="107" spans="13:13">
+      <c r="M107" s="49"/>
+    </row>
+    <row r="108" spans="13:13">
+      <c r="M108" s="49"/>
+    </row>
+    <row r="109" spans="13:13">
+      <c r="M109" s="49"/>
+    </row>
+    <row r="110" spans="13:13">
+      <c r="M110" s="49"/>
+    </row>
+    <row r="111" spans="13:13">
+      <c r="M111" s="49"/>
+    </row>
+    <row r="112" spans="13:13">
+      <c r="M112" s="49"/>
+    </row>
+    <row r="113" spans="13:13">
+      <c r="M113" s="49"/>
+    </row>
+    <row r="114" spans="13:13">
+      <c r="M114" s="49"/>
+    </row>
+    <row r="115" spans="13:13">
+      <c r="M115" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12856,12 +12652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K743"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H483" sqref="H483"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G497" sqref="G497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27104,6 +26900,9 @@
       <c r="F481" t="s">
         <v>62</v>
       </c>
+      <c r="G481" t="s">
+        <v>18</v>
+      </c>
       <c r="I481">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -27151,9 +26950,24 @@
       <c r="C483">
         <v>3</v>
       </c>
+      <c r="D483">
+        <v>1248</v>
+      </c>
+      <c r="E483">
+        <v>2</v>
+      </c>
+      <c r="F483" t="s">
+        <v>36</v>
+      </c>
+      <c r="G483">
+        <v>3</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
       <c r="I483">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J483">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27170,6 +26984,18 @@
       <c r="C484">
         <v>3</v>
       </c>
+      <c r="D484">
+        <v>1342</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484" t="s">
+        <v>175</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
       <c r="I484">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -27189,9 +27015,18 @@
       <c r="C485">
         <v>3</v>
       </c>
+      <c r="D485">
+        <v>2048</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>1159</v>
+      </c>
       <c r="I485">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J485">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27208,6 +27043,21 @@
       <c r="C486">
         <v>3</v>
       </c>
+      <c r="D486">
+        <v>2152</v>
+      </c>
+      <c r="E486">
+        <v>2</v>
+      </c>
+      <c r="F486" t="s">
+        <v>62</v>
+      </c>
+      <c r="G486" t="s">
+        <v>18</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
       <c r="I486">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -27227,9 +27077,18 @@
       <c r="C487">
         <v>3</v>
       </c>
+      <c r="D487">
+        <v>1171</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="H487">
+        <v>2067</v>
+      </c>
       <c r="I487">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="J487">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27246,9 +27105,18 @@
       <c r="C488">
         <v>3</v>
       </c>
+      <c r="D488">
+        <v>2951</v>
+      </c>
+      <c r="E488">
+        <v>2</v>
+      </c>
+      <c r="H488">
+        <v>2411</v>
+      </c>
       <c r="I488">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2411</v>
       </c>
       <c r="J488">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27265,9 +27133,18 @@
       <c r="C489">
         <v>3</v>
       </c>
+      <c r="D489">
+        <v>1340</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>1159</v>
+      </c>
       <c r="I489">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J489">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27284,9 +27161,18 @@
       <c r="C490">
         <v>3</v>
       </c>
+      <c r="D490">
+        <v>1120</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>1546</v>
+      </c>
       <c r="I490">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="J490">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27294,9 +27180,27 @@
       </c>
     </row>
     <row r="491" spans="1:10">
+      <c r="A491" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" t="s">
+        <v>34</v>
+      </c>
+      <c r="C491">
+        <v>3</v>
+      </c>
+      <c r="D491">
+        <v>805</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>2067</v>
+      </c>
       <c r="I491">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="J491">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27304,9 +27208,27 @@
       </c>
     </row>
     <row r="492" spans="1:10">
+      <c r="A492" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492" t="s">
+        <v>34</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492">
+        <v>1611</v>
+      </c>
+      <c r="E492">
+        <v>3</v>
+      </c>
+      <c r="H492">
+        <v>1159</v>
+      </c>
       <c r="I492">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J492">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27314,9 +27236,27 @@
       </c>
     </row>
     <row r="493" spans="1:10">
+      <c r="A493" t="s">
+        <v>8</v>
+      </c>
+      <c r="B493" t="s">
+        <v>34</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493">
+        <v>1332</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>1159</v>
+      </c>
       <c r="I493">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J493">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27324,9 +27264,27 @@
       </c>
     </row>
     <row r="494" spans="1:10">
+      <c r="A494" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494" t="s">
+        <v>34</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494">
+        <v>1613</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>2411</v>
+      </c>
       <c r="I494">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2411</v>
       </c>
       <c r="J494">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27334,9 +27292,27 @@
       </c>
     </row>
     <row r="495" spans="1:10">
+      <c r="A495" t="s">
+        <v>8</v>
+      </c>
+      <c r="B495" t="s">
+        <v>34</v>
+      </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495">
+        <v>1375</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>1159</v>
+      </c>
       <c r="I495">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J495">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -27344,9 +27320,27 @@
       </c>
     </row>
     <row r="496" spans="1:10">
+      <c r="A496" t="s">
+        <v>8</v>
+      </c>
+      <c r="B496" t="s">
+        <v>34</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+      <c r="D496">
+        <v>1277</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>1159</v>
+      </c>
       <c r="I496">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J496">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),81182,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),81182,0)))</f>
@@ -29841,7 +29835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29892,7 +29886,7 @@
         <v>293.25806451612902</v>
       </c>
       <c r="C3" s="6">
-        <f>(B3)*'Location features'!$N$9</f>
+        <f>(B3)*'Location features'!$O$9</f>
         <v>313220.07276819204</v>
       </c>
       <c r="D3">
@@ -30417,11 +30411,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ref="B18:B21" si="3">(2*$G18+$H18)/($O18-$N18)*L18</f>
-        <v>2633153.8619714691</v>
+        <v>2650234.1146437693</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:C21" si="4">($G18+$H18)/($O18-$N18)*M18</f>
-        <v>1638207.2487044379</v>
+        <v>1693937.6962365594</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -30455,11 +30449,11 @@
       </c>
       <c r="M18">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N18">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O18">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
@@ -30472,11 +30466,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>4321415.2936640531</v>
+        <v>4349446.646553725</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
-        <v>1344276.5272824336</v>
+        <v>1390007.6962365592</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -30510,11 +30504,11 @@
       </c>
       <c r="M19">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N19">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O19">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
@@ -30527,11 +30521,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>3962706.1303174393</v>
+        <v>3988410.6753307036</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
-        <v>1306174.3967277291</v>
+        <v>1350609.3629032259</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -30566,11 +30560,11 @@
       </c>
       <c r="M20">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N20">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O20">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
@@ -30583,11 +30577,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>3814071.8416655948</v>
+        <v>3838812.2534230682</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
-        <v>1306174.3967277291</v>
+        <v>1350609.3629032259</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -30622,11 +30616,11 @@
       </c>
       <c r="M21">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N21">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O21">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
@@ -30639,11 +30633,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22" si="5">(2*$G22+$H22)/($O22-$N22)*L22</f>
-        <v>1514961.8600225959</v>
+        <v>1524788.8328143456</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22" si="6">($G22+$H22)/($O22-$N22)*M22</f>
-        <v>471264.04887362133</v>
+        <v>487296.05970149254</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -30677,11 +30671,11 @@
       </c>
       <c r="M22">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N22">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O22">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
@@ -30694,11 +30688,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23" si="8">(2*$G23+$H23)/($O23-$N23)*L23</f>
-        <v>2016447.8601722142</v>
+        <v>2029527.7790670691</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23" si="9">($G23+$H23)/($O23-$N23)*M23</f>
-        <v>627262.90872638475</v>
+        <v>648601.87096774194</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -30732,11 +30726,11 @@
       </c>
       <c r="M23">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N23">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O23">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
@@ -30749,11 +30743,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ref="B24:B26" si="10">(2*$G24+$H24)/($O24-$N24)*L24</f>
-        <v>4238299.7558154473</v>
+        <v>4265791.9702947326</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:C26" si="11">($G24+$H24)/($O24-$N24)*M24</f>
-        <v>1318421.5101203127</v>
+        <v>1363273.1129032259</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -30784,11 +30778,11 @@
       </c>
       <c r="M24">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N24">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O24">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
@@ -31311,11 +31305,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="18"/>
-        <v>927196.86415627808</v>
+        <v>933211.232304479</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="19"/>
-        <v>288426.10486490757</v>
+        <v>298238.12096774194</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -31346,11 +31340,11 @@
       </c>
       <c r="M34">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N34">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O34">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
@@ -31363,11 +31357,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:B40" si="22">(2*$G35+$H35)/($O35-$N35)*L35</f>
-        <v>703758.59144068882</v>
+        <v>708323.60176375031</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ref="C35:C40" si="23">($G35+$H35)/($O35-$N35)*M35</f>
-        <v>437840.88825442636</v>
+        <v>452735.87096774194</v>
       </c>
       <c r="D35">
         <v>90</v>
@@ -31401,11 +31395,11 @@
       </c>
       <c r="M35">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
-        <v>3359.5906683480453</v>
+        <v>3451.4926470588234</v>
       </c>
       <c r="N35">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
-        <v>0.88524590163934425</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="O35">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
@@ -31764,7 +31758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -34298,7 +34292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L37"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -35081,7 +35075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EXP lvls" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="Runes for DPS" sheetId="6" r:id="rId5"/>
     <sheet name="TabPrz" sheetId="5" r:id="rId6"/>
     <sheet name="Runes to mobs" sheetId="7" r:id="rId7"/>
+    <sheet name="Runes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="243">
   <si>
     <t>Star</t>
   </si>
@@ -619,9 +620,6 @@
     <t>SPD/Acc</t>
   </si>
   <si>
-    <t>SPD//Acc</t>
-  </si>
-  <si>
     <t>HP/HP/HP</t>
   </si>
   <si>
@@ -635,9 +633,6 @@
   </si>
   <si>
     <t>Acc/SPD</t>
-  </si>
-  <si>
-    <t>B10 farm</t>
   </si>
   <si>
     <t>SPD/HP</t>
@@ -683,6 +678,81 @@
   </si>
   <si>
     <t>XP train/energy</t>
+  </si>
+  <si>
+    <t>SPD/HP &amp; DEF/Acc</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Nemezis/Guard</t>
+  </si>
+  <si>
+    <t>Ahman</t>
+  </si>
+  <si>
+    <t>HP/CR/HP</t>
+  </si>
+  <si>
+    <t>Violent/Swift</t>
+  </si>
+  <si>
+    <t>Berreta</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>B10 Giant</t>
+  </si>
+  <si>
+    <t>B10 Giant/B9 Dragon</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>HP%</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Acc%</t>
+  </si>
+  <si>
+    <t>Crit Rate%</t>
+  </si>
+  <si>
+    <t>Crit DMG%</t>
+  </si>
+  <si>
+    <t>Att%</t>
+  </si>
+  <si>
+    <t>Vamp</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Def%</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Res%</t>
+  </si>
+  <si>
+    <t>Chose</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -942,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1027,6 +1097,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -9756,11 +9829,6 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DropAnalityka" displayName="DropAnalityka" ref="A1:L743" totalsRowShown="0">
   <autoFilter ref="A1:L743">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Aiden"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="9"/>
   </autoFilter>
   <tableColumns count="12">
@@ -9795,6 +9863,28 @@
     <tableColumn id="6" name="Slots 2/4/6 "/>
     <tableColumn id="4" name="Substats"/>
     <tableColumn id="5" name="Uwagi"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela8" displayName="Tabela8" ref="A1:M10" totalsRowShown="0">
+  <autoFilter ref="A1:M10"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Grade"/>
+    <tableColumn id="3" name="Slot"/>
+    <tableColumn id="4" name="HP%"/>
+    <tableColumn id="5" name="HP"/>
+    <tableColumn id="6" name="Acc%"/>
+    <tableColumn id="7" name="SPD"/>
+    <tableColumn id="8" name="Crit Rate%"/>
+    <tableColumn id="9" name="Crit DMG%"/>
+    <tableColumn id="10" name="Att%"/>
+    <tableColumn id="11" name="Def%"/>
+    <tableColumn id="12" name="Res%"/>
+    <tableColumn id="13" name="Chose"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10088,7 +10178,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H30" sqref="H25:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10330,14 +10420,14 @@
       </c>
       <c r="M4">
         <f>M3-Tabela6[[#This Row],[Done]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <f>M4*$B$5</f>
-        <v>569250</v>
+        <v>759000</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -10549,7 +10639,7 @@
       </c>
       <c r="M7">
         <f>3*(M5+M4)-Tabela6[[#This Row],[Done]]</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10614,14 +10704,14 @@
       </c>
       <c r="M8">
         <f>M7+M6-Tabela6[[#This Row],[Done]]</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" s="1">
         <f>M8*$B$3</f>
-        <v>3188158</v>
+        <v>3295624</v>
       </c>
       <c r="P8">
         <v>17</v>
@@ -10682,7 +10772,7 @@
       </c>
       <c r="M9" s="6">
         <f>2*(M7+M6)-Tabela6[[#This Row],[Done]]</f>
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10719,14 +10809,14 @@
       </c>
       <c r="M10">
         <f>(M9+M8)-Tabela6[[#This Row],[Done]]</f>
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" s="52">
         <f>Tabela6[[#This Row],[Missing]]*$B$2</f>
-        <v>4037040</v>
+        <v>4173120</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -10759,7 +10849,7 @@
       </c>
       <c r="M11" s="6">
         <f>2*M10-Tabela6[[#This Row],[Done]]</f>
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10796,7 +10886,7 @@
       </c>
       <c r="O12" s="44">
         <f>SUM(Tabela6[XP to gain])</f>
-        <v>9438088</v>
+        <v>9871384</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -10964,8 +11054,8 @@
         <v>88</v>
       </c>
       <c r="M17">
-        <f>5-Tabela66[[#This Row],[Done]]</f>
-        <v>5</v>
+        <f>4-Tabela66[[#This Row],[Done]]</f>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -11003,14 +11093,14 @@
       </c>
       <c r="M18">
         <f>M17-Tabela66[[#This Row],[Done]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
         <f>M18*$B$4</f>
-        <v>410910</v>
+        <v>82182</v>
       </c>
     </row>
     <row r="19" spans="4:17">
@@ -11037,10 +11127,10 @@
       </c>
       <c r="M19">
         <f>3*(M17+M16)-Tabela66[[#This Row],[Done]]</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19">
@@ -11071,14 +11161,14 @@
       </c>
       <c r="M20">
         <f>M19+M18-Tabela66[[#This Row],[Done]]</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" s="1">
         <f>M20*$B$3</f>
-        <v>644796</v>
+        <v>35822</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -11102,10 +11192,10 @@
       </c>
       <c r="M21" s="6">
         <f>2*(M19+M18)-Tabela66[[#This Row],[Done]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O21" s="45"/>
       <c r="P21">
@@ -11133,14 +11223,14 @@
       </c>
       <c r="M22">
         <f>(M21+M20)-Tabela66[[#This Row],[Done]]</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" s="52">
         <f>Tabela66[[#This Row],[Missing]]*$B$2</f>
-        <v>272160</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="23" spans="4:17">
@@ -11164,7 +11254,7 @@
       </c>
       <c r="M23" s="6">
         <f>2*M22-Tabela66[[#This Row],[Done]]</f>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -11195,7 +11285,7 @@
       </c>
       <c r="O24" s="44">
         <f>SUM(Tabela66[XP to gain])</f>
-        <v>1327866</v>
+        <v>163364</v>
       </c>
     </row>
     <row r="25" spans="4:17">
@@ -11401,8 +11491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11446,7 +11536,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -11458,13 +11548,13 @@
         <v>59</v>
       </c>
       <c r="M1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" t="s">
         <v>217</v>
-      </c>
-      <c r="N1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" t="s">
-        <v>219</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -11513,11 +11603,11 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)</f>
         <v>2227</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="19">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)</f>
         <v>2</v>
       </c>
@@ -11529,19 +11619,19 @@
         <f>3*E2</f>
         <v>1890</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="57">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A2,DropAnalityka[LVL],'Location features'!$B2,DropAnalityka[Stage],'Location features'!$C2)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>2227</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1890</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1890</v>
       </c>
@@ -11606,11 +11696,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)</f>
         <v>2788.2439024390246</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="19">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)</f>
         <v>0.82926829268292679</v>
       </c>
@@ -11622,19 +11712,19 @@
         <f>3*E4</f>
         <v>1926</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="57">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A4,DropAnalityka[LVL],'Location features'!$B4,DropAnalityka[Stage],'Location features'!$C4)</f>
         <v>1106.3414634146341</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1284.4719101123596</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>887.25842696629206</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1396.9213483146066</v>
       </c>
@@ -11782,13 +11872,13 @@
       <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)</f>
-        <v>4134.5644796380084</v>
-      </c>
-      <c r="J8" s="10">
+        <v>3597.7858563102154</v>
+      </c>
+      <c r="J8" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
-        <v>0.82692307692307687</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="K8" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
@@ -11798,21 +11888,21 @@
         <f>3*E8</f>
         <v>3294</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
-        <v>2433.5</v>
-      </c>
-      <c r="N8" s="54">
+        <v>1888.686567164179</v>
+      </c>
+      <c r="N8" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1303.0142602495541</v>
-      </c>
-      <c r="O8" s="54">
+        <v>1148.6906649665148</v>
+      </c>
+      <c r="O8" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1038.1090909090908</v>
-      </c>
-      <c r="P8" s="54">
+        <v>1051.698795180723</v>
+      </c>
+      <c r="P8" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1805.0303030303028</v>
+        <v>1654.7131810825392</v>
       </c>
       <c r="S8"/>
     </row>
@@ -11838,11 +11928,11 @@
       <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A9,DropAnalityka[LVL],'Location features'!B9,DropAnalityka[Stage],'Location features'!C9)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A9,DropAnalityka[LVL],'Location features'!B9,DropAnalityka[Stage],'Location features'!C9)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A9,DropAnalityka[LVL],'Location features'!B9,DropAnalityka[Stage],'Location features'!C9)</f>
         <v>3224.358024691358</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A9,DropAnalityka[LVL],'Location features'!$B9,DropAnalityka[Stage],'Location features'!$C9)</f>
         <v>0.87654320987654322</v>
       </c>
@@ -11854,35 +11944,35 @@
         <f>3*E9</f>
         <v>2268</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A9,DropAnalityka[LVL],'Location features'!$B9,DropAnalityka[Stage],'Location features'!$C9)</f>
         <v>560</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1518.4476744186045</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1068.0697674418604</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1331.7906976744187</v>
       </c>
       <c r="Q9" s="10">
         <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N8-1</f>
-        <v>0.16533465576024509</v>
+        <v>0.32189432780222726</v>
       </c>
       <c r="R9" s="10">
         <f>LocFeatures[[#This Row],[XP/Energy]]/P8-1</f>
-        <v>-0.26217820529738745</v>
+        <v>-0.19515314623701707</v>
       </c>
       <c r="S9">
         <v>62</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U9" s="10">
         <v>125</v>
@@ -12005,11 +12095,11 @@
       <c r="F12" s="10">
         <v>12</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)</f>
         <v>4213.7449664429532</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
         <v>0.93288590604026844</v>
       </c>
@@ -12021,19 +12111,19 @@
         <f t="shared" ref="L12:L17" si="0">3*E12</f>
         <v>5400</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
         <v>1634.5369127516778</v>
       </c>
-      <c r="N12" s="54">
+      <c r="N12" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1036.052805280528</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1327.7227722772277</v>
       </c>
-      <c r="P12" s="54">
+      <c r="P12" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1729.6138613861385</v>
       </c>
@@ -12052,7 +12142,7 @@
         <v>157</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="10" customFormat="1">
@@ -12074,11 +12164,11 @@
       <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A13,DropAnalityka[LVL],'Location features'!B13,DropAnalityka[Stage],'Location features'!C13)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A13,DropAnalityka[LVL],'Location features'!B13,DropAnalityka[Stage],'Location features'!C13)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A13,DropAnalityka[LVL],'Location features'!B13,DropAnalityka[Stage],'Location features'!C13)</f>
         <v>4124.8571428571431</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A13,DropAnalityka[LVL],'Location features'!$B13,DropAnalityka[Stage],'Location features'!$C13)</f>
         <v>0.7142857142857143</v>
       </c>
@@ -12090,19 +12180,19 @@
         <f t="shared" si="0"/>
         <v>1317</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A13,DropAnalityka[LVL],'Location features'!$B13,DropAnalityka[Stage],'Location features'!$C13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>962.46666666666681</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>307.3</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>307.3</v>
       </c>
@@ -12127,11 +12217,11 @@
       <c r="F14" s="10">
         <v>10</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A14,DropAnalityka[LVL],'Location features'!B14,DropAnalityka[Stage],'Location features'!C14)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A14,DropAnalityka[LVL],'Location features'!B14,DropAnalityka[Stage],'Location features'!C14)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A14,DropAnalityka[LVL],'Location features'!B14,DropAnalityka[Stage],'Location features'!C14)</f>
         <v>12692</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="56">
         <v>0.65</v>
       </c>
       <c r="K14" s="10">
@@ -12142,19 +12232,19 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A14,DropAnalityka[LVL],'Location features'!$B14,DropAnalityka[Stage],'Location features'!$C14)</f>
         <v>66062</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>2917.7011494252874</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1034.4827586206898</v>
       </c>
-      <c r="P14" s="54">
+      <c r="P14" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>16221.149425287358</v>
       </c>
@@ -12179,11 +12269,11 @@
       <c r="F15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A15,DropAnalityka[LVL],'Location features'!B15,DropAnalityka[Stage],'Location features'!C15)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A15,DropAnalityka[LVL],'Location features'!B15,DropAnalityka[Stage],'Location features'!C15)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A15,DropAnalityka[LVL],'Location features'!B15,DropAnalityka[Stage],'Location features'!C15)</f>
-        <v>3742.3518282312921</v>
-      </c>
-      <c r="J15" s="10">
+        <v>3789.9479166666665</v>
+      </c>
+      <c r="J15" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A15,DropAnalityka[LVL],'Location features'!$B15,DropAnalityka[Stage],'Location features'!$C15)</f>
         <v>0.88541666666666663</v>
       </c>
@@ -12195,29 +12285,29 @@
         <f t="shared" si="0"/>
         <v>2397</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A15,DropAnalityka[LVL],'Location features'!$B15,DropAnalityka[Stage],'Location features'!$C15)</f>
-        <v>1388.5714285714287</v>
-      </c>
-      <c r="N15" s="54">
+        <v>1417.5</v>
+      </c>
+      <c r="N15" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1769.782145370463</v>
-      </c>
-      <c r="O15" s="54">
+        <v>1792.2906403940885</v>
+      </c>
+      <c r="O15" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1133.5566502463053</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1790.2209711470794</v>
+        <v>1803.9014778325122</v>
       </c>
       <c r="Q15" s="10">
         <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N9-1</f>
-        <v>0.16552066639246665</v>
+        <v>0.18034402540761585</v>
       </c>
       <c r="R15" s="10">
         <f>LocFeatures[[#This Row],[XP/Energy]]/P9-1</f>
-        <v>0.34422096075094566</v>
+        <v>0.35449322553648743</v>
       </c>
       <c r="S15"/>
     </row>
@@ -12240,11 +12330,11 @@
       <c r="F16" s="10">
         <v>13</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A16,DropAnalityka[LVL],'Location features'!B16,DropAnalityka[Stage],'Location features'!C16)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A16,DropAnalityka[LVL],'Location features'!B16,DropAnalityka[Stage],'Location features'!C16)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A16,DropAnalityka[LVL],'Location features'!B16,DropAnalityka[Stage],'Location features'!C16)</f>
         <v>3392</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A16,DropAnalityka[LVL],'Location features'!$B16,DropAnalityka[Stage],'Location features'!$C16)</f>
         <v>0</v>
       </c>
@@ -12256,19 +12346,19 @@
         <f t="shared" si="0"/>
         <v>2412</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A16,DropAnalityka[LVL],'Location features'!$B16,DropAnalityka[Stage],'Location features'!$C16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="54">
+      <c r="N16" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1130.6666666666667</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>804</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>804</v>
       </c>
@@ -12290,11 +12380,11 @@
       <c r="E17" s="10">
         <v>804</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A17,DropAnalityka[LVL],'Location features'!B17,DropAnalityka[Stage],'Location features'!C17)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A17,DropAnalityka[LVL],'Location features'!B17,DropAnalityka[Stage],'Location features'!C17)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A17,DropAnalityka[LVL],'Location features'!B17,DropAnalityka[Stage],'Location features'!C17)</f>
         <v>2964</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A17,DropAnalityka[LVL],'Location features'!$B17,DropAnalityka[Stage],'Location features'!$C17)</f>
         <v>0</v>
       </c>
@@ -12306,19 +12396,19 @@
         <f t="shared" si="0"/>
         <v>2412</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A17,DropAnalityka[LVL],'Location features'!$B17,DropAnalityka[Stage],'Location features'!$C17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="54">
+      <c r="N17" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>988</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>804</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>804</v>
       </c>
@@ -12340,11 +12430,11 @@
       <c r="E18" s="10">
         <v>1276</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A18,DropAnalityka[LVL],'Location features'!B18,DropAnalityka[Stage],'Location features'!C18)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A18,DropAnalityka[LVL],'Location features'!B18,DropAnalityka[Stage],'Location features'!C18)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A18,DropAnalityka[LVL],'Location features'!B18,DropAnalityka[Stage],'Location features'!C18)</f>
         <v>5581.1860465116279</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="56">
         <f>J9</f>
         <v>0.87654320987654322</v>
       </c>
@@ -12353,24 +12443,24 @@
         <v>5104</v>
       </c>
       <c r="L18" s="10">
-        <f>2*E18</f>
-        <v>2552</v>
-      </c>
-      <c r="M18" s="53">
+        <f>3*E18</f>
+        <v>3828</v>
+      </c>
+      <c r="M18" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A18,DropAnalityka[LVL],'Location features'!$B18,DropAnalityka[Stage],'Location features'!$C18)</f>
         <v>4127.5348837209303</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1786.8619358396911</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>817.04347826086951</v>
-      </c>
-      <c r="P18" s="54">
+        <v>1225.5652173913043</v>
+      </c>
+      <c r="P18" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>2138.5072157367404</v>
+        <v>2547.0289548671753</v>
       </c>
       <c r="S18">
         <v>122</v>
@@ -12450,11 +12540,11 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="53">
+      <c r="I20" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A20,DropAnalityka[LVL],'Location features'!B20,DropAnalityka[Stage],'Location features'!C20)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A20,DropAnalityka[LVL],'Location features'!B20,DropAnalityka[Stage],'Location features'!C20)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A20,DropAnalityka[LVL],'Location features'!B20,DropAnalityka[Stage],'Location features'!C20)</f>
         <v>2788.25</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A20,DropAnalityka[LVL],'Location features'!$B20,DropAnalityka[Stage],'Location features'!$C20)</f>
         <v>0.5</v>
       </c>
@@ -12466,19 +12556,19 @@
         <f>3*E20</f>
         <v>1176</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A20,DropAnalityka[LVL],'Location features'!$B20,DropAnalityka[Stage],'Location features'!$C20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>506.95454545454544</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>213.81818181818181</v>
       </c>
-      <c r="P20" s="54">
+      <c r="P20" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>213.81818181818181</v>
       </c>
@@ -12487,7 +12577,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -12504,11 +12594,11 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="53">
+      <c r="I21" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A21,DropAnalityka[LVL],'Location features'!B21,DropAnalityka[Stage],'Location features'!C21)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A21,DropAnalityka[LVL],'Location features'!B21,DropAnalityka[Stage],'Location features'!C21)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A21,DropAnalityka[LVL],'Location features'!B21,DropAnalityka[Stage],'Location features'!C21)</f>
         <v>7394.5</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A21,DropAnalityka[LVL],'Location features'!$B21,DropAnalityka[Stage],'Location features'!$C21)</f>
         <v>1.75</v>
       </c>
@@ -12520,19 +12610,19 @@
         <f>3*E21</f>
         <v>1815</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A21,DropAnalityka[LVL],'Location features'!$B21,DropAnalityka[Stage],'Location features'!$C21)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1408.4761904761904</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>345.71428571428572</v>
       </c>
-      <c r="P21" s="54">
+      <c r="P21" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>345.71428571428572</v>
       </c>
@@ -13340,9 +13430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G517" sqref="G517"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G518" sqref="G518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13378,22 +13468,22 @@
         <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -13425,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13457,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13495,7 +13585,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -13527,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -13559,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13591,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13629,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13667,7 +13757,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -13705,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -13737,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -13775,7 +13865,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -13807,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -13839,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -13871,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -13903,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -13941,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -13979,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -14011,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -14043,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -14075,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -14113,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -14145,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -14177,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -14215,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -14247,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -14285,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -14317,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -14349,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -14381,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -14419,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -14451,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -14483,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -14521,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -14559,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -14591,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -14623,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -14655,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -14687,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -14719,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -14751,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -14783,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -14821,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -14853,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -14891,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -14923,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -14955,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -14987,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -15019,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -15051,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -15089,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -15121,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -15153,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -15191,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -15229,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -15261,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -15293,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -15325,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -15357,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -15389,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -15421,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -15453,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -15485,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -15517,7 +15607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -15549,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -15587,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -15619,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -15657,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -15689,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -15721,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -15759,7 +15849,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -15791,7 +15881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -15823,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -15855,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -15893,7 +15983,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -15925,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -15963,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -15995,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -16027,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -16065,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -16097,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -16129,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -16161,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -16199,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -16231,7 +16321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -16263,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -16301,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -16333,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -16365,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -16403,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -16435,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -16467,7 +16557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -16505,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -16537,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -16575,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -16607,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -16639,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -16671,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -16703,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -16741,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -16773,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -16805,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -16837,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -16869,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -16901,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -16933,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -16965,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -16997,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -17035,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -17067,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -17099,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -17131,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -17163,7 +17253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -17201,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -17233,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -17265,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -17303,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -17335,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -17364,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -17399,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -17431,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -17463,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -17495,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -17533,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -17571,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -17603,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -17635,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -17667,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -17705,7 +17795,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -17743,7 +17833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -17781,7 +17871,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -17819,7 +17909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -17857,7 +17947,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -17889,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -17927,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -17959,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -17997,7 +18087,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -18029,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -18061,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -18099,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -18131,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -18163,7 +18253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -18195,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -18227,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -18265,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -18297,7 +18387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>33</v>
       </c>
@@ -18329,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -18361,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>33</v>
       </c>
@@ -18393,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -18431,7 +18521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -18462,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -18500,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -18531,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -18569,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -18600,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -18631,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>33</v>
       </c>
@@ -18669,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -18700,7 +18790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>33</v>
       </c>
@@ -18731,7 +18821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>33</v>
       </c>
@@ -18769,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -18807,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>33</v>
       </c>
@@ -18845,7 +18935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>33</v>
       </c>
@@ -18882,7 +18972,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -18913,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>33</v>
       </c>
@@ -18944,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -18982,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>33</v>
       </c>
@@ -19020,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>33</v>
       </c>
@@ -19051,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>33</v>
       </c>
@@ -19089,7 +19179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>40</v>
       </c>
@@ -19126,7 +19216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>40</v>
       </c>
@@ -19164,7 +19254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>40</v>
       </c>
@@ -19202,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>40</v>
       </c>
@@ -19240,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -19277,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -19315,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>40</v>
       </c>
@@ -19352,7 +19442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -19377,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>67</v>
       </c>
@@ -19414,7 +19504,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -19445,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -19482,7 +19572,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -19520,7 +19610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -19557,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -19588,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -19619,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -19657,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -19688,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -22183,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1">
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -22214,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -22825,7 +22915,7 @@
         <v>0.35532407407407413</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1">
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>33</v>
       </c>
@@ -22859,7 +22949,7 @@
         <v>0.35555555555555557</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1">
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>33</v>
       </c>
@@ -22897,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1">
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -22934,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1">
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>166</v>
       </c>
@@ -22971,7 +23061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1">
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>166</v>
       </c>
@@ -23008,7 +23098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1">
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>166</v>
       </c>
@@ -23045,7 +23135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1">
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>166</v>
       </c>
@@ -23082,7 +23172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1">
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>166</v>
       </c>
@@ -23119,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1">
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>166</v>
       </c>
@@ -23156,7 +23246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1">
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>166</v>
       </c>
@@ -23193,7 +23283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1">
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>166</v>
       </c>
@@ -23230,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1">
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>166</v>
       </c>
@@ -23267,7 +23357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>166</v>
       </c>
@@ -23305,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1">
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>166</v>
       </c>
@@ -23342,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1">
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>166</v>
       </c>
@@ -23380,7 +23470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1">
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
         <v>166</v>
       </c>
@@ -23417,7 +23507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1">
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
         <v>166</v>
       </c>
@@ -23454,7 +23544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1">
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
         <v>166</v>
       </c>
@@ -23492,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1">
+    <row r="300" spans="1:11">
       <c r="A300" t="s">
         <v>166</v>
       </c>
@@ -23529,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1">
+    <row r="301" spans="1:11">
       <c r="A301" t="s">
         <v>33</v>
       </c>
@@ -23560,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1">
+    <row r="302" spans="1:11">
       <c r="A302" t="s">
         <v>33</v>
       </c>
@@ -23597,7 +23687,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1">
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
         <v>33</v>
       </c>
@@ -23628,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304" t="s">
         <v>33</v>
       </c>
@@ -23659,7 +23749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1">
+    <row r="305" spans="1:11">
       <c r="A305" t="s">
         <v>33</v>
       </c>
@@ -23690,7 +23780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1">
+    <row r="306" spans="1:11">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -23721,7 +23811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1">
+    <row r="307" spans="1:11">
       <c r="A307" t="s">
         <v>33</v>
       </c>
@@ -23759,7 +23849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1">
+    <row r="308" spans="1:11">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -23790,7 +23880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1">
+    <row r="309" spans="1:11">
       <c r="A309" t="s">
         <v>33</v>
       </c>
@@ -23827,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1">
+    <row r="310" spans="1:11">
       <c r="A310" t="s">
         <v>33</v>
       </c>
@@ -23864,7 +23954,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1">
+    <row r="311" spans="1:11">
       <c r="A311" t="s">
         <v>33</v>
       </c>
@@ -23895,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1">
+    <row r="312" spans="1:11">
       <c r="A312" t="s">
         <v>33</v>
       </c>
@@ -23932,7 +24022,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1">
+    <row r="313" spans="1:11">
       <c r="A313" t="s">
         <v>33</v>
       </c>
@@ -23963,7 +24053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1">
+    <row r="314" spans="1:11">
       <c r="A314" t="s">
         <v>33</v>
       </c>
@@ -24001,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1">
+    <row r="315" spans="1:11">
       <c r="A315" t="s">
         <v>33</v>
       </c>
@@ -24032,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1">
+    <row r="316" spans="1:11">
       <c r="A316" t="s">
         <v>33</v>
       </c>
@@ -24063,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1">
+    <row r="317" spans="1:11">
       <c r="A317" t="s">
         <v>33</v>
       </c>
@@ -24094,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1">
+    <row r="318" spans="1:11">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -24125,7 +24215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1">
+    <row r="319" spans="1:11">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -24163,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1">
+    <row r="320" spans="1:11">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -24194,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1">
+    <row r="321" spans="1:11">
       <c r="A321" t="s">
         <v>33</v>
       </c>
@@ -24225,7 +24315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1">
+    <row r="322" spans="1:11">
       <c r="A322" t="s">
         <v>33</v>
       </c>
@@ -24256,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1">
+    <row r="323" spans="1:11">
       <c r="A323" t="s">
         <v>33</v>
       </c>
@@ -24287,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1">
+    <row r="324" spans="1:11">
       <c r="A324" t="s">
         <v>33</v>
       </c>
@@ -24325,7 +24415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1">
+    <row r="325" spans="1:11">
       <c r="A325" t="s">
         <v>33</v>
       </c>
@@ -24356,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1">
+    <row r="326" spans="1:11">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -24387,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1">
+    <row r="327" spans="1:11">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -24418,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1">
+    <row r="328" spans="1:11">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -24449,7 +24539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1">
+    <row r="329" spans="1:11">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -24486,7 +24576,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1">
+    <row r="330" spans="1:11">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -24523,7 +24613,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1">
+    <row r="331" spans="1:11">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -24554,7 +24644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1">
+    <row r="332" spans="1:11">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -24585,7 +24675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1">
+    <row r="333" spans="1:11">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -24616,9 +24706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1">
+    <row r="334" spans="1:11">
       <c r="A334" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B334" t="s">
         <v>9</v>
@@ -24647,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1">
+    <row r="335" spans="1:11">
       <c r="A335" t="s">
         <v>40</v>
       </c>
@@ -24678,9 +24768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1">
+    <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B336" t="s">
         <v>9</v>
@@ -24695,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G336">
         <v>5</v>
@@ -24709,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1">
+    <row r="337" spans="1:11">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -24740,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1">
+    <row r="338" spans="1:11">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -24771,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1">
+    <row r="339" spans="1:11">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -24802,7 +24892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1">
+    <row r="340" spans="1:11">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -24833,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1">
+    <row r="341" spans="1:11">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -24864,7 +24954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1">
+    <row r="342" spans="1:11">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -24895,7 +24985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1">
+    <row r="343" spans="1:11">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -24933,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1">
+    <row r="344" spans="1:11">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -24964,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1">
+    <row r="345" spans="1:11">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -24995,7 +25085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1">
+    <row r="346" spans="1:11">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -25026,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1">
+    <row r="347" spans="1:11">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -25060,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1">
+    <row r="348" spans="1:11">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -25091,7 +25181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1">
+    <row r="349" spans="1:11">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -25129,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1">
+    <row r="350" spans="1:11">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -25160,7 +25250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1">
+    <row r="351" spans="1:11">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -25191,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1">
+    <row r="352" spans="1:11">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -25222,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1">
+    <row r="353" spans="1:11">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -25253,7 +25343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1">
+    <row r="354" spans="1:11">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -25291,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1">
+    <row r="355" spans="1:11">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -25322,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1">
+    <row r="356" spans="1:11">
       <c r="A356" t="s">
         <v>33</v>
       </c>
@@ -25353,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1">
+    <row r="357" spans="1:11">
       <c r="A357" t="s">
         <v>33</v>
       </c>
@@ -25384,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1">
+    <row r="358" spans="1:11">
       <c r="A358" t="s">
         <v>33</v>
       </c>
@@ -25415,7 +25505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1">
+    <row r="359" spans="1:11">
       <c r="A359" t="s">
         <v>33</v>
       </c>
@@ -25446,7 +25536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1">
+    <row r="360" spans="1:11">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -25484,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1">
+    <row r="361" spans="1:11">
       <c r="A361" t="s">
         <v>33</v>
       </c>
@@ -25515,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1">
+    <row r="362" spans="1:11">
       <c r="A362" t="s">
         <v>33</v>
       </c>
@@ -25546,7 +25636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1">
+    <row r="363" spans="1:11">
       <c r="A363" t="s">
         <v>33</v>
       </c>
@@ -25577,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1">
+    <row r="364" spans="1:11">
       <c r="A364" t="s">
         <v>33</v>
       </c>
@@ -25612,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1">
+    <row r="365" spans="1:11">
       <c r="A365" t="s">
         <v>33</v>
       </c>
@@ -25643,7 +25733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1">
+    <row r="366" spans="1:11">
       <c r="A366" t="s">
         <v>33</v>
       </c>
@@ -25674,9 +25764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1">
+    <row r="367" spans="1:11">
       <c r="A367" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B367" t="s">
         <v>9</v>
@@ -25705,9 +25795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1">
+    <row r="368" spans="1:11">
       <c r="A368" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B368" t="s">
         <v>9</v>
@@ -25736,9 +25826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1">
+    <row r="369" spans="1:11">
       <c r="A369" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B369" t="s">
         <v>9</v>
@@ -25767,9 +25857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1">
+    <row r="370" spans="1:11">
       <c r="A370" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B370" t="s">
         <v>9</v>
@@ -25801,9 +25891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1">
+    <row r="371" spans="1:11">
       <c r="A371" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B371" t="s">
         <v>9</v>
@@ -25839,9 +25929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1">
+    <row r="372" spans="1:11">
       <c r="A372" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B372" t="s">
         <v>9</v>
@@ -25877,9 +25967,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1">
+    <row r="373" spans="1:11">
       <c r="A373" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B373" t="s">
         <v>9</v>
@@ -25908,9 +25998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1">
+    <row r="374" spans="1:11">
       <c r="A374" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B374" t="s">
         <v>9</v>
@@ -25939,9 +26029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1">
+    <row r="375" spans="1:11">
       <c r="A375" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B375" t="s">
         <v>9</v>
@@ -25970,9 +26060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1">
+    <row r="376" spans="1:11">
       <c r="A376" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B376" t="s">
         <v>9</v>
@@ -26001,9 +26091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1">
+    <row r="377" spans="1:11">
       <c r="A377" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B377" t="s">
         <v>9</v>
@@ -26032,9 +26122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1">
+    <row r="378" spans="1:11">
       <c r="A378" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B378" t="s">
         <v>9</v>
@@ -26063,9 +26153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1">
+    <row r="379" spans="1:11">
       <c r="A379" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B379" t="s">
         <v>9</v>
@@ -26101,9 +26191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1">
+    <row r="380" spans="1:11">
       <c r="A380" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B380" t="s">
         <v>9</v>
@@ -26132,9 +26222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1">
+    <row r="381" spans="1:11">
       <c r="A381" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B381" t="s">
         <v>9</v>
@@ -26170,9 +26260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1">
+    <row r="382" spans="1:11">
       <c r="A382" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B382" t="s">
         <v>9</v>
@@ -26208,7 +26298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1">
+    <row r="383" spans="1:11">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -26240,7 +26330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1">
+    <row r="384" spans="1:11">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -26278,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1">
+    <row r="385" spans="1:11">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -26310,7 +26400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1">
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>8</v>
       </c>
@@ -26342,7 +26432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1">
+    <row r="387" spans="1:11">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -26374,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1">
+    <row r="388" spans="1:11">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -26406,7 +26496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1">
+    <row r="389" spans="1:11">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -26438,7 +26528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1">
+    <row r="390" spans="1:11">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -26470,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1">
+    <row r="391" spans="1:11">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -26502,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1">
+    <row r="392" spans="1:11">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -26534,7 +26624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1">
+    <row r="393" spans="1:11">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -26566,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1">
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -26598,7 +26688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1">
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -26630,7 +26720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1">
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -26662,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1">
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -26694,7 +26784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1">
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -26726,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1">
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -26758,7 +26848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1">
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -26796,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1">
+    <row r="401" spans="1:11">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -26828,7 +26918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1">
+    <row r="402" spans="1:11">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -26860,7 +26950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1">
+    <row r="403" spans="1:11">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -26898,7 +26988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1">
+    <row r="404" spans="1:11">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -26930,7 +27020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1">
+    <row r="405" spans="1:11">
       <c r="A405" t="s">
         <v>8</v>
       </c>
@@ -26962,7 +27052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1">
+    <row r="406" spans="1:11">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -26994,7 +27084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1">
+    <row r="407" spans="1:11">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -27026,7 +27116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1">
+    <row r="408" spans="1:11">
       <c r="A408" t="s">
         <v>8</v>
       </c>
@@ -27058,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1">
+    <row r="409" spans="1:11">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -27090,7 +27180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1">
+    <row r="410" spans="1:11">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -27122,7 +27212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1">
+    <row r="411" spans="1:11">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -27154,7 +27244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1">
+    <row r="412" spans="1:11">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -27186,7 +27276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1">
+    <row r="413" spans="1:11">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -27224,7 +27314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1">
+    <row r="414" spans="1:11">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -27256,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1">
+    <row r="415" spans="1:11">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -27288,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1">
+    <row r="416" spans="1:11">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -27320,7 +27410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1">
+    <row r="417" spans="1:11">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -27352,7 +27442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1">
+    <row r="418" spans="1:11">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -27390,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1">
+    <row r="419" spans="1:11">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -27422,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1">
+    <row r="420" spans="1:11">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -27454,7 +27544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1">
+    <row r="421" spans="1:11">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -27486,7 +27576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1">
+    <row r="422" spans="1:11">
       <c r="A422" t="s">
         <v>8</v>
       </c>
@@ -27524,7 +27614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1">
+    <row r="423" spans="1:11">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -27562,7 +27652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1">
+    <row r="424" spans="1:11">
       <c r="A424" t="s">
         <v>8</v>
       </c>
@@ -27594,7 +27684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1">
+    <row r="425" spans="1:11">
       <c r="A425" t="s">
         <v>8</v>
       </c>
@@ -27626,7 +27716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1">
+    <row r="426" spans="1:11">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -27658,7 +27748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1">
+    <row r="427" spans="1:11">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -27690,7 +27780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1">
+    <row r="428" spans="1:11">
       <c r="A428" t="s">
         <v>8</v>
       </c>
@@ -27722,7 +27812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1">
+    <row r="429" spans="1:11">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -27754,7 +27844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1">
+    <row r="430" spans="1:11">
       <c r="A430" t="s">
         <v>8</v>
       </c>
@@ -27786,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1">
+    <row r="431" spans="1:11">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -27818,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1">
+    <row r="432" spans="1:11">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -27850,7 +27940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1">
+    <row r="433" spans="1:11">
       <c r="A433" t="s">
         <v>8</v>
       </c>
@@ -27888,7 +27978,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1">
+    <row r="434" spans="1:11">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -27920,7 +28010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1">
+    <row r="435" spans="1:11">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -27958,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1">
+    <row r="436" spans="1:11">
       <c r="A436" t="s">
         <v>8</v>
       </c>
@@ -27996,7 +28086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1">
+    <row r="437" spans="1:11">
       <c r="A437" t="s">
         <v>8</v>
       </c>
@@ -28031,9 +28121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1">
+    <row r="438" spans="1:11">
       <c r="A438" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B438" t="s">
         <v>9</v>
@@ -28069,7 +28159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1">
+    <row r="439" spans="1:11">
       <c r="A439" t="s">
         <v>8</v>
       </c>
@@ -28107,7 +28197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1">
+    <row r="440" spans="1:11">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -28145,7 +28235,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1">
+    <row r="441" spans="1:11">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -28177,7 +28267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1">
+    <row r="442" spans="1:11">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -28212,7 +28302,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1">
+    <row r="443" spans="1:11">
       <c r="A443" t="s">
         <v>8</v>
       </c>
@@ -28244,7 +28334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1">
+    <row r="444" spans="1:11">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -28276,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1">
+    <row r="445" spans="1:11">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -28308,7 +28398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1">
+    <row r="446" spans="1:11">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -28346,7 +28436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1">
+    <row r="447" spans="1:11">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -28378,7 +28468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1">
+    <row r="448" spans="1:11">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -28410,7 +28500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1">
+    <row r="449" spans="1:11">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -28442,7 +28532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1">
+    <row r="450" spans="1:11">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -28480,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1">
+    <row r="451" spans="1:11">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -28512,7 +28602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1">
+    <row r="452" spans="1:11">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -28544,7 +28634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1">
+    <row r="453" spans="1:11">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -28576,7 +28666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1">
+    <row r="454" spans="1:11">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -28608,7 +28698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1">
+    <row r="455" spans="1:11">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -28640,7 +28730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1">
+    <row r="456" spans="1:11">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -28678,7 +28768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1">
+    <row r="457" spans="1:11">
       <c r="A457" t="s">
         <v>8</v>
       </c>
@@ -28716,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1">
+    <row r="458" spans="1:11">
       <c r="A458" t="s">
         <v>8</v>
       </c>
@@ -28748,7 +28838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1">
+    <row r="459" spans="1:11">
       <c r="A459" t="s">
         <v>8</v>
       </c>
@@ -28780,7 +28870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1">
+    <row r="460" spans="1:11">
       <c r="A460" t="s">
         <v>8</v>
       </c>
@@ -28812,7 +28902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1">
+    <row r="461" spans="1:11">
       <c r="A461" t="s">
         <v>8</v>
       </c>
@@ -28847,7 +28937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1">
+    <row r="462" spans="1:11">
       <c r="A462" t="s">
         <v>8</v>
       </c>
@@ -28879,7 +28969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1">
+    <row r="463" spans="1:11">
       <c r="A463" t="s">
         <v>8</v>
       </c>
@@ -28911,7 +29001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1">
+    <row r="464" spans="1:11">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -28949,7 +29039,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1">
+    <row r="465" spans="1:11">
       <c r="A465" t="s">
         <v>8</v>
       </c>
@@ -28981,7 +29071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1">
+    <row r="466" spans="1:11">
       <c r="A466" t="s">
         <v>8</v>
       </c>
@@ -29016,7 +29106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1">
+    <row r="467" spans="1:11">
       <c r="A467" t="s">
         <v>8</v>
       </c>
@@ -29051,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1">
+    <row r="468" spans="1:11">
       <c r="A468" t="s">
         <v>8</v>
       </c>
@@ -29083,7 +29173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1">
+    <row r="469" spans="1:11">
       <c r="A469" t="s">
         <v>8</v>
       </c>
@@ -29115,7 +29205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1">
+    <row r="470" spans="1:11">
       <c r="A470" t="s">
         <v>8</v>
       </c>
@@ -29147,7 +29237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1">
+    <row r="471" spans="1:11">
       <c r="A471" t="s">
         <v>8</v>
       </c>
@@ -29179,7 +29269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1">
+    <row r="472" spans="1:11">
       <c r="A472" t="s">
         <v>8</v>
       </c>
@@ -29217,7 +29307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1">
+    <row r="473" spans="1:11">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -29252,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1">
+    <row r="474" spans="1:11">
       <c r="A474" t="s">
         <v>8</v>
       </c>
@@ -29284,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1">
+    <row r="475" spans="1:11">
       <c r="A475" t="s">
         <v>8</v>
       </c>
@@ -29319,7 +29409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1">
+    <row r="476" spans="1:11">
       <c r="A476" t="s">
         <v>8</v>
       </c>
@@ -29351,7 +29441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1">
+    <row r="477" spans="1:11">
       <c r="A477" t="s">
         <v>8</v>
       </c>
@@ -29383,7 +29473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1">
+    <row r="478" spans="1:11">
       <c r="A478" t="s">
         <v>8</v>
       </c>
@@ -29415,7 +29505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1">
+    <row r="479" spans="1:11">
       <c r="A479" t="s">
         <v>8</v>
       </c>
@@ -29453,7 +29543,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1">
+    <row r="480" spans="1:11">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -29485,7 +29575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1">
+    <row r="481" spans="1:11">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -29520,7 +29610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1">
+    <row r="482" spans="1:11">
       <c r="A482" t="s">
         <v>8</v>
       </c>
@@ -29552,7 +29642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1">
+    <row r="483" spans="1:11">
       <c r="A483" t="s">
         <v>8</v>
       </c>
@@ -29590,7 +29680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1">
+    <row r="484" spans="1:11">
       <c r="A484" t="s">
         <v>8</v>
       </c>
@@ -29625,7 +29715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1">
+    <row r="485" spans="1:11">
       <c r="A485" t="s">
         <v>8</v>
       </c>
@@ -29657,7 +29747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1">
+    <row r="486" spans="1:11">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -29695,7 +29785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1">
+    <row r="487" spans="1:11">
       <c r="A487" t="s">
         <v>8</v>
       </c>
@@ -29727,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1">
+    <row r="488" spans="1:11">
       <c r="A488" t="s">
         <v>8</v>
       </c>
@@ -29759,7 +29849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1">
+    <row r="489" spans="1:11">
       <c r="A489" t="s">
         <v>8</v>
       </c>
@@ -29791,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1">
+    <row r="490" spans="1:11">
       <c r="A490" t="s">
         <v>8</v>
       </c>
@@ -29823,7 +29913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1">
+    <row r="491" spans="1:11">
       <c r="A491" t="s">
         <v>8</v>
       </c>
@@ -29855,7 +29945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1">
+    <row r="492" spans="1:11">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -29887,7 +29977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1">
+    <row r="493" spans="1:11">
       <c r="A493" t="s">
         <v>8</v>
       </c>
@@ -29919,7 +30009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1">
+    <row r="494" spans="1:11">
       <c r="A494" t="s">
         <v>8</v>
       </c>
@@ -29951,7 +30041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1">
+    <row r="495" spans="1:11">
       <c r="A495" t="s">
         <v>8</v>
       </c>
@@ -29983,7 +30073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1">
+    <row r="496" spans="1:11">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -30015,7 +30105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1">
+    <row r="497" spans="1:11">
       <c r="A497" t="s">
         <v>8</v>
       </c>
@@ -30047,7 +30137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1">
+    <row r="498" spans="1:11">
       <c r="A498" t="s">
         <v>8</v>
       </c>
@@ -30079,7 +30169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1">
+    <row r="499" spans="1:11">
       <c r="A499" t="s">
         <v>8</v>
       </c>
@@ -30117,7 +30207,7 @@
         <v>66062</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1">
+    <row r="500" spans="1:11">
       <c r="A500" t="s">
         <v>8</v>
       </c>
@@ -30149,7 +30239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1">
+    <row r="501" spans="1:11">
       <c r="A501" t="s">
         <v>8</v>
       </c>
@@ -30184,7 +30274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1">
+    <row r="502" spans="1:11">
       <c r="A502" t="s">
         <v>8</v>
       </c>
@@ -30216,7 +30306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1">
+    <row r="503" spans="1:11">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -30248,7 +30338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1">
+    <row r="504" spans="1:11">
       <c r="A504" t="s">
         <v>8</v>
       </c>
@@ -30283,7 +30373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1">
+    <row r="505" spans="1:11">
       <c r="A505" t="s">
         <v>8</v>
       </c>
@@ -30315,7 +30405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" hidden="1">
+    <row r="506" spans="1:11">
       <c r="A506" t="s">
         <v>8</v>
       </c>
@@ -30347,7 +30437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1">
+    <row r="507" spans="1:11">
       <c r="A507" t="s">
         <v>8</v>
       </c>
@@ -30385,7 +30475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1">
+    <row r="508" spans="1:11">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -30417,7 +30507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1">
+    <row r="509" spans="1:11">
       <c r="A509" t="s">
         <v>8</v>
       </c>
@@ -30693,17 +30783,32 @@
     </row>
     <row r="517" spans="1:11">
       <c r="A517" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B517" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D517">
+        <v>2474</v>
+      </c>
+      <c r="E517">
+        <v>3</v>
+      </c>
+      <c r="F517" t="s">
+        <v>36</v>
+      </c>
+      <c r="G517">
+        <v>2</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
       </c>
       <c r="I517">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J517" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -30716,13 +30821,13 @@
     </row>
     <row r="518" spans="1:11">
       <c r="A518" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B518" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I518">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -30737,7 +30842,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1">
+    <row r="519" spans="1:11">
+      <c r="A519" t="s">
+        <v>8</v>
+      </c>
+      <c r="B519" t="s">
+        <v>32</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
       <c r="I519">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30751,7 +30865,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1">
+    <row r="520" spans="1:11">
+      <c r="A520" t="s">
+        <v>8</v>
+      </c>
+      <c r="B520" t="s">
+        <v>32</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
       <c r="I520">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30765,7 +30888,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1">
+    <row r="521" spans="1:11">
+      <c r="A521" t="s">
+        <v>8</v>
+      </c>
+      <c r="B521" t="s">
+        <v>32</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
       <c r="I521">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30779,7 +30911,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1">
+    <row r="522" spans="1:11">
+      <c r="A522" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" t="s">
+        <v>32</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
       <c r="I522">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30793,7 +30934,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1">
+    <row r="523" spans="1:11">
+      <c r="A523" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" t="s">
+        <v>32</v>
+      </c>
+      <c r="C523">
+        <v>3</v>
+      </c>
       <c r="I523">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30807,7 +30957,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1">
+    <row r="524" spans="1:11">
+      <c r="A524" t="s">
+        <v>8</v>
+      </c>
+      <c r="B524" t="s">
+        <v>32</v>
+      </c>
+      <c r="C524">
+        <v>3</v>
+      </c>
       <c r="I524">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30821,7 +30980,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1">
+    <row r="525" spans="1:11">
+      <c r="A525" t="s">
+        <v>8</v>
+      </c>
+      <c r="B525" t="s">
+        <v>32</v>
+      </c>
+      <c r="C525">
+        <v>3</v>
+      </c>
       <c r="I525">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30835,7 +31003,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:11" hidden="1">
+    <row r="526" spans="1:11">
+      <c r="A526" t="s">
+        <v>8</v>
+      </c>
+      <c r="B526" t="s">
+        <v>32</v>
+      </c>
+      <c r="C526">
+        <v>3</v>
+      </c>
       <c r="I526">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30849,7 +31026,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1">
+    <row r="527" spans="1:11">
+      <c r="A527" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" t="s">
+        <v>32</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
       <c r="I527">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30863,7 +31049,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1">
+    <row r="528" spans="1:11">
+      <c r="A528" t="s">
+        <v>8</v>
+      </c>
+      <c r="B528" t="s">
+        <v>32</v>
+      </c>
+      <c r="C528">
+        <v>3</v>
+      </c>
       <c r="I528">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30877,7 +31072,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="9:11" hidden="1">
+    <row r="529" spans="1:11">
+      <c r="A529" t="s">
+        <v>8</v>
+      </c>
+      <c r="B529" t="s">
+        <v>32</v>
+      </c>
+      <c r="C529">
+        <v>3</v>
+      </c>
       <c r="I529">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30891,7 +31095,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="9:11" hidden="1">
+    <row r="530" spans="1:11">
+      <c r="A530" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" t="s">
+        <v>32</v>
+      </c>
+      <c r="C530">
+        <v>3</v>
+      </c>
       <c r="I530">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30905,7 +31118,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="9:11" hidden="1">
+    <row r="531" spans="1:11">
+      <c r="A531" t="s">
+        <v>8</v>
+      </c>
+      <c r="B531" t="s">
+        <v>32</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
       <c r="I531">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30919,7 +31141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="9:11" hidden="1">
+    <row r="532" spans="1:11">
       <c r="I532">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30933,7 +31155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="9:11" hidden="1">
+    <row r="533" spans="1:11">
       <c r="I533">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30947,7 +31169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="9:11" hidden="1">
+    <row r="534" spans="1:11">
       <c r="I534">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30961,7 +31183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="9:11" hidden="1">
+    <row r="535" spans="1:11">
       <c r="I535">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30975,7 +31197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="9:11" hidden="1">
+    <row r="536" spans="1:11">
       <c r="I536">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -30989,7 +31211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="9:11" hidden="1">
+    <row r="537" spans="1:11">
       <c r="I537">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31003,7 +31225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="9:11" hidden="1">
+    <row r="538" spans="1:11">
       <c r="I538">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31017,7 +31239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="9:11" hidden="1">
+    <row r="539" spans="1:11">
       <c r="I539">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31031,7 +31253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="9:11" hidden="1">
+    <row r="540" spans="1:11">
       <c r="I540">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31045,7 +31267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="9:11" hidden="1">
+    <row r="541" spans="1:11">
       <c r="I541">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31059,7 +31281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="9:11" hidden="1">
+    <row r="542" spans="1:11">
       <c r="I542">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31073,7 +31295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="9:11" hidden="1">
+    <row r="543" spans="1:11">
       <c r="I543">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31087,7 +31309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="9:11" hidden="1">
+    <row r="544" spans="1:11">
       <c r="I544">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31101,7 +31323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="9:11" hidden="1">
+    <row r="545" spans="9:11">
       <c r="I545">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31115,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="9:11" hidden="1">
+    <row r="546" spans="9:11">
       <c r="I546">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31129,7 +31351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="9:11" hidden="1">
+    <row r="547" spans="9:11">
       <c r="I547">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31143,7 +31365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="9:11" hidden="1">
+    <row r="548" spans="9:11">
       <c r="I548">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31157,7 +31379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="9:11" hidden="1">
+    <row r="549" spans="9:11">
       <c r="I549">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31171,7 +31393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="9:11" hidden="1">
+    <row r="550" spans="9:11">
       <c r="I550">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31185,7 +31407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="9:11" hidden="1">
+    <row r="551" spans="9:11">
       <c r="I551">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31199,7 +31421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="9:11" hidden="1">
+    <row r="552" spans="9:11">
       <c r="I552">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31213,7 +31435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="9:11" hidden="1">
+    <row r="553" spans="9:11">
       <c r="I553">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31227,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="9:11" hidden="1">
+    <row r="554" spans="9:11">
       <c r="I554">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31241,7 +31463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="9:11" hidden="1">
+    <row r="555" spans="9:11">
       <c r="I555">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31255,7 +31477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="9:11" hidden="1">
+    <row r="556" spans="9:11">
       <c r="I556">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31269,7 +31491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="9:11" hidden="1">
+    <row r="557" spans="9:11">
       <c r="I557">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31283,7 +31505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="9:11" hidden="1">
+    <row r="558" spans="9:11">
       <c r="I558">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31297,7 +31519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="9:11" hidden="1">
+    <row r="559" spans="9:11">
       <c r="I559">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31311,7 +31533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="9:11" hidden="1">
+    <row r="560" spans="9:11">
       <c r="I560">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31325,7 +31547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="9:11" hidden="1">
+    <row r="561" spans="9:11">
       <c r="I561">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31339,7 +31561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="9:11" hidden="1">
+    <row r="562" spans="9:11">
       <c r="I562">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31353,7 +31575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="9:11" hidden="1">
+    <row r="563" spans="9:11">
       <c r="I563">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31367,7 +31589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="9:11" hidden="1">
+    <row r="564" spans="9:11">
       <c r="I564">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31381,7 +31603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="9:11" hidden="1">
+    <row r="565" spans="9:11">
       <c r="I565">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31395,7 +31617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="9:11" hidden="1">
+    <row r="566" spans="9:11">
       <c r="I566">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31409,7 +31631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="9:11" hidden="1">
+    <row r="567" spans="9:11">
       <c r="I567">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31423,7 +31645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="9:11" hidden="1">
+    <row r="568" spans="9:11">
       <c r="I568">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31437,7 +31659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="9:11" hidden="1">
+    <row r="569" spans="9:11">
       <c r="I569">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31451,7 +31673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="9:11" hidden="1">
+    <row r="570" spans="9:11">
       <c r="I570">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31465,7 +31687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="9:11" hidden="1">
+    <row r="571" spans="9:11">
       <c r="I571">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31479,7 +31701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="9:11" hidden="1">
+    <row r="572" spans="9:11">
       <c r="I572">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31493,7 +31715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="9:11" hidden="1">
+    <row r="573" spans="9:11">
       <c r="I573">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31507,7 +31729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="9:11" hidden="1">
+    <row r="574" spans="9:11">
       <c r="I574">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31521,7 +31743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="9:11" hidden="1">
+    <row r="575" spans="9:11">
       <c r="I575">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31535,7 +31757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="9:11" hidden="1">
+    <row r="576" spans="9:11">
       <c r="I576">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31549,7 +31771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="9:11" hidden="1">
+    <row r="577" spans="9:11">
       <c r="I577">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31563,7 +31785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="9:11" hidden="1">
+    <row r="578" spans="9:11">
       <c r="I578">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31577,7 +31799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="9:11" hidden="1">
+    <row r="579" spans="9:11">
       <c r="I579">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31591,7 +31813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="9:11" hidden="1">
+    <row r="580" spans="9:11">
       <c r="I580">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31605,7 +31827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="9:11" hidden="1">
+    <row r="581" spans="9:11">
       <c r="I581">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31619,7 +31841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="9:11" hidden="1">
+    <row r="582" spans="9:11">
       <c r="I582">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31633,7 +31855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="9:11" hidden="1">
+    <row r="583" spans="9:11">
       <c r="I583">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31647,7 +31869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="9:11" hidden="1">
+    <row r="584" spans="9:11">
       <c r="I584">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31661,7 +31883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="9:11" hidden="1">
+    <row r="585" spans="9:11">
       <c r="I585">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31675,7 +31897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="9:11" hidden="1">
+    <row r="586" spans="9:11">
       <c r="I586">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31689,7 +31911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="9:11" hidden="1">
+    <row r="587" spans="9:11">
       <c r="I587">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31703,7 +31925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="9:11" hidden="1">
+    <row r="588" spans="9:11">
       <c r="I588">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31717,7 +31939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="9:11" hidden="1">
+    <row r="589" spans="9:11">
       <c r="I589">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31731,7 +31953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="9:11" hidden="1">
+    <row r="590" spans="9:11">
       <c r="I590">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31745,7 +31967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="9:11" hidden="1">
+    <row r="591" spans="9:11">
       <c r="I591">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31759,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="9:11" hidden="1">
+    <row r="592" spans="9:11">
       <c r="I592">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31773,7 +31995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="9:11" hidden="1">
+    <row r="593" spans="9:11">
       <c r="I593">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31787,7 +32009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="9:11" hidden="1">
+    <row r="594" spans="9:11">
       <c r="I594">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31801,7 +32023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="9:11" hidden="1">
+    <row r="595" spans="9:11">
       <c r="I595">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31815,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="9:11" hidden="1">
+    <row r="596" spans="9:11">
       <c r="I596">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31829,7 +32051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="9:11" hidden="1">
+    <row r="597" spans="9:11">
       <c r="I597">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31843,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="9:11" hidden="1">
+    <row r="598" spans="9:11">
       <c r="I598">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31857,7 +32079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="9:11" hidden="1">
+    <row r="599" spans="9:11">
       <c r="I599">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31871,7 +32093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="9:11" hidden="1">
+    <row r="600" spans="9:11">
       <c r="I600">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31885,7 +32107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="9:11" hidden="1">
+    <row r="601" spans="9:11">
       <c r="I601">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31899,7 +32121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="9:11" hidden="1">
+    <row r="602" spans="9:11">
       <c r="I602">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31913,7 +32135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="9:11" hidden="1">
+    <row r="603" spans="9:11">
       <c r="I603">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31927,7 +32149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="9:11" hidden="1">
+    <row r="604" spans="9:11">
       <c r="I604">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31941,7 +32163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="9:11" hidden="1">
+    <row r="605" spans="9:11">
       <c r="I605">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31955,7 +32177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="9:11" hidden="1">
+    <row r="606" spans="9:11">
       <c r="I606">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31969,7 +32191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="9:11" hidden="1">
+    <row r="607" spans="9:11">
       <c r="I607">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31983,7 +32205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="9:11" hidden="1">
+    <row r="608" spans="9:11">
       <c r="I608">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31997,7 +32219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="9:11" hidden="1">
+    <row r="609" spans="9:11">
       <c r="I609">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32011,7 +32233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="9:11" hidden="1">
+    <row r="610" spans="9:11">
       <c r="I610">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32025,7 +32247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="9:11" hidden="1">
+    <row r="611" spans="9:11">
       <c r="I611">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32039,7 +32261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="9:11" hidden="1">
+    <row r="612" spans="9:11">
       <c r="I612">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32053,7 +32275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="9:11" hidden="1">
+    <row r="613" spans="9:11">
       <c r="I613">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32067,7 +32289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="9:11" hidden="1">
+    <row r="614" spans="9:11">
       <c r="I614">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32081,7 +32303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="9:11" hidden="1">
+    <row r="615" spans="9:11">
       <c r="I615">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32095,7 +32317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="9:11" hidden="1">
+    <row r="616" spans="9:11">
       <c r="I616">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32109,7 +32331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="9:11" hidden="1">
+    <row r="617" spans="9:11">
       <c r="I617">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32123,7 +32345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="9:11" hidden="1">
+    <row r="618" spans="9:11">
       <c r="I618">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32137,7 +32359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="9:11" hidden="1">
+    <row r="619" spans="9:11">
       <c r="I619">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32151,7 +32373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="9:11" hidden="1">
+    <row r="620" spans="9:11">
       <c r="I620">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32165,7 +32387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="9:11" hidden="1">
+    <row r="621" spans="9:11">
       <c r="I621">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32179,7 +32401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="9:11" hidden="1">
+    <row r="622" spans="9:11">
       <c r="I622">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32193,7 +32415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="9:11" hidden="1">
+    <row r="623" spans="9:11">
       <c r="I623">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32207,7 +32429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="9:11" hidden="1">
+    <row r="624" spans="9:11">
       <c r="I624">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32221,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="9:11" hidden="1">
+    <row r="625" spans="9:11">
       <c r="I625">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32235,7 +32457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="9:11" hidden="1">
+    <row r="626" spans="9:11">
       <c r="I626">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32249,7 +32471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="9:11" hidden="1">
+    <row r="627" spans="9:11">
       <c r="I627">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32263,7 +32485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="9:11" hidden="1">
+    <row r="628" spans="9:11">
       <c r="I628">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32277,7 +32499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="9:11" hidden="1">
+    <row r="629" spans="9:11">
       <c r="I629">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32291,7 +32513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="9:11" hidden="1">
+    <row r="630" spans="9:11">
       <c r="I630">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32305,7 +32527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="9:11" hidden="1">
+    <row r="631" spans="9:11">
       <c r="I631">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32319,7 +32541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="9:11" hidden="1">
+    <row r="632" spans="9:11">
       <c r="I632">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32333,7 +32555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="9:11" hidden="1">
+    <row r="633" spans="9:11">
       <c r="I633">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32347,7 +32569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="9:11" hidden="1">
+    <row r="634" spans="9:11">
       <c r="I634">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32361,7 +32583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="9:11" hidden="1">
+    <row r="635" spans="9:11">
       <c r="I635">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32375,7 +32597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="9:11" hidden="1">
+    <row r="636" spans="9:11">
       <c r="I636">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32389,7 +32611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="9:11" hidden="1">
+    <row r="637" spans="9:11">
       <c r="I637">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32403,7 +32625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="9:11" hidden="1">
+    <row r="638" spans="9:11">
       <c r="I638">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32417,7 +32639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="9:11" hidden="1">
+    <row r="639" spans="9:11">
       <c r="I639">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32431,7 +32653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="9:11" hidden="1">
+    <row r="640" spans="9:11">
       <c r="I640">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32445,7 +32667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="9:11" hidden="1">
+    <row r="641" spans="9:11">
       <c r="I641">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32459,7 +32681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="9:11" hidden="1">
+    <row r="642" spans="9:11">
       <c r="I642">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32473,7 +32695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="9:11" hidden="1">
+    <row r="643" spans="9:11">
       <c r="I643">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32487,7 +32709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="9:11" hidden="1">
+    <row r="644" spans="9:11">
       <c r="I644">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32501,7 +32723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="9:11" hidden="1">
+    <row r="645" spans="9:11">
       <c r="I645">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32515,7 +32737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="9:11" hidden="1">
+    <row r="646" spans="9:11">
       <c r="I646">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32529,7 +32751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="9:11" hidden="1">
+    <row r="647" spans="9:11">
       <c r="I647">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32543,7 +32765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="9:11" hidden="1">
+    <row r="648" spans="9:11">
       <c r="I648">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32557,7 +32779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="9:11" hidden="1">
+    <row r="649" spans="9:11">
       <c r="I649">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32571,7 +32793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="9:11" hidden="1">
+    <row r="650" spans="9:11">
       <c r="I650">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32585,7 +32807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="9:11" hidden="1">
+    <row r="651" spans="9:11">
       <c r="I651">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32599,7 +32821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="9:11" hidden="1">
+    <row r="652" spans="9:11">
       <c r="I652">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32613,7 +32835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="9:11" hidden="1">
+    <row r="653" spans="9:11">
       <c r="I653">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32627,7 +32849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="9:11" hidden="1">
+    <row r="654" spans="9:11">
       <c r="I654">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32641,7 +32863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="9:11" hidden="1">
+    <row r="655" spans="9:11">
       <c r="I655">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32655,7 +32877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="9:11" hidden="1">
+    <row r="656" spans="9:11">
       <c r="I656">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32669,7 +32891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="9:11" hidden="1">
+    <row r="657" spans="9:11">
       <c r="I657">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32683,7 +32905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="9:11" hidden="1">
+    <row r="658" spans="9:11">
       <c r="I658">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32697,7 +32919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="9:11" hidden="1">
+    <row r="659" spans="9:11">
       <c r="I659">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32711,7 +32933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="9:11" hidden="1">
+    <row r="660" spans="9:11">
       <c r="I660">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32725,7 +32947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="9:11" hidden="1">
+    <row r="661" spans="9:11">
       <c r="I661">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32739,7 +32961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="9:11" hidden="1">
+    <row r="662" spans="9:11">
       <c r="I662">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32753,7 +32975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="9:11" hidden="1">
+    <row r="663" spans="9:11">
       <c r="I663">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32767,7 +32989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="9:11" hidden="1">
+    <row r="664" spans="9:11">
       <c r="I664">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32781,7 +33003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="9:11" hidden="1">
+    <row r="665" spans="9:11">
       <c r="I665">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32795,7 +33017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="9:11" hidden="1">
+    <row r="666" spans="9:11">
       <c r="I666">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32809,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="9:11" hidden="1">
+    <row r="667" spans="9:11">
       <c r="I667">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32823,7 +33045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="9:11" hidden="1">
+    <row r="668" spans="9:11">
       <c r="I668">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32837,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="9:11" hidden="1">
+    <row r="669" spans="9:11">
       <c r="I669">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32851,7 +33073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="9:11" hidden="1">
+    <row r="670" spans="9:11">
       <c r="I670">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32865,7 +33087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="9:11" hidden="1">
+    <row r="671" spans="9:11">
       <c r="I671">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32879,7 +33101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="9:11" hidden="1">
+    <row r="672" spans="9:11">
       <c r="I672">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32893,7 +33115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="9:11" hidden="1">
+    <row r="673" spans="9:11">
       <c r="I673">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32907,7 +33129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="9:11" hidden="1">
+    <row r="674" spans="9:11">
       <c r="I674">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32921,7 +33143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="9:11" hidden="1">
+    <row r="675" spans="9:11">
       <c r="I675">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32935,7 +33157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="9:11" hidden="1">
+    <row r="676" spans="9:11">
       <c r="I676">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32949,7 +33171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="9:11" hidden="1">
+    <row r="677" spans="9:11">
       <c r="I677">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32963,7 +33185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="9:11" hidden="1">
+    <row r="678" spans="9:11">
       <c r="I678">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32977,7 +33199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="9:11" hidden="1">
+    <row r="679" spans="9:11">
       <c r="I679">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32991,7 +33213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="9:11" hidden="1">
+    <row r="680" spans="9:11">
       <c r="I680">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33005,7 +33227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="9:11" hidden="1">
+    <row r="681" spans="9:11">
       <c r="I681">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33019,7 +33241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="9:11" hidden="1">
+    <row r="682" spans="9:11">
       <c r="I682">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33033,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="9:11" hidden="1">
+    <row r="683" spans="9:11">
       <c r="I683">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33047,7 +33269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="9:11" hidden="1">
+    <row r="684" spans="9:11">
       <c r="I684">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33061,7 +33283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="9:11" hidden="1">
+    <row r="685" spans="9:11">
       <c r="I685">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33075,7 +33297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="9:11" hidden="1">
+    <row r="686" spans="9:11">
       <c r="I686">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33089,7 +33311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="9:11" hidden="1">
+    <row r="687" spans="9:11">
       <c r="I687">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33103,7 +33325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="9:11" hidden="1">
+    <row r="688" spans="9:11">
       <c r="I688">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33117,7 +33339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="9:11" hidden="1">
+    <row r="689" spans="9:11">
       <c r="I689">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33131,7 +33353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="9:11" hidden="1">
+    <row r="690" spans="9:11">
       <c r="I690">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33145,7 +33367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="9:11" hidden="1">
+    <row r="691" spans="9:11">
       <c r="I691">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33159,7 +33381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="9:11" hidden="1">
+    <row r="692" spans="9:11">
       <c r="I692">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33173,7 +33395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="9:11" hidden="1">
+    <row r="693" spans="9:11">
       <c r="I693">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33187,7 +33409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="9:11" hidden="1">
+    <row r="694" spans="9:11">
       <c r="I694">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33201,7 +33423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="9:11" hidden="1">
+    <row r="695" spans="9:11">
       <c r="I695">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33215,7 +33437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="9:11" hidden="1">
+    <row r="696" spans="9:11">
       <c r="I696">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33229,7 +33451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="9:11" hidden="1">
+    <row r="697" spans="9:11">
       <c r="I697">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33243,7 +33465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="9:11" hidden="1">
+    <row r="698" spans="9:11">
       <c r="I698">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33257,7 +33479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="9:11" hidden="1">
+    <row r="699" spans="9:11">
       <c r="I699">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33271,7 +33493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="9:11" hidden="1">
+    <row r="700" spans="9:11">
       <c r="I700">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33285,7 +33507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="9:11" hidden="1">
+    <row r="701" spans="9:11">
       <c r="I701">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33299,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="9:11" hidden="1">
+    <row r="702" spans="9:11">
       <c r="I702">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33313,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="9:11" hidden="1">
+    <row r="703" spans="9:11">
       <c r="I703">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33327,7 +33549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="9:11" hidden="1">
+    <row r="704" spans="9:11">
       <c r="I704">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33341,7 +33563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="9:11" hidden="1">
+    <row r="705" spans="9:11">
       <c r="I705">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33355,7 +33577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="9:11" hidden="1">
+    <row r="706" spans="9:11">
       <c r="I706">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33369,7 +33591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="9:11" hidden="1">
+    <row r="707" spans="9:11">
       <c r="I707">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33383,7 +33605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="9:11" hidden="1">
+    <row r="708" spans="9:11">
       <c r="I708">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33397,7 +33619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="9:11" hidden="1">
+    <row r="709" spans="9:11">
       <c r="I709">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33411,7 +33633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="9:11" hidden="1">
+    <row r="710" spans="9:11">
       <c r="I710">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33425,7 +33647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="9:11" hidden="1">
+    <row r="711" spans="9:11">
       <c r="I711">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33439,7 +33661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="9:11" hidden="1">
+    <row r="712" spans="9:11">
       <c r="I712">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33453,7 +33675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="9:11" hidden="1">
+    <row r="713" spans="9:11">
       <c r="I713">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33467,7 +33689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="9:11" hidden="1">
+    <row r="714" spans="9:11">
       <c r="I714">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33481,7 +33703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="9:11" hidden="1">
+    <row r="715" spans="9:11">
       <c r="I715">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33495,7 +33717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="9:11" hidden="1">
+    <row r="716" spans="9:11">
       <c r="I716">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33509,7 +33731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="9:11" hidden="1">
+    <row r="717" spans="9:11">
       <c r="I717">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33523,7 +33745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="9:11" hidden="1">
+    <row r="718" spans="9:11">
       <c r="I718">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33537,7 +33759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="9:11" hidden="1">
+    <row r="719" spans="9:11">
       <c r="I719">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33551,7 +33773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="9:11" hidden="1">
+    <row r="720" spans="9:11">
       <c r="I720">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33565,7 +33787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="9:11" hidden="1">
+    <row r="721" spans="9:11">
       <c r="I721">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33579,7 +33801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="9:11" hidden="1">
+    <row r="722" spans="9:11">
       <c r="I722">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33593,7 +33815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="9:11" hidden="1">
+    <row r="723" spans="9:11">
       <c r="I723">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33607,7 +33829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="9:11" hidden="1">
+    <row r="724" spans="9:11">
       <c r="I724">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33621,7 +33843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="9:11" hidden="1">
+    <row r="725" spans="9:11">
       <c r="I725">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33635,7 +33857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="9:11" hidden="1">
+    <row r="726" spans="9:11">
       <c r="I726">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33649,7 +33871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="9:11" hidden="1">
+    <row r="727" spans="9:11">
       <c r="I727">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33663,7 +33885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="9:11" hidden="1">
+    <row r="728" spans="9:11">
       <c r="I728">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33677,7 +33899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="9:11" hidden="1">
+    <row r="729" spans="9:11">
       <c r="I729">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33691,7 +33913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="9:11" hidden="1">
+    <row r="730" spans="9:11">
       <c r="I730">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33705,7 +33927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="9:11" hidden="1">
+    <row r="731" spans="9:11">
       <c r="I731">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33719,7 +33941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="9:11" hidden="1">
+    <row r="732" spans="9:11">
       <c r="I732">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33733,7 +33955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="9:11" hidden="1">
+    <row r="733" spans="9:11">
       <c r="I733">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33747,7 +33969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="9:11" hidden="1">
+    <row r="734" spans="9:11">
       <c r="I734">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33761,7 +33983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="9:11" hidden="1">
+    <row r="735" spans="9:11">
       <c r="I735">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33775,7 +33997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="9:11" hidden="1">
+    <row r="736" spans="9:11">
       <c r="I736">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33789,7 +34011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:11" hidden="1">
+    <row r="737" spans="1:11">
       <c r="I737">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33803,7 +34025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:11" hidden="1">
+    <row r="738" spans="1:11">
       <c r="I738">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33817,7 +34039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:11" hidden="1">
+    <row r="739" spans="1:11">
       <c r="I739">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33831,7 +34053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:11" hidden="1">
+    <row r="740" spans="1:11">
       <c r="I740">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33845,7 +34067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:11" hidden="1">
+    <row r="741" spans="1:11">
       <c r="I741">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33859,7 +34081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:11" hidden="1">
+    <row r="742" spans="1:11">
       <c r="I742">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33873,7 +34095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:11" hidden="1">
+    <row r="743" spans="1:11">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -33961,7 +34183,7 @@
       </c>
       <c r="D3">
         <f>'EXP lvls'!O10/Summary!C3</f>
-        <v>10.33658574305346</v>
+        <v>10.685009981583352</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1">
@@ -34038,11 +34260,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ref="B10:B17" si="0">(2*$G10+$H10)/($O10-$N10)*L10</f>
-        <v>2082904.4973607038</v>
+        <v>2110171.4352895455</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C17" si="1">($G10+$H10)/($O10-$N10)*M10</f>
-        <v>2614421.0532075972</v>
+        <v>2304779.8859364158</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -34075,11 +34297,11 @@
       </c>
       <c r="M10">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I10,LocFeatures[[#All],[LVL]],Summary!$J10,LocFeatures[[#All],[Stage]],Summary!$K10)</f>
-        <v>4134.5644796380084</v>
+        <v>3597.7858563102154</v>
       </c>
       <c r="N10">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I10,LocFeatures[[#All],[LVL]],Summary!$J10,LocFeatures[[#All],[Stage]],Summary!$K10)</f>
-        <v>0.82692307692307687</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="O10">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I10,LocFeatures[[#All],[LVL]],Summary!$J10,LocFeatures[[#All],[Stage]],Summary!$K10)</f>
@@ -34092,11 +34314,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>3418370.4492668617</v>
+        <v>3463119.7380489702</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>2145335.9195177574</v>
+        <v>1891251.2465484703</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -34130,11 +34352,11 @@
       </c>
       <c r="M11">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I11,LocFeatures[[#All],[LVL]],Summary!$J11,LocFeatures[[#All],[Stage]],Summary!$K11)</f>
-        <v>4134.5644796380084</v>
+        <v>3597.7858563102154</v>
       </c>
       <c r="N11">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I11,LocFeatures[[#All],[LVL]],Summary!$J11,LocFeatures[[#All],[Stage]],Summary!$K11)</f>
-        <v>0.82692307692307687</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="O11">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I11,LocFeatures[[#All],[LVL]],Summary!$J11,LocFeatures[[#All],[Stage]],Summary!$K11)</f>
@@ -34147,11 +34369,11 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>3134620.6310850438</v>
+        <v>3175655.4006995726</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>2084528.5873727784</v>
+        <v>1837645.6821833665</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -34186,11 +34408,11 @@
       </c>
       <c r="M12">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I12,LocFeatures[[#All],[LVL]],Summary!$J12,LocFeatures[[#All],[Stage]],Summary!$K12)</f>
-        <v>4134.5644796380084</v>
+        <v>3597.7858563102154</v>
       </c>
       <c r="N12">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I12,LocFeatures[[#All],[LVL]],Summary!$J12,LocFeatures[[#All],[Stage]],Summary!$K12)</f>
-        <v>0.82692307692307687</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="O12">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I12,LocFeatures[[#All],[LVL]],Summary!$J12,LocFeatures[[#All],[Stage]],Summary!$K12)</f>
@@ -34203,11 +34425,11 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>3017046.4046920817</v>
+        <v>3056542.0307034589</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>2084528.5873727784</v>
+        <v>1837645.6821833665</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -34242,11 +34464,11 @@
       </c>
       <c r="M13">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I13,LocFeatures[[#All],[LVL]],Summary!$J13,LocFeatures[[#All],[Stage]],Summary!$K13)</f>
-        <v>4134.5644796380084</v>
+        <v>3597.7858563102154</v>
       </c>
       <c r="N13">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I13,LocFeatures[[#All],[LVL]],Summary!$J13,LocFeatures[[#All],[Stage]],Summary!$K13)</f>
-        <v>0.82692307692307687</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="O13">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I13,LocFeatures[[#All],[LVL]],Summary!$J13,LocFeatures[[#All],[Stage]],Summary!$K13)</f>
@@ -34869,7 +35091,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="11"/>
-        <v>1021507.6884442769</v>
+        <v>1034499.4573928387</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -34903,7 +35125,7 @@
       </c>
       <c r="M25">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I25,LocFeatures[[#All],[LVL]],Summary!$J25,LocFeatures[[#All],[Stage]],Summary!$K25)</f>
-        <v>3742.3518282312921</v>
+        <v>3789.9479166666665</v>
       </c>
       <c r="N25">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I25,LocFeatures[[#All],[LVL]],Summary!$J25,LocFeatures[[#All],[Stage]],Summary!$K25)</f>
@@ -34924,7 +35146,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="11"/>
-        <v>1359649.4056175146</v>
+        <v>1376941.738439536</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -34958,7 +35180,7 @@
       </c>
       <c r="M26">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I26,LocFeatures[[#All],[LVL]],Summary!$J26,LocFeatures[[#All],[Stage]],Summary!$K26)</f>
-        <v>3742.3518282312921</v>
+        <v>3789.9479166666665</v>
       </c>
       <c r="N26">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I26,LocFeatures[[#All],[LVL]],Summary!$J26,LocFeatures[[#All],[Stage]],Summary!$K26)</f>
@@ -34979,7 +35201,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ref="C27:C29" si="13">($G27+$H27)/($O27-$N27)*M27</f>
-        <v>2857798.5365469242</v>
+        <v>2894144.6734466865</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -35010,7 +35232,7 @@
       </c>
       <c r="M27">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I27,LocFeatures[[#All],[LVL]],Summary!$J27,LocFeatures[[#All],[Stage]],Summary!$K27)</f>
-        <v>3742.3518282312921</v>
+        <v>3789.9479166666665</v>
       </c>
       <c r="N27">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I27,LocFeatures[[#All],[LVL]],Summary!$J27,LocFeatures[[#All],[Stage]],Summary!$K27)</f>
@@ -35482,7 +35704,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="22"/>
-        <v>577254.39551192138</v>
+        <v>865881.59326788213</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="23"/>
@@ -35513,7 +35735,7 @@
       </c>
       <c r="L36">
         <f>SUMIFS(LocFeatures[[#All],[XP Train Gain]],LocFeatures[[#All],[Location]],Summary!$I36,LocFeatures[[#All],[LVL]],Summary!$J36,LocFeatures[[#All],[Stage]],Summary!$K36)</f>
-        <v>2552</v>
+        <v>3828</v>
       </c>
       <c r="M36">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I36,LocFeatures[[#All],[LVL]],Summary!$J36,LocFeatures[[#All],[Stage]],Summary!$K36)</f>
@@ -35534,7 +35756,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="22"/>
-        <v>438146.15427769982</v>
+        <v>657219.23141654977</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="23"/>
@@ -35568,7 +35790,7 @@
       </c>
       <c r="L37">
         <f>SUMIFS(LocFeatures[[#All],[XP Train Gain]],LocFeatures[[#All],[Location]],Summary!$I37,LocFeatures[[#All],[LVL]],Summary!$J37,LocFeatures[[#All],[Stage]],Summary!$K37)</f>
-        <v>2552</v>
+        <v>3828</v>
       </c>
       <c r="M37">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I37,LocFeatures[[#All],[LVL]],Summary!$J37,LocFeatures[[#All],[Stage]],Summary!$K37)</f>
@@ -35589,7 +35811,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="22"/>
-        <v>584194.87237026636</v>
+        <v>876292.30855539965</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="23"/>
@@ -35623,7 +35845,7 @@
       </c>
       <c r="L38">
         <f>2/3*2*SUMIFS(LocFeatures[[#All],[XP Train Gain]],LocFeatures[[#All],[Location]],Summary!$I38,LocFeatures[[#All],[LVL]],Summary!$J38,LocFeatures[[#All],[Stage]],Summary!$K38)</f>
-        <v>3402.6666666666665</v>
+        <v>5104</v>
       </c>
       <c r="M38">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I38,LocFeatures[[#All],[LVL]],Summary!$J38,LocFeatures[[#All],[Stage]],Summary!$K38)</f>
@@ -35643,7 +35865,7 @@
       </c>
       <c r="Q38">
         <f>P38*L38</f>
-        <v>100406.55737704918</v>
+        <v>150609.83606557376</v>
       </c>
       <c r="R38">
         <f>P38*($O38-$N38)</f>
@@ -39146,16 +39368,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
@@ -39185,19 +39408,19 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
       </c>
       <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" t="s">
-        <v>203</v>
-      </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -39205,19 +39428,19 @@
         <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
         <v>199</v>
       </c>
-      <c r="E3" t="s">
-        <v>200</v>
-      </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -39225,19 +39448,19 @@
         <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
         <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -39251,13 +39474,13 @@
         <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
         <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -39277,7 +39500,391 @@
         <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>119</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>416</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12">
+        <f>SUMIFS(Tabela8[HP%],Tabela8[Chose],"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>SUMIFS(Tabela8[HP],Tabela8[Chose],"Y")</f>
+        <v>119</v>
+      </c>
+      <c r="F12">
+        <f>SUMIFS(Tabela8[Acc%],Tabela8[Chose],"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SUMIFS(Tabela8[SPD],Tabela8[Chose],"Y")</f>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f>SUMIFS(Tabela8[Crit Rate%],Tabela8[Chose],"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f>SUMIFS(Tabela8[Crit DMG%],Tabela8[Chose],"Y")</f>
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f>SUMIFS(Tabela8[Att%],Tabela8[Chose],"Y")</f>
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <f>SUMIFS(Tabela8[Def%],Tabela8[Chose],"Y")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16">
+        <f>SUMIFS(Tabela8[HP%],Tabela8[Chose],"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>SUMIFS(Tabela8[HP],Tabela8[Chose],"Y")</f>
+        <v>119</v>
+      </c>
+      <c r="F16">
+        <f>SUMIFS(Tabela8[Acc%],Tabela8[Chose],"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>SUMIFS(Tabela8[SPD],Tabela8[Chose],"Y")</f>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f>SUMIFS(Tabela8[Crit Rate%],Tabela8[Chose],"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f>SUMIFS(Tabela8[Crit DMG%],Tabela8[Chose],"Y")</f>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>SUMIFS(Tabela8[Att%],Tabela8[Chose],"Y")</f>
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <f>SUMIFS(Tabela8[Def%],Tabela8[Chose],"Y")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXP lvls" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="243">
   <si>
     <t>Star</t>
   </si>
@@ -1106,7 +1106,10 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1115,16 +1118,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -9682,7 +9682,7 @@
     <dataField name="Licznik z Drop" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -9692,7 +9692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9763,31 +9763,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="LocFeatures" displayName="LocFeatures" ref="A1:V115" totalsRowShown="0">
   <autoFilter ref="A1:V115">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="12"/>
-    <filterColumn colId="13">
-      <filters blank="1">
-        <filter val="1021,053336"/>
-        <filter val="1130,666667"/>
-        <filter val="1284,47191"/>
-        <filter val="1303,01426"/>
-        <filter val="1408,47619"/>
-        <filter val="1518,447674"/>
-        <filter val="1786,861936"/>
-        <filter val="1826,43617"/>
-        <filter val="2227"/>
-        <filter val="2917,701149"/>
-        <filter val="506,9545455"/>
-        <filter val="663"/>
-        <filter val="929,4146341"/>
-        <filter val="962,4666667"/>
-        <filter val="988"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="13"/>
     <filterColumn colId="14"/>
   </autoFilter>
   <tableColumns count="22">
@@ -9799,19 +9777,19 @@
     <tableColumn id="6" name="Mon nbr"/>
     <tableColumn id="7" name="Uwagi"/>
     <tableColumn id="8" name="Soloable"/>
-    <tableColumn id="9" name="Drop worth gain" dataDxfId="1">
+    <tableColumn id="9" name="Drop worth gain" dataDxfId="7">
       <calculatedColumnFormula>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Energy gain"/>
-    <tableColumn id="17" name="XP Total Gain" dataDxfId="7">
+    <tableColumn id="17" name="XP Total Gain" dataDxfId="6">
       <calculatedColumnFormula>4*LocFeatures[[#This Row],[XP Gain per member]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="XP Train Gain"/>
-    <tableColumn id="22" name="XP drop" dataDxfId="4">
+    <tableColumn id="22" name="XP drop" dataDxfId="5">
       <calculatedColumnFormula>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A2,DropAnalityka[LVL],'Location features'!$B2,DropAnalityka[Stage],'Location features'!$C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="DropWorthGain/Energy"/>
-    <tableColumn id="23" name="XP train/energy" dataDxfId="0">
+    <tableColumn id="23" name="XP train/energy" dataDxfId="4">
       <calculatedColumnFormula>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="XP/Energy"/>
@@ -9841,10 +9819,10 @@
     <tableColumn id="8" name="Quality/Quantity"/>
     <tableColumn id="11" name="Sell Drop"/>
     <tableColumn id="7" name="Drop Worth"/>
-    <tableColumn id="12" name="Fod Worth" dataDxfId="2">
+    <tableColumn id="12" name="Fod Worth" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Exp Gain" dataDxfId="3">
+    <tableColumn id="10" name="Exp Gain" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Time"/>
@@ -11491,8 +11469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11636,7 +11614,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -11729,7 +11707,7 @@
         <v>1396.9213483146066</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11764,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1">
+    <row r="6" spans="1:22">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -11807,7 +11785,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:22" hidden="1">
+    <row r="7" spans="1:22">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -11874,7 +11852,7 @@
       </c>
       <c r="I8" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)</f>
-        <v>3597.7858563102154</v>
+        <v>4179.565312046444</v>
       </c>
       <c r="J8" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
@@ -11890,11 +11868,11 @@
       </c>
       <c r="M8" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
-        <v>1888.686567164179</v>
+        <v>2387.5849056603774</v>
       </c>
       <c r="N8" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1148.6906649665148</v>
+        <v>1334.4395273401299</v>
       </c>
       <c r="O8" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
@@ -11902,7 +11880,7 @@
       </c>
       <c r="P8" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1654.7131810825392</v>
+        <v>1814.0000000000002</v>
       </c>
       <c r="S8"/>
     </row>
@@ -11962,11 +11940,11 @@
       </c>
       <c r="Q9" s="10">
         <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N8-1</f>
-        <v>0.32189432780222726</v>
+        <v>0.13789170907223403</v>
       </c>
       <c r="R9" s="10">
         <f>LocFeatures[[#This Row],[XP/Energy]]/P8-1</f>
-        <v>-0.19515314623701707</v>
+        <v>-0.26582651726878803</v>
       </c>
       <c r="S9">
         <v>62</v>
@@ -11981,7 +11959,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" hidden="1">
+    <row r="10" spans="1:22" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -12027,7 +12005,7 @@
       </c>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:22" s="10" customFormat="1" hidden="1">
+    <row r="11" spans="1:22" s="10" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -12097,11 +12075,11 @@
       </c>
       <c r="I12" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="J12" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="K12" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
@@ -12113,27 +12091,27 @@
       </c>
       <c r="M12" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
-        <v>1634.5369127516778</v>
+        <v>2023.5816993464052</v>
       </c>
       <c r="N12" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1036.052805280528</v>
+        <v>1102.9139610389611</v>
       </c>
       <c r="O12" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1327.7227722772277</v>
+        <v>1341.2337662337663</v>
       </c>
       <c r="P12" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1729.6138613861385</v>
+        <v>1843.8441558441559</v>
       </c>
       <c r="Q12" s="10">
         <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N9-1</f>
-        <v>-0.31768949122516177</v>
+        <v>-0.27365691974782491</v>
       </c>
       <c r="R12" s="10">
         <f>LocFeatures[[#This Row],[XP/Energy]]/P9-1</f>
-        <v>0.29871297675107744</v>
+        <v>0.3844849337541465</v>
       </c>
       <c r="S12">
         <v>178</v>
@@ -12469,7 +12447,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1">
+    <row r="19" spans="1:20">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -12629,30 +12607,61 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:20" hidden="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+    <row r="22" spans="1:20">
+      <c r="A22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="10">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
+        <v>760</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="55" t="e">
+      <c r="I22" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)</f>
+        <v>5507.363636363636</v>
+      </c>
+      <c r="J22" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K22" s="10">
+        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3800</v>
+      </c>
+      <c r="L22" s="10">
+        <f>3*E22</f>
+        <v>2280</v>
+      </c>
+      <c r="M22" s="58">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
+        <v>6005.636363636364</v>
+      </c>
+      <c r="N22" s="57">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>893.08599508599502</v>
+      </c>
+      <c r="O22" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="10"/>
+        <v>369.72972972972968</v>
+      </c>
+      <c r="P22" s="57">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1343.6167076167076</v>
+      </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:20" hidden="1">
+    <row r="23" spans="1:20">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -12675,7 +12684,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:20" hidden="1">
+    <row r="24" spans="1:20">
       <c r="I24" s="49"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -12690,7 +12699,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:20" hidden="1">
+    <row r="25" spans="1:20">
       <c r="I25" s="49"/>
       <c r="M25" s="49"/>
       <c r="O25" s="54" t="e">
@@ -12698,7 +12707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1">
+    <row r="26" spans="1:20">
       <c r="I26" s="49"/>
       <c r="M26" s="49"/>
       <c r="O26" s="54" t="e">
@@ -12706,7 +12715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1">
+    <row r="27" spans="1:20">
       <c r="I27" s="49"/>
       <c r="M27" s="49"/>
       <c r="O27" s="54" t="e">
@@ -12714,7 +12723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1">
+    <row r="28" spans="1:20">
       <c r="I28" s="49"/>
       <c r="M28" s="49"/>
       <c r="O28" s="54" t="e">
@@ -12722,7 +12731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1">
+    <row r="29" spans="1:20">
       <c r="I29" s="49"/>
       <c r="M29" s="49"/>
       <c r="O29" s="54" t="e">
@@ -12730,7 +12739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1">
+    <row r="30" spans="1:20">
       <c r="I30" s="49"/>
       <c r="M30" s="49"/>
       <c r="O30" s="54" t="e">
@@ -12738,7 +12747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1">
+    <row r="31" spans="1:20">
       <c r="I31" s="49"/>
       <c r="M31" s="49"/>
       <c r="O31" s="54" t="e">
@@ -12746,7 +12755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1">
+    <row r="32" spans="1:20">
       <c r="I32" s="49"/>
       <c r="M32" s="49"/>
       <c r="O32" s="54" t="e">
@@ -12754,7 +12763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="9:15" hidden="1">
+    <row r="33" spans="9:15">
       <c r="I33" s="49"/>
       <c r="M33" s="49"/>
       <c r="O33" s="54" t="e">
@@ -12762,7 +12771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="9:15" hidden="1">
+    <row r="34" spans="9:15">
       <c r="I34" s="49"/>
       <c r="M34" s="49"/>
       <c r="O34" s="54" t="e">
@@ -12770,7 +12779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="9:15" hidden="1">
+    <row r="35" spans="9:15">
       <c r="I35" s="49"/>
       <c r="M35" s="49"/>
       <c r="O35" s="54" t="e">
@@ -12778,7 +12787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="9:15" hidden="1">
+    <row r="36" spans="9:15">
       <c r="I36" s="49"/>
       <c r="M36" s="49"/>
       <c r="O36" s="54" t="e">
@@ -12786,7 +12795,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="9:15" hidden="1">
+    <row r="37" spans="9:15">
       <c r="I37" s="49"/>
       <c r="M37" s="49"/>
       <c r="O37" s="54" t="e">
@@ -12794,7 +12803,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="9:15" hidden="1">
+    <row r="38" spans="9:15">
       <c r="I38" s="49"/>
       <c r="M38" s="49"/>
       <c r="O38" s="54" t="e">
@@ -12802,7 +12811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="9:15" hidden="1">
+    <row r="39" spans="9:15">
       <c r="I39" s="49"/>
       <c r="M39" s="49"/>
       <c r="O39" s="54" t="e">
@@ -12810,7 +12819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="9:15" hidden="1">
+    <row r="40" spans="9:15">
       <c r="I40" s="49"/>
       <c r="M40" s="49"/>
       <c r="O40" s="54" t="e">
@@ -12818,7 +12827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="9:15" hidden="1">
+    <row r="41" spans="9:15">
       <c r="I41" s="49"/>
       <c r="M41" s="49"/>
       <c r="O41" s="54" t="e">
@@ -12826,7 +12835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="9:15" hidden="1">
+    <row r="42" spans="9:15">
       <c r="I42" s="49"/>
       <c r="M42" s="49"/>
       <c r="O42" s="54" t="e">
@@ -12834,7 +12843,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="9:15" hidden="1">
+    <row r="43" spans="9:15">
       <c r="I43" s="49"/>
       <c r="M43" s="49"/>
       <c r="O43" s="54" t="e">
@@ -12842,7 +12851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="9:15" hidden="1">
+    <row r="44" spans="9:15">
       <c r="I44" s="49"/>
       <c r="M44" s="49"/>
       <c r="O44" s="54" t="e">
@@ -12850,7 +12859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="9:15" hidden="1">
+    <row r="45" spans="9:15">
       <c r="I45" s="49"/>
       <c r="M45" s="49"/>
       <c r="O45" s="54" t="e">
@@ -12858,7 +12867,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="9:15" hidden="1">
+    <row r="46" spans="9:15">
       <c r="I46" s="49"/>
       <c r="M46" s="49"/>
       <c r="O46" s="54" t="e">
@@ -12866,7 +12875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="9:15" hidden="1">
+    <row r="47" spans="9:15">
       <c r="I47" s="49"/>
       <c r="M47" s="49"/>
       <c r="O47" s="54" t="e">
@@ -12874,7 +12883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="9:15" hidden="1">
+    <row r="48" spans="9:15">
       <c r="I48" s="49"/>
       <c r="M48" s="49"/>
       <c r="O48" s="54" t="e">
@@ -12882,7 +12891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="9:15" hidden="1">
+    <row r="49" spans="9:15">
       <c r="I49" s="49"/>
       <c r="M49" s="49"/>
       <c r="O49" s="54" t="e">
@@ -12890,7 +12899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="9:15" hidden="1">
+    <row r="50" spans="9:15">
       <c r="I50" s="49"/>
       <c r="M50" s="49"/>
       <c r="O50" s="54" t="e">
@@ -12898,7 +12907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="9:15" hidden="1">
+    <row r="51" spans="9:15">
       <c r="I51" s="49"/>
       <c r="M51" s="49"/>
       <c r="O51" s="54" t="e">
@@ -12906,7 +12915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="9:15" hidden="1">
+    <row r="52" spans="9:15">
       <c r="I52" s="49"/>
       <c r="M52" s="49"/>
       <c r="O52" s="54" t="e">
@@ -12914,7 +12923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="9:15" hidden="1">
+    <row r="53" spans="9:15">
       <c r="I53" s="49"/>
       <c r="M53" s="49"/>
       <c r="O53" s="54" t="e">
@@ -12922,7 +12931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="9:15" hidden="1">
+    <row r="54" spans="9:15">
       <c r="I54" s="49"/>
       <c r="M54" s="49"/>
       <c r="O54" s="54" t="e">
@@ -12930,7 +12939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="9:15" hidden="1">
+    <row r="55" spans="9:15">
       <c r="I55" s="49"/>
       <c r="M55" s="49"/>
       <c r="O55" s="54" t="e">
@@ -12938,7 +12947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="9:15" hidden="1">
+    <row r="56" spans="9:15">
       <c r="I56" s="49"/>
       <c r="M56" s="49"/>
       <c r="O56" s="54" t="e">
@@ -12946,7 +12955,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="9:15" hidden="1">
+    <row r="57" spans="9:15">
       <c r="I57" s="49"/>
       <c r="M57" s="49"/>
       <c r="O57" s="54" t="e">
@@ -12954,7 +12963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="9:15" hidden="1">
+    <row r="58" spans="9:15">
       <c r="I58" s="49"/>
       <c r="M58" s="49"/>
       <c r="O58" s="54" t="e">
@@ -12962,7 +12971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="9:15" hidden="1">
+    <row r="59" spans="9:15">
       <c r="I59" s="49"/>
       <c r="M59" s="49"/>
       <c r="O59" s="54" t="e">
@@ -12970,7 +12979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="9:15" hidden="1">
+    <row r="60" spans="9:15">
       <c r="I60" s="49"/>
       <c r="M60" s="49"/>
       <c r="O60" s="54" t="e">
@@ -12978,7 +12987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="9:15" hidden="1">
+    <row r="61" spans="9:15">
       <c r="I61" s="49"/>
       <c r="M61" s="49"/>
       <c r="O61" s="54" t="e">
@@ -12986,7 +12995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="9:15" hidden="1">
+    <row r="62" spans="9:15">
       <c r="I62" s="49"/>
       <c r="M62" s="49"/>
       <c r="O62" s="54" t="e">
@@ -12994,7 +13003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="9:15" hidden="1">
+    <row r="63" spans="9:15">
       <c r="I63" s="49"/>
       <c r="M63" s="49"/>
       <c r="O63" s="54" t="e">
@@ -13002,7 +13011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="9:15" hidden="1">
+    <row r="64" spans="9:15">
       <c r="I64" s="49"/>
       <c r="M64" s="49"/>
       <c r="O64" s="54" t="e">
@@ -13010,7 +13019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="9:15" hidden="1">
+    <row r="65" spans="9:15">
       <c r="I65" s="49"/>
       <c r="M65" s="49"/>
       <c r="O65" s="54" t="e">
@@ -13018,7 +13027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="9:15" hidden="1">
+    <row r="66" spans="9:15">
       <c r="I66" s="49"/>
       <c r="M66" s="49"/>
       <c r="O66" s="54" t="e">
@@ -13026,7 +13035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="9:15" hidden="1">
+    <row r="67" spans="9:15">
       <c r="I67" s="49"/>
       <c r="M67" s="49"/>
       <c r="O67" s="54" t="e">
@@ -13034,7 +13043,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="9:15" hidden="1">
+    <row r="68" spans="9:15">
       <c r="I68" s="49"/>
       <c r="M68" s="49"/>
       <c r="O68" s="54" t="e">
@@ -13042,7 +13051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="9:15" hidden="1">
+    <row r="69" spans="9:15">
       <c r="I69" s="49"/>
       <c r="M69" s="49"/>
       <c r="O69" s="54" t="e">
@@ -13050,7 +13059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="9:15" hidden="1">
+    <row r="70" spans="9:15">
       <c r="I70" s="49"/>
       <c r="M70" s="49"/>
       <c r="O70" s="54" t="e">
@@ -13058,7 +13067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="9:15" hidden="1">
+    <row r="71" spans="9:15">
       <c r="I71" s="49"/>
       <c r="M71" s="49"/>
       <c r="O71" s="54" t="e">
@@ -13066,7 +13075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="9:15" hidden="1">
+    <row r="72" spans="9:15">
       <c r="I72" s="49"/>
       <c r="M72" s="49"/>
       <c r="O72" s="54" t="e">
@@ -13074,7 +13083,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="9:15" hidden="1">
+    <row r="73" spans="9:15">
       <c r="I73" s="49"/>
       <c r="M73" s="49"/>
       <c r="O73" s="54" t="e">
@@ -13082,7 +13091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="9:15" hidden="1">
+    <row r="74" spans="9:15">
       <c r="I74" s="49"/>
       <c r="M74" s="49"/>
       <c r="O74" s="54" t="e">
@@ -13090,7 +13099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="9:15" hidden="1">
+    <row r="75" spans="9:15">
       <c r="I75" s="49"/>
       <c r="M75" s="49"/>
       <c r="O75" s="54" t="e">
@@ -13098,7 +13107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="9:15" hidden="1">
+    <row r="76" spans="9:15">
       <c r="I76" s="49"/>
       <c r="M76" s="49"/>
       <c r="O76" s="54" t="e">
@@ -13106,7 +13115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="9:15" hidden="1">
+    <row r="77" spans="9:15">
       <c r="I77" s="49"/>
       <c r="M77" s="49"/>
       <c r="O77" s="54" t="e">
@@ -13114,7 +13123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="9:15" hidden="1">
+    <row r="78" spans="9:15">
       <c r="I78" s="49"/>
       <c r="M78" s="49"/>
       <c r="O78" s="54" t="e">
@@ -13122,7 +13131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="9:15" hidden="1">
+    <row r="79" spans="9:15">
       <c r="I79" s="49"/>
       <c r="M79" s="49"/>
       <c r="O79" s="54" t="e">
@@ -13130,7 +13139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="9:15" hidden="1">
+    <row r="80" spans="9:15">
       <c r="I80" s="49"/>
       <c r="M80" s="49"/>
       <c r="O80" s="54" t="e">
@@ -13138,7 +13147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="9:15" hidden="1">
+    <row r="81" spans="9:15">
       <c r="I81" s="49"/>
       <c r="M81" s="49"/>
       <c r="O81" s="54" t="e">
@@ -13146,7 +13155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="9:15" hidden="1">
+    <row r="82" spans="9:15">
       <c r="I82" s="49"/>
       <c r="M82" s="49"/>
       <c r="O82" s="54" t="e">
@@ -13154,7 +13163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="9:15" hidden="1">
+    <row r="83" spans="9:15">
       <c r="I83" s="49"/>
       <c r="M83" s="49"/>
       <c r="O83" s="54" t="e">
@@ -13162,7 +13171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="9:15" hidden="1">
+    <row r="84" spans="9:15">
       <c r="I84" s="49"/>
       <c r="M84" s="49"/>
       <c r="O84" s="54" t="e">
@@ -13170,7 +13179,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="9:15" hidden="1">
+    <row r="85" spans="9:15">
       <c r="I85" s="49"/>
       <c r="M85" s="49"/>
       <c r="O85" s="54" t="e">
@@ -13178,7 +13187,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="9:15" hidden="1">
+    <row r="86" spans="9:15">
       <c r="I86" s="49"/>
       <c r="M86" s="49"/>
       <c r="O86" s="54" t="e">
@@ -13186,7 +13195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="9:15" hidden="1">
+    <row r="87" spans="9:15">
       <c r="I87" s="49"/>
       <c r="M87" s="49"/>
       <c r="O87" s="54" t="e">
@@ -13194,7 +13203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="9:15" hidden="1">
+    <row r="88" spans="9:15">
       <c r="I88" s="49"/>
       <c r="M88" s="49"/>
       <c r="O88" s="54" t="e">
@@ -13202,7 +13211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="9:15" hidden="1">
+    <row r="89" spans="9:15">
       <c r="I89" s="49"/>
       <c r="M89" s="49"/>
       <c r="O89" s="54" t="e">
@@ -13210,7 +13219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="9:15" hidden="1">
+    <row r="90" spans="9:15">
       <c r="I90" s="49"/>
       <c r="M90" s="49"/>
       <c r="O90" s="54" t="e">
@@ -13218,7 +13227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="9:15" hidden="1">
+    <row r="91" spans="9:15">
       <c r="I91" s="49"/>
       <c r="M91" s="49"/>
       <c r="O91" s="54" t="e">
@@ -13226,7 +13235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="9:15" hidden="1">
+    <row r="92" spans="9:15">
       <c r="I92" s="49"/>
       <c r="M92" s="49"/>
       <c r="O92" s="54" t="e">
@@ -13234,7 +13243,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="9:15" hidden="1">
+    <row r="93" spans="9:15">
       <c r="I93" s="49"/>
       <c r="M93" s="49"/>
       <c r="O93" s="54" t="e">
@@ -13242,7 +13251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="9:15" hidden="1">
+    <row r="94" spans="9:15">
       <c r="I94" s="49"/>
       <c r="M94" s="49"/>
       <c r="O94" s="54" t="e">
@@ -13250,7 +13259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="9:15" hidden="1">
+    <row r="95" spans="9:15">
       <c r="I95" s="49"/>
       <c r="M95" s="49"/>
       <c r="O95" s="54" t="e">
@@ -13258,7 +13267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="9:15" hidden="1">
+    <row r="96" spans="9:15">
       <c r="I96" s="49"/>
       <c r="M96" s="49"/>
       <c r="O96" s="54" t="e">
@@ -13266,7 +13275,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="9:15" hidden="1">
+    <row r="97" spans="9:15">
       <c r="I97" s="49"/>
       <c r="M97" s="49"/>
       <c r="O97" s="54" t="e">
@@ -13274,7 +13283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="9:15" hidden="1">
+    <row r="98" spans="9:15">
       <c r="I98" s="49"/>
       <c r="M98" s="49"/>
       <c r="O98" s="54" t="e">
@@ -13282,7 +13291,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="9:15" hidden="1">
+    <row r="99" spans="9:15">
       <c r="I99" s="49"/>
       <c r="M99" s="49"/>
       <c r="O99" s="54" t="e">
@@ -13290,7 +13299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="9:15" hidden="1">
+    <row r="100" spans="9:15">
       <c r="I100" s="49"/>
       <c r="M100" s="49"/>
       <c r="O100" s="54" t="e">
@@ -13298,7 +13307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="9:15" hidden="1">
+    <row r="101" spans="9:15">
       <c r="I101" s="49"/>
       <c r="M101" s="49"/>
       <c r="O101" s="54" t="e">
@@ -13306,7 +13315,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="9:15" hidden="1">
+    <row r="102" spans="9:15">
       <c r="I102" s="49"/>
       <c r="M102" s="49"/>
       <c r="O102" s="54" t="e">
@@ -13314,7 +13323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="9:15" hidden="1">
+    <row r="103" spans="9:15">
       <c r="I103" s="49"/>
       <c r="M103" s="49"/>
       <c r="O103" s="54" t="e">
@@ -13322,7 +13331,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="9:15" hidden="1">
+    <row r="104" spans="9:15">
       <c r="I104" s="49"/>
       <c r="M104" s="49"/>
       <c r="O104" s="54" t="e">
@@ -13330,7 +13339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="9:15" hidden="1">
+    <row r="105" spans="9:15">
       <c r="I105" s="49"/>
       <c r="M105" s="49"/>
       <c r="O105" s="54" t="e">
@@ -13338,7 +13347,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="9:15" hidden="1">
+    <row r="106" spans="9:15">
       <c r="I106" s="49"/>
       <c r="M106" s="49"/>
       <c r="O106" s="54" t="e">
@@ -13346,7 +13355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="9:15" hidden="1">
+    <row r="107" spans="9:15">
       <c r="I107" s="49"/>
       <c r="M107" s="49"/>
       <c r="O107" s="54" t="e">
@@ -13354,7 +13363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="9:15" hidden="1">
+    <row r="108" spans="9:15">
       <c r="I108" s="49"/>
       <c r="M108" s="49"/>
       <c r="O108" s="54" t="e">
@@ -13362,7 +13371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="9:15" hidden="1">
+    <row r="109" spans="9:15">
       <c r="I109" s="49"/>
       <c r="M109" s="49"/>
       <c r="O109" s="54" t="e">
@@ -13370,7 +13379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="9:15" hidden="1">
+    <row r="110" spans="9:15">
       <c r="I110" s="49"/>
       <c r="M110" s="49"/>
       <c r="O110" s="54" t="e">
@@ -13378,7 +13387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="9:15" hidden="1">
+    <row r="111" spans="9:15">
       <c r="I111" s="49"/>
       <c r="M111" s="49"/>
       <c r="O111" s="54" t="e">
@@ -13386,7 +13395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="9:15" hidden="1">
+    <row r="112" spans="9:15">
       <c r="I112" s="49"/>
       <c r="M112" s="49"/>
       <c r="O112" s="54" t="e">
@@ -13394,7 +13403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="9:15" hidden="1">
+    <row r="113" spans="9:15">
       <c r="I113" s="49"/>
       <c r="M113" s="49"/>
       <c r="O113" s="54" t="e">
@@ -13402,7 +13411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="9:15" hidden="1">
+    <row r="114" spans="9:15">
       <c r="I114" s="49"/>
       <c r="M114" s="49"/>
       <c r="O114" s="54" t="e">
@@ -13410,7 +13419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="9:15" hidden="1">
+    <row r="115" spans="9:15">
       <c r="I115" s="49"/>
       <c r="M115" s="49"/>
       <c r="O115" s="54" t="e">
@@ -13431,8 +13440,8 @@
   <dimension ref="A1:L743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G518" sqref="G518"/>
+      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G531" sqref="G531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30824,14 +30833,29 @@
         <v>8</v>
       </c>
       <c r="B518" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C518">
         <v>3</v>
       </c>
+      <c r="D518">
+        <v>920</v>
+      </c>
+      <c r="E518">
+        <v>2</v>
+      </c>
+      <c r="F518" t="s">
+        <v>36</v>
+      </c>
+      <c r="G518">
+        <v>3</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
       <c r="I518">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J518" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -30847,14 +30871,23 @@
         <v>8</v>
       </c>
       <c r="B519" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C519">
         <v>3</v>
       </c>
+      <c r="D519">
+        <v>1475</v>
+      </c>
+      <c r="E519">
+        <v>3</v>
+      </c>
+      <c r="H519">
+        <v>2756</v>
+      </c>
       <c r="I519">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="J519" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -30870,22 +30903,37 @@
         <v>8</v>
       </c>
       <c r="B520" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C520">
         <v>3</v>
       </c>
+      <c r="D520">
+        <v>1500</v>
+      </c>
+      <c r="E520">
+        <v>3</v>
+      </c>
+      <c r="F520" t="s">
+        <v>62</v>
+      </c>
+      <c r="G520" t="s">
+        <v>28</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
       <c r="I520">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
       </c>
       <c r="J520" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
+        <v>34500</v>
       </c>
       <c r="K520" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
+        <v>66062</v>
       </c>
     </row>
     <row r="521" spans="1:11">
@@ -30893,14 +30941,23 @@
         <v>8</v>
       </c>
       <c r="B521" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C521">
         <v>3</v>
       </c>
+      <c r="D521">
+        <v>2329</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="H521">
+        <v>2067</v>
+      </c>
       <c r="I521">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="J521" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -30913,13 +30970,28 @@
     </row>
     <row r="522" spans="1:11">
       <c r="A522" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B522" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C522">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D522">
+        <v>2340</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522" t="s">
+        <v>65</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
       </c>
       <c r="I522">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -30936,13 +31008,28 @@
     </row>
     <row r="523" spans="1:11">
       <c r="A523" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B523" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C523">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D523">
+        <v>2340</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523" t="s">
+        <v>65</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
       </c>
       <c r="I523">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -30959,63 +31046,102 @@
     </row>
     <row r="524" spans="1:11">
       <c r="A524" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B524" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C524">
+        <v>7</v>
+      </c>
+      <c r="D524">
+        <v>2182</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524" t="s">
+        <v>66</v>
+      </c>
+      <c r="G524">
+        <v>4</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J524" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K524" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11">
+      <c r="A525" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B525" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525">
+        <v>6</v>
+      </c>
+      <c r="D525">
+        <v>2090</v>
+      </c>
+      <c r="E525">
+        <v>2</v>
+      </c>
+      <c r="H525">
+        <v>1971</v>
+      </c>
+      <c r="I525">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1971</v>
+      </c>
+      <c r="J525" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K525" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11">
+      <c r="A526" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B526" t="s">
+        <v>9</v>
+      </c>
+      <c r="C526">
+        <v>6</v>
+      </c>
+      <c r="D526">
+        <v>2783</v>
+      </c>
+      <c r="E526">
+        <v>2</v>
+      </c>
+      <c r="F526" t="s">
+        <v>36</v>
+      </c>
+      <c r="G526">
         <v>3</v>
       </c>
-      <c r="I524">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J524" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K524" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:11">
-      <c r="A525" t="s">
-        <v>8</v>
-      </c>
-      <c r="B525" t="s">
-        <v>32</v>
-      </c>
-      <c r="C525">
-        <v>3</v>
-      </c>
-      <c r="I525">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J525" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K525" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:11">
-      <c r="A526" t="s">
-        <v>8</v>
-      </c>
-      <c r="B526" t="s">
-        <v>32</v>
-      </c>
-      <c r="C526">
-        <v>3</v>
+      <c r="H526">
+        <v>0</v>
       </c>
       <c r="I526">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J526" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31027,18 +31153,27 @@
       </c>
     </row>
     <row r="527" spans="1:11">
-      <c r="A527" t="s">
-        <v>8</v>
+      <c r="A527" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B527" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C527">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D527">
+        <v>2090</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>12000</v>
       </c>
       <c r="I527">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J527" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31050,14 +31185,29 @@
       </c>
     </row>
     <row r="528" spans="1:11">
-      <c r="A528" t="s">
-        <v>8</v>
+      <c r="A528" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B528" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C528">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D528">
+        <v>2367</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528" t="s">
+        <v>63</v>
+      </c>
+      <c r="G528" t="s">
+        <v>13</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
       </c>
       <c r="I528">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -31065,26 +31215,35 @@
       </c>
       <c r="J528" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="K528" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
+        <v>66062</v>
       </c>
     </row>
     <row r="529" spans="1:11">
-      <c r="A529" t="s">
-        <v>8</v>
+      <c r="A529" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B529" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C529">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D529">
+        <v>3236</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="H529">
+        <v>1236</v>
       </c>
       <c r="I529">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="J529" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31096,14 +31255,26 @@
       </c>
     </row>
     <row r="530" spans="1:11">
-      <c r="A530" t="s">
-        <v>8</v>
+      <c r="A530" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B530" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C530">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D530">
+        <v>2638</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530" t="s">
+        <v>175</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
       </c>
       <c r="I530">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -31119,14 +31290,14 @@
       </c>
     </row>
     <row r="531" spans="1:11">
-      <c r="A531" t="s">
-        <v>8</v>
+      <c r="A531" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B531" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C531">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I531">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -31142,6 +31313,15 @@
       </c>
     </row>
     <row r="532" spans="1:11">
+      <c r="A532" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532">
+        <v>6</v>
+      </c>
       <c r="I532">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31156,6 +31336,15 @@
       </c>
     </row>
     <row r="533" spans="1:11">
+      <c r="A533" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533">
+        <v>6</v>
+      </c>
       <c r="I533">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31170,6 +31359,15 @@
       </c>
     </row>
     <row r="534" spans="1:11">
+      <c r="A534" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534">
+        <v>6</v>
+      </c>
       <c r="I534">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31184,6 +31382,15 @@
       </c>
     </row>
     <row r="535" spans="1:11">
+      <c r="A535" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535">
+        <v>6</v>
+      </c>
       <c r="I535">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -34264,7 +34471,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C17" si="1">($G10+$H10)/($O10-$N10)*M10</f>
-        <v>2304779.8859364158</v>
+        <v>2677473.9931413</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -34297,7 +34504,7 @@
       </c>
       <c r="M10">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I10,LocFeatures[[#All],[LVL]],Summary!$J10,LocFeatures[[#All],[Stage]],Summary!$K10)</f>
-        <v>3597.7858563102154</v>
+        <v>4179.565312046444</v>
       </c>
       <c r="N10">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I10,LocFeatures[[#All],[LVL]],Summary!$J10,LocFeatures[[#All],[Stage]],Summary!$K10)</f>
@@ -34318,7 +34525,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>1891251.2465484703</v>
+        <v>2197075.7632988528</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -34352,7 +34559,7 @@
       </c>
       <c r="M11">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I11,LocFeatures[[#All],[LVL]],Summary!$J11,LocFeatures[[#All],[Stage]],Summary!$K11)</f>
-        <v>3597.7858563102154</v>
+        <v>4179.565312046444</v>
       </c>
       <c r="N11">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I11,LocFeatures[[#All],[LVL]],Summary!$J11,LocFeatures[[#All],[Stage]],Summary!$K11)</f>
@@ -34373,7 +34580,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>1837645.6821833665</v>
+        <v>2134801.9186896472</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -34408,7 +34615,7 @@
       </c>
       <c r="M12">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I12,LocFeatures[[#All],[LVL]],Summary!$J12,LocFeatures[[#All],[Stage]],Summary!$K12)</f>
-        <v>3597.7858563102154</v>
+        <v>4179.565312046444</v>
       </c>
       <c r="N12">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I12,LocFeatures[[#All],[LVL]],Summary!$J12,LocFeatures[[#All],[Stage]],Summary!$K12)</f>
@@ -34429,7 +34636,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>1837645.6821833665</v>
+        <v>2134801.9186896472</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -34464,7 +34671,7 @@
       </c>
       <c r="M13">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I13,LocFeatures[[#All],[LVL]],Summary!$J13,LocFeatures[[#All],[Stage]],Summary!$K13)</f>
-        <v>3597.7858563102154</v>
+        <v>4179.565312046444</v>
       </c>
       <c r="N13">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I13,LocFeatures[[#All],[LVL]],Summary!$J13,LocFeatures[[#All],[Stage]],Summary!$K13)</f>
@@ -34703,11 +34910,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ref="B18:B21" si="3">(2*$G18+$H18)/($O18-$N18)*L18</f>
-        <v>2663997.2213350367</v>
+        <v>2691106.2316715545</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:C21" si="4">($G18+$H18)/($O18-$N18)*M18</f>
-        <v>2078778.6818552825</v>
+        <v>2212931.6367302057</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -34741,11 +34948,11 @@
       </c>
       <c r="M18">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N18">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O18">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
@@ -34758,11 +34965,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>4372034.0466304692</v>
+        <v>4416524.1516547967</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
-        <v>1705799.6719542923</v>
+        <v>1815882.6107561796</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -34796,11 +35003,11 @@
       </c>
       <c r="M19">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N19">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O19">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
@@ -34813,11 +35020,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>4009123.1555413604</v>
+        <v>4049920.2555509005</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
-        <v>1657450.541041201</v>
+        <v>1764413.2925743612</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -34852,11 +35059,11 @@
       </c>
       <c r="M20">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N20">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O20">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
@@ -34869,11 +35076,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>3858747.8441392523</v>
+        <v>3898014.7151235859</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
-        <v>1657450.541041201</v>
+        <v>1764413.2925743612</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -34908,11 +35115,11 @@
       </c>
       <c r="M21">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N21">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O21">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
@@ -34925,11 +35132,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22" si="5">(2*$G22+$H22)/($O22-$N22)*L22</f>
-        <v>1532707.3149105955</v>
+        <v>1548304.2450087226</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22" si="6">($G22+$H22)/($O22-$N22)*M22</f>
-        <v>598003.49381803849</v>
+        <v>636595.35375072702</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -34963,11 +35170,11 @@
       </c>
       <c r="M22">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N22">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O22">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
@@ -34980,11 +35187,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23" si="8">(2*$G23+$H23)/($O23-$N23)*L23</f>
-        <v>2040067.4544873843</v>
+        <v>2060827.3146208632</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23" si="9">($G23+$H23)/($O23-$N23)*M23</f>
-        <v>795955.92292132438</v>
+        <v>847322.54503560963</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -35018,11 +35225,11 @@
       </c>
       <c r="M23">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N23">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O23">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
@@ -35035,11 +35242,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ref="B24:B26" si="10">(2*$G24+$H24)/($O24-$N24)*L24</f>
-        <v>4287944.9377195779</v>
+        <v>4331579.3464599913</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:C26" si="11">($G24+$H24)/($O24-$N24)*M24</f>
-        <v>1672991.3331204087</v>
+        <v>1780957.0019899455</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -35070,11 +35277,11 @@
       </c>
       <c r="M24">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N24">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O24">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
@@ -35597,11 +35804,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="18"/>
-        <v>938057.55349728523</v>
+        <v>947603.288646837</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="19"/>
-        <v>365994.0087299053</v>
+        <v>389613.25120444078</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -35632,11 +35839,11 @@
       </c>
       <c r="M34">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N34">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O34">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
@@ -35649,11 +35856,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:B40" si="22">(2*$G35+$H35)/($O35-$N35)*L35</f>
-        <v>712002.04407537519</v>
+        <v>719247.42354419769</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ref="C35:C40" si="23">($G35+$H35)/($O35-$N35)*M35</f>
-        <v>555591.67209624185</v>
+        <v>591446.5060745707</v>
       </c>
       <c r="D35">
         <v>90</v>
@@ -35687,11 +35894,11 @@
       </c>
       <c r="M35">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
-        <v>4213.7449664429532</v>
+        <v>4440.4901960784318</v>
       </c>
       <c r="N35">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
-        <v>0.93288590604026844</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="O35">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
@@ -39558,7 +39765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EXP lvls" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="243">
   <si>
     <t>Star</t>
   </si>
@@ -11469,7 +11469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -12628,11 +12628,11 @@
       <c r="H22" s="10"/>
       <c r="I22" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)</f>
-        <v>5507.363636363636</v>
+        <v>7706.363636363636</v>
       </c>
       <c r="J22" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="K22" s="10">
         <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
@@ -12648,15 +12648,15 @@
       </c>
       <c r="N22" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>893.08599508599502</v>
+        <v>1242.9618768328444</v>
       </c>
       <c r="O22" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>369.72972972972968</v>
+        <v>367.74193548387098</v>
       </c>
       <c r="P22" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1343.6167076167076</v>
+        <v>1336.3929618768329</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -13439,9 +13439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L743"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G531" sqref="G531"/>
+      <selection pane="bottomLeft" activeCell="G526" sqref="G526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31299,9 +31299,24 @@
       <c r="C531">
         <v>6</v>
       </c>
+      <c r="D531">
+        <v>2603</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531" t="s">
+        <v>36</v>
+      </c>
+      <c r="G531">
+        <v>4</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
       <c r="I531">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J531" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31322,9 +31337,18 @@
       <c r="C532">
         <v>6</v>
       </c>
+      <c r="D532">
+        <v>2600</v>
+      </c>
+      <c r="E532">
+        <v>2</v>
+      </c>
+      <c r="H532">
+        <v>3916</v>
+      </c>
       <c r="I532">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>3916</v>
       </c>
       <c r="J532" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31345,9 +31369,18 @@
       <c r="C533">
         <v>6</v>
       </c>
+      <c r="D533">
+        <v>2913</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>3789</v>
+      </c>
       <c r="I533">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>3789</v>
       </c>
       <c r="J533" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31368,9 +31401,24 @@
       <c r="C534">
         <v>6</v>
       </c>
+      <c r="D534">
+        <v>2460</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534" t="s">
+        <v>36</v>
+      </c>
+      <c r="G534">
+        <v>4</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
       <c r="I534">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J534" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -34338,7 +34386,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="EXP lvls" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="23" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="252">
   <si>
     <t>Star</t>
   </si>
@@ -754,6 +754,33 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>EoWat(Mid)</t>
+  </si>
+  <si>
+    <t>SumStone</t>
+  </si>
+  <si>
+    <t>EoWat(High)</t>
+  </si>
+  <si>
+    <t>SD(Bearman)</t>
+  </si>
+  <si>
+    <t>Angelmon</t>
+  </si>
+  <si>
+    <t>HoWater</t>
+  </si>
+  <si>
+    <t>EoMag(High)</t>
+  </si>
+  <si>
+    <t>Raoq</t>
+  </si>
+  <si>
+    <t>Sieq</t>
+  </si>
 </sst>
 </file>
 
@@ -9391,7 +9418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9508,7 +9535,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9805,8 +9832,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DropAnalityka" displayName="DropAnalityka" ref="A1:L743" totalsRowShown="0">
-  <autoFilter ref="A1:L743">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DropAnalityka" displayName="DropAnalityka" ref="A1:L739" totalsRowShown="0">
+  <autoFilter ref="A1:L739">
     <filterColumn colId="9"/>
   </autoFilter>
   <tableColumns count="12">
@@ -10155,8 +10182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H25:H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10325,10 +10352,10 @@
       </c>
       <c r="M3">
         <f>5-N3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -10397,15 +10424,15 @@
         <v>89</v>
       </c>
       <c r="M4">
-        <f>M3-Tabela6[[#This Row],[Done]]</f>
-        <v>4</v>
+        <f>MAXA(M3-Tabela6[[#This Row],[Done]],0)</f>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1">
         <f>M4*$B$5</f>
-        <v>759000</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -10471,11 +10498,11 @@
         <v>88</v>
       </c>
       <c r="M5">
-        <f>4*M3-Tabela6[[#This Row],[Done]]</f>
-        <v>20</v>
+        <f>MAXA(4*M3-Tabela6[[#This Row],[Done]],0)</f>
+        <v>15</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5">
@@ -10542,15 +10569,15 @@
         <v>86</v>
       </c>
       <c r="M6">
-        <f>M5-Tabela6[[#This Row],[Done]]</f>
-        <v>20</v>
+        <f>MAXA(M5-Tabela6[[#This Row],[Done]],0)</f>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
         <f>M6*$B$4</f>
-        <v>1643640</v>
+        <v>986184</v>
       </c>
       <c r="P6">
         <v>8</v>
@@ -10616,11 +10643,11 @@
         <v>87</v>
       </c>
       <c r="M7">
-        <f>3*(M5+M4)-Tabela6[[#This Row],[Done]]</f>
-        <v>72</v>
+        <f>MAXA(3*(M5+M4)-Tabela6[[#This Row],[Done]],0)</f>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
@@ -10681,15 +10708,15 @@
         <v>141</v>
       </c>
       <c r="M8">
-        <f>M7+M6-Tabela6[[#This Row],[Done]]</f>
-        <v>92</v>
+        <f>MAXA(M7+M6-Tabela6[[#This Row],[Done]],0)</f>
+        <v>35</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O8" s="1">
         <f>M8*$B$3</f>
-        <v>3295624</v>
+        <v>1253770</v>
       </c>
       <c r="P8">
         <v>17</v>
@@ -10749,11 +10776,11 @@
         <v>144</v>
       </c>
       <c r="M9" s="6">
-        <f>2*(M7+M6)-Tabela6[[#This Row],[Done]]</f>
-        <v>184</v>
+        <f>MAXA(2*(M7+M6)-Tabela6[[#This Row],[Done]],0)</f>
+        <v>95</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O9" s="45"/>
       <c r="P9">
@@ -10786,15 +10813,15 @@
         <v>193</v>
       </c>
       <c r="M10">
-        <f>(M9+M8)-Tabela6[[#This Row],[Done]]</f>
-        <v>276</v>
+        <f>MAXA((M9+M8)-Tabela6[[#This Row],[Done]],0)</f>
+        <v>130</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" s="52">
         <f>Tabela6[[#This Row],[Missing]]*$B$2</f>
-        <v>4173120</v>
+        <v>1965600</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -10826,8 +10853,8 @@
         <v>194</v>
       </c>
       <c r="M11" s="6">
-        <f>2*M10-Tabela6[[#This Row],[Done]]</f>
-        <v>552</v>
+        <f>MAXA(2*M10-Tabela6[[#This Row],[Done]],0)</f>
+        <v>260</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10864,7 +10891,7 @@
       </c>
       <c r="O12" s="44">
         <f>SUM(Tabela6[XP to gain])</f>
-        <v>9871384</v>
+        <v>4205554</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -11071,14 +11098,14 @@
       </c>
       <c r="M18">
         <f>M17-Tabela66[[#This Row],[Done]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <f>M18*$B$4</f>
-        <v>82182</v>
+        <v>328728</v>
       </c>
     </row>
     <row r="19" spans="4:17">
@@ -11105,10 +11132,10 @@
       </c>
       <c r="M19">
         <f>3*(M17+M16)-Tabela66[[#This Row],[Done]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19">
@@ -11139,14 +11166,14 @@
       </c>
       <c r="M20">
         <f>M19+M18-Tabela66[[#This Row],[Done]]</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" s="1">
         <f>M20*$B$3</f>
-        <v>35822</v>
+        <v>573152</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -11170,7 +11197,7 @@
       </c>
       <c r="M21" s="6">
         <f>2*(M19+M18)-Tabela66[[#This Row],[Done]]</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -11201,14 +11228,14 @@
       </c>
       <c r="M22">
         <f>(M21+M20)-Tabela66[[#This Row],[Done]]</f>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" s="52">
         <f>Tabela66[[#This Row],[Missing]]*$B$2</f>
-        <v>45360</v>
+        <v>725760</v>
       </c>
     </row>
     <row r="23" spans="4:17">
@@ -11232,7 +11259,7 @@
       </c>
       <c r="M23" s="6">
         <f>2*M22-Tabela66[[#This Row],[Done]]</f>
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -11263,7 +11290,7 @@
       </c>
       <c r="O24" s="44">
         <f>SUM(Tabela66[XP to gain])</f>
-        <v>163364</v>
+        <v>1627640</v>
       </c>
     </row>
     <row r="25" spans="4:17">
@@ -11470,7 +11497,7 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12628,7 +12655,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="55">
         <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)</f>
-        <v>7706.363636363636</v>
+        <v>8219.2000000000007</v>
       </c>
       <c r="J22" s="56">
         <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
@@ -12644,11 +12671,11 @@
       </c>
       <c r="M22" s="58">
         <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
-        <v>6005.636363636364</v>
+        <v>6606.2</v>
       </c>
       <c r="N22" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1242.9618768328444</v>
+        <v>1325.6774193548388</v>
       </c>
       <c r="O22" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
@@ -12656,46 +12683,108 @@
       </c>
       <c r="P22" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1336.3929618768329</v>
+        <v>1433.258064516129</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10">
+        <v>7</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="55" t="e">
+      <c r="I23" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A23,DropAnalityka[LVL],'Location features'!B23,DropAnalityka[Stage],'Location features'!C23)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A23,DropAnalityka[LVL],'Location features'!B23,DropAnalityka[Stage],'Location features'!C23)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A23,DropAnalityka[LVL],'Location features'!B23,DropAnalityka[Stage],'Location features'!C23)</f>
+        <v>2654.1133603238864</v>
+      </c>
+      <c r="J23" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A23,DropAnalityka[LVL],'Location features'!$B23,DropAnalityka[Stage],'Location features'!$C23)</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="K23" s="10">
+        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <f>3*E23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="58">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A23,DropAnalityka[LVL],'Location features'!$B23,DropAnalityka[Stage],'Location features'!$C23)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="57">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>420.23461538461532</v>
+      </c>
+      <c r="O23" s="57">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="57">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="55" t="e">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A24,DropAnalityka[LVL],'Location features'!B24,DropAnalityka[Stage],'Location features'!C24)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A24,DropAnalityka[LVL],'Location features'!B24,DropAnalityka[Stage],'Location features'!C24)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A24,DropAnalityka[LVL],'Location features'!B24,DropAnalityka[Stage],'Location features'!C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="56" t="e">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A24,DropAnalityka[LVL],'Location features'!$B24,DropAnalityka[Stage],'Location features'!$C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="10">
+        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <f>3*E24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="58" t="e">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A24,DropAnalityka[LVL],'Location features'!$B24,DropAnalityka[Stage],'Location features'!$C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="57" t="e">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="57" t="e">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="I24" s="49"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="55" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+      <c r="P24" s="57" t="e">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
@@ -13437,11 +13526,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L743"/>
+  <dimension ref="A1:L739"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G526" sqref="G526"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G584" sqref="G584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13449,7 +13538,7 @@
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
   </cols>
@@ -31431,13 +31520,28 @@
     </row>
     <row r="535" spans="1:11">
       <c r="A535" s="10" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="B535" t="s">
         <v>9</v>
       </c>
       <c r="C535">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D535">
+        <v>2498</v>
+      </c>
+      <c r="E535">
+        <v>2</v>
+      </c>
+      <c r="F535" t="s">
+        <v>64</v>
+      </c>
+      <c r="G535">
+        <v>3</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
       </c>
       <c r="I535">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
@@ -31453,6 +31557,30 @@
       </c>
     </row>
     <row r="536" spans="1:11">
+      <c r="A536" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536">
+        <v>7</v>
+      </c>
+      <c r="D536">
+        <v>2073</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536" t="s">
+        <v>243</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
       <c r="I536">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31467,6 +31595,30 @@
       </c>
     </row>
     <row r="537" spans="1:11">
+      <c r="A537" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537">
+        <v>7</v>
+      </c>
+      <c r="D537">
+        <v>2143</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537" t="s">
+        <v>64</v>
+      </c>
+      <c r="G537">
+        <v>3</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
       <c r="I537">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31481,6 +31633,30 @@
       </c>
     </row>
     <row r="538" spans="1:11">
+      <c r="A538" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538">
+        <v>7</v>
+      </c>
+      <c r="D538">
+        <v>1852</v>
+      </c>
+      <c r="E538">
+        <v>1</v>
+      </c>
+      <c r="F538" t="s">
+        <v>243</v>
+      </c>
+      <c r="G538">
+        <v>1</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
       <c r="I538">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31495,6 +31671,30 @@
       </c>
     </row>
     <row r="539" spans="1:11">
+      <c r="A539" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539">
+        <v>7</v>
+      </c>
+      <c r="D539">
+        <v>2417</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539" t="s">
+        <v>244</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
       <c r="I539">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31509,6 +31709,30 @@
       </c>
     </row>
     <row r="540" spans="1:11">
+      <c r="A540" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B540" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540">
+        <v>8</v>
+      </c>
+      <c r="D540">
+        <v>2146</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540" t="s">
+        <v>243</v>
+      </c>
+      <c r="G540">
+        <v>2</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
       <c r="I540">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31523,9 +31747,33 @@
       </c>
     </row>
     <row r="541" spans="1:11">
+      <c r="A541" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B541" t="s">
+        <v>9</v>
+      </c>
+      <c r="C541">
+        <v>8</v>
+      </c>
+      <c r="D541">
+        <v>2968</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541" t="s">
+        <v>36</v>
+      </c>
+      <c r="G541">
+        <v>4</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
       <c r="I541">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J541" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31537,9 +31785,33 @@
       </c>
     </row>
     <row r="542" spans="1:11">
+      <c r="A542" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542">
+        <v>8</v>
+      </c>
+      <c r="D542">
+        <v>2237</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542" t="s">
+        <v>36</v>
+      </c>
+      <c r="G542">
+        <v>4</v>
+      </c>
+      <c r="H542">
+        <v>0</v>
+      </c>
       <c r="I542">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J542" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31551,6 +31823,30 @@
       </c>
     </row>
     <row r="543" spans="1:11">
+      <c r="A543" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543">
+        <v>8</v>
+      </c>
+      <c r="D543">
+        <v>2223</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543" t="s">
+        <v>64</v>
+      </c>
+      <c r="G543">
+        <v>5</v>
+      </c>
+      <c r="H543">
+        <v>0</v>
+      </c>
       <c r="I543">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31565,9 +31861,33 @@
       </c>
     </row>
     <row r="544" spans="1:11">
+      <c r="A544" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B544" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544">
+        <v>8</v>
+      </c>
+      <c r="D544">
+        <v>2246</v>
+      </c>
+      <c r="E544">
+        <v>2</v>
+      </c>
+      <c r="F544" t="s">
+        <v>36</v>
+      </c>
+      <c r="G544">
+        <v>4</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
       <c r="I544">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J544" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31578,10 +31898,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="9:11">
+    <row r="545" spans="1:11">
+      <c r="A545" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B545" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545">
+        <v>8</v>
+      </c>
+      <c r="D545">
+        <v>1945</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545" t="s">
+        <v>36</v>
+      </c>
+      <c r="G545">
+        <v>4</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
       <c r="I545">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J545" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31592,7 +31936,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="9:11">
+    <row r="546" spans="1:11">
+      <c r="A546" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546">
+        <v>8</v>
+      </c>
+      <c r="D546">
+        <v>2404</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546" t="s">
+        <v>64</v>
+      </c>
+      <c r="G546">
+        <v>4</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
       <c r="I546">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31606,7 +31974,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="9:11">
+    <row r="547" spans="1:11">
+      <c r="A547" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B547" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547">
+        <v>8</v>
+      </c>
+      <c r="D547">
+        <v>3017</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+      <c r="F547" t="s">
+        <v>64</v>
+      </c>
+      <c r="G547">
+        <v>4</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
       <c r="I547">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31620,7 +32012,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="9:11">
+    <row r="548" spans="1:11">
+      <c r="A548" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B548" t="s">
+        <v>9</v>
+      </c>
+      <c r="C548">
+        <v>8</v>
+      </c>
+      <c r="D548">
+        <v>2175</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548" t="s">
+        <v>175</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548">
+        <v>0</v>
+      </c>
       <c r="I548">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31634,7 +32050,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="9:11">
+    <row r="549" spans="1:11">
+      <c r="A549" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549">
+        <v>8</v>
+      </c>
+      <c r="D549">
+        <v>2276</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549" t="s">
+        <v>64</v>
+      </c>
+      <c r="G549">
+        <v>4</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
       <c r="I549">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31648,7 +32088,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="9:11">
+    <row r="550" spans="1:11">
+      <c r="A550" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550">
+        <v>8</v>
+      </c>
+      <c r="D550">
+        <v>2576</v>
+      </c>
+      <c r="E550">
+        <v>3</v>
+      </c>
+      <c r="F550" t="s">
+        <v>64</v>
+      </c>
+      <c r="G550">
+        <v>4</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
       <c r="I550">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31662,7 +32126,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="9:11">
+    <row r="551" spans="1:11">
+      <c r="A551" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551">
+        <v>8</v>
+      </c>
+      <c r="D551">
+        <v>2058</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+      <c r="F551" t="s">
+        <v>64</v>
+      </c>
+      <c r="G551">
+        <v>5</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
       <c r="I551">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31676,10 +32164,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="9:11">
+    <row r="552" spans="1:11">
+      <c r="A552" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552">
+        <v>8</v>
+      </c>
+      <c r="D552">
+        <v>2086</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552" t="s">
+        <v>36</v>
+      </c>
+      <c r="G552">
+        <v>4</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
       <c r="I552">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J552" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31690,10 +32202,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="9:11">
+    <row r="553" spans="1:11">
+      <c r="A553" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553">
+        <v>8</v>
+      </c>
+      <c r="D553">
+        <v>2586</v>
+      </c>
+      <c r="E553">
+        <v>3</v>
+      </c>
+      <c r="F553" t="s">
+        <v>36</v>
+      </c>
+      <c r="G553">
+        <v>4</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
       <c r="I553">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J553" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31704,10 +32240,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="9:11">
+    <row r="554" spans="1:11">
+      <c r="A554" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B554" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554">
+        <v>8</v>
+      </c>
+      <c r="D554">
+        <v>2500</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554" t="s">
+        <v>36</v>
+      </c>
+      <c r="G554">
+        <v>5</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
       <c r="I554">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J554" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31718,7 +32278,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="9:11">
+    <row r="555" spans="1:11">
+      <c r="A555" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B555" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555">
+        <v>8</v>
+      </c>
+      <c r="D555">
+        <v>2526</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555" t="s">
+        <v>245</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
       <c r="I555">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31732,7 +32316,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="9:11">
+    <row r="556" spans="1:11">
+      <c r="A556" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B556" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556">
+        <v>8</v>
+      </c>
+      <c r="D556">
+        <v>2483</v>
+      </c>
+      <c r="E556">
+        <v>3</v>
+      </c>
+      <c r="F556" t="s">
+        <v>245</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
       <c r="I556">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31746,7 +32354,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="9:11">
+    <row r="557" spans="1:11">
+      <c r="A557" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B557" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557">
+        <v>8</v>
+      </c>
+      <c r="D557">
+        <v>2491</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557" t="s">
+        <v>246</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
       <c r="I557">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31760,10 +32392,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="9:11">
+    <row r="558" spans="1:11">
+      <c r="A558" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B558" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558">
+        <v>8</v>
+      </c>
+      <c r="D558">
+        <v>2730</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558" t="s">
+        <v>36</v>
+      </c>
+      <c r="G558">
+        <v>4</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
       <c r="I558">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J558" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -31774,7 +32430,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="9:11">
+    <row r="559" spans="1:11">
+      <c r="A559" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559">
+        <v>8</v>
+      </c>
+      <c r="D559">
+        <v>2671</v>
+      </c>
+      <c r="E559">
+        <v>2</v>
+      </c>
+      <c r="F559" t="s">
+        <v>64</v>
+      </c>
+      <c r="G559">
+        <v>4</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
       <c r="I559">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31788,7 +32468,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="9:11">
+    <row r="560" spans="1:11">
+      <c r="A560" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B560" t="s">
+        <v>9</v>
+      </c>
+      <c r="C560">
+        <v>8</v>
+      </c>
+      <c r="D560">
+        <v>2186</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560" t="s">
+        <v>247</v>
+      </c>
+      <c r="G560" t="s">
+        <v>18</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
       <c r="I560">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31802,7 +32506,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="9:11">
+    <row r="561" spans="1:11">
+      <c r="A561" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B561" t="s">
+        <v>9</v>
+      </c>
+      <c r="C561">
+        <v>8</v>
+      </c>
+      <c r="D561">
+        <v>2316</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561" t="s">
+        <v>64</v>
+      </c>
+      <c r="G561">
+        <v>3</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
       <c r="I561">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31816,7 +32544,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="9:11">
+    <row r="562" spans="1:11">
+      <c r="A562" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B562" t="s">
+        <v>9</v>
+      </c>
+      <c r="C562">
+        <v>8</v>
+      </c>
+      <c r="D562">
+        <v>2046</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
+      <c r="F562" t="s">
+        <v>64</v>
+      </c>
+      <c r="G562">
+        <v>4</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
       <c r="I562">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31830,7 +32582,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="9:11">
+    <row r="563" spans="1:11">
+      <c r="A563" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B563" t="s">
+        <v>9</v>
+      </c>
+      <c r="C563">
+        <v>8</v>
+      </c>
+      <c r="D563">
+        <v>2303</v>
+      </c>
+      <c r="E563">
+        <v>3</v>
+      </c>
+      <c r="F563" t="s">
+        <v>243</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
       <c r="I563">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31844,7 +32620,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="9:11">
+    <row r="564" spans="1:11">
+      <c r="A564" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B564" t="s">
+        <v>9</v>
+      </c>
+      <c r="C564">
+        <v>8</v>
+      </c>
+      <c r="D564">
+        <v>2396</v>
+      </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564" t="s">
+        <v>243</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
       <c r="I564">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31858,7 +32658,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="9:11">
+    <row r="565" spans="1:11">
+      <c r="A565" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B565" t="s">
+        <v>9</v>
+      </c>
+      <c r="C565">
+        <v>8</v>
+      </c>
+      <c r="D565">
+        <v>2325</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565" t="s">
+        <v>245</v>
+      </c>
+      <c r="G565">
+        <v>2</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
       <c r="I565">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31872,7 +32696,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="9:11">
+    <row r="566" spans="1:11">
+      <c r="A566" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B566" t="s">
+        <v>9</v>
+      </c>
+      <c r="C566">
+        <v>8</v>
+      </c>
+      <c r="D566">
+        <v>2398</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>64</v>
+      </c>
+      <c r="G566">
+        <v>3</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
       <c r="I566">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31886,7 +32734,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="9:11">
+    <row r="567" spans="1:11">
+      <c r="A567" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567">
+        <v>8</v>
+      </c>
+      <c r="D567">
+        <v>2668</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567" t="s">
+        <v>245</v>
+      </c>
+      <c r="G567">
+        <v>3</v>
+      </c>
+      <c r="H567">
+        <v>0</v>
+      </c>
       <c r="I567">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31900,7 +32772,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="9:11">
+    <row r="568" spans="1:11">
+      <c r="A568" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B568" t="s">
+        <v>9</v>
+      </c>
+      <c r="C568">
+        <v>7</v>
+      </c>
+      <c r="D568">
+        <v>3002</v>
+      </c>
+      <c r="E568">
+        <v>2</v>
+      </c>
+      <c r="F568" t="s">
+        <v>65</v>
+      </c>
+      <c r="G568">
+        <v>2</v>
+      </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
       <c r="I568">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31914,7 +32810,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="9:11">
+    <row r="569" spans="1:11">
+      <c r="A569" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B569" t="s">
+        <v>9</v>
+      </c>
+      <c r="C569">
+        <v>7</v>
+      </c>
+      <c r="D569">
+        <v>2021</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569" t="s">
+        <v>65</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569">
+        <v>0</v>
+      </c>
       <c r="I569">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31928,7 +32848,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="9:11">
+    <row r="570" spans="1:11">
+      <c r="A570" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B570" t="s">
+        <v>9</v>
+      </c>
+      <c r="C570">
+        <v>7</v>
+      </c>
+      <c r="D570">
+        <v>2168</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570" t="s">
+        <v>66</v>
+      </c>
+      <c r="G570">
+        <v>4</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
       <c r="I570">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31942,7 +32886,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="9:11">
+    <row r="571" spans="1:11">
+      <c r="A571" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571">
+        <v>7</v>
+      </c>
+      <c r="D571">
+        <v>2540</v>
+      </c>
+      <c r="E571">
+        <v>3</v>
+      </c>
+      <c r="F571" t="s">
+        <v>65</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
       <c r="I571">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31956,7 +32924,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="9:11">
+    <row r="572" spans="1:11">
+      <c r="A572" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B572" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572">
+        <v>7</v>
+      </c>
+      <c r="D572">
+        <v>2251</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572" t="s">
+        <v>65</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
       <c r="I572">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31970,7 +32962,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="9:11">
+    <row r="573" spans="1:11">
+      <c r="A573" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573">
+        <v>7</v>
+      </c>
+      <c r="D573">
+        <v>2591</v>
+      </c>
+      <c r="E573">
+        <v>1</v>
+      </c>
+      <c r="F573" t="s">
+        <v>66</v>
+      </c>
+      <c r="G573">
+        <v>4</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
       <c r="I573">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31984,7 +33000,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="9:11">
+    <row r="574" spans="1:11">
+      <c r="A574" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B574" t="s">
+        <v>9</v>
+      </c>
+      <c r="C574">
+        <v>7</v>
+      </c>
+      <c r="D574">
+        <v>2238</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574" t="s">
+        <v>65</v>
+      </c>
+      <c r="G574">
+        <v>3</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
       <c r="I574">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -31998,7 +33038,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="9:11">
+    <row r="575" spans="1:11">
+      <c r="A575" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575">
+        <v>7</v>
+      </c>
+      <c r="D575">
+        <v>2506</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+      <c r="F575" t="s">
+        <v>65</v>
+      </c>
+      <c r="G575">
+        <v>3</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
       <c r="I575">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32012,7 +33076,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="9:11">
+    <row r="576" spans="1:11">
+      <c r="A576" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B576" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576">
+        <v>7</v>
+      </c>
+      <c r="D576">
+        <v>2339</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576" t="s">
+        <v>66</v>
+      </c>
+      <c r="G576">
+        <v>4</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
       <c r="I576">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32026,7 +33114,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="9:11">
+    <row r="577" spans="1:11">
+      <c r="A577" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B577" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577">
+        <v>7</v>
+      </c>
+      <c r="D577">
+        <v>2207</v>
+      </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
+      <c r="F577" t="s">
+        <v>66</v>
+      </c>
+      <c r="G577">
+        <v>3</v>
+      </c>
+      <c r="H577">
+        <v>0</v>
+      </c>
       <c r="I577">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32040,7 +33152,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="9:11">
+    <row r="578" spans="1:11">
+      <c r="A578" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B578" t="s">
+        <v>9</v>
+      </c>
+      <c r="C578">
+        <v>7</v>
+      </c>
+      <c r="D578">
+        <v>1988</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578" t="s">
+        <v>64</v>
+      </c>
+      <c r="G578">
+        <v>3</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
       <c r="I578">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32054,7 +33190,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="9:11">
+    <row r="579" spans="1:11">
+      <c r="A579" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579">
+        <v>7</v>
+      </c>
+      <c r="D579">
+        <v>2659</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579" t="s">
+        <v>66</v>
+      </c>
+      <c r="G579">
+        <v>5</v>
+      </c>
+      <c r="H579">
+        <v>0</v>
+      </c>
       <c r="I579">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32068,10 +33228,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="9:11">
+    <row r="580" spans="1:11">
+      <c r="A580" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B580" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580">
+        <v>7</v>
+      </c>
+      <c r="D580">
+        <v>2237</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580" t="s">
+        <v>36</v>
+      </c>
+      <c r="G580">
+        <v>4</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
       <c r="I580">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J580" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -32082,7 +33266,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="9:11">
+    <row r="581" spans="1:11">
+      <c r="A581" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B581" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581">
+        <v>7</v>
+      </c>
+      <c r="D581">
+        <v>2137</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581" t="s">
+        <v>175</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
       <c r="I581">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32096,7 +33304,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="9:11">
+    <row r="582" spans="1:11">
+      <c r="A582" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B582" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582">
+        <v>7</v>
+      </c>
+      <c r="D582">
+        <v>2588</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582" t="s">
+        <v>66</v>
+      </c>
+      <c r="G582">
+        <v>3</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
       <c r="I582">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32110,7 +33342,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="9:11">
+    <row r="583" spans="1:11">
+      <c r="A583" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583">
+        <v>7</v>
+      </c>
+      <c r="D583">
+        <v>2248</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583" t="s">
+        <v>249</v>
+      </c>
+      <c r="G583">
+        <v>2</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
       <c r="I583">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32124,7 +33380,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="9:11">
+    <row r="584" spans="1:11">
+      <c r="A584" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B584" t="s">
+        <v>9</v>
+      </c>
+      <c r="C584">
+        <v>7</v>
+      </c>
       <c r="I584">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32138,7 +33403,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="9:11">
+    <row r="585" spans="1:11">
+      <c r="A585" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B585" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585">
+        <v>7</v>
+      </c>
       <c r="I585">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32152,7 +33426,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="9:11">
+    <row r="586" spans="1:11">
+      <c r="A586" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B586" t="s">
+        <v>9</v>
+      </c>
+      <c r="C586">
+        <v>7</v>
+      </c>
       <c r="I586">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32166,7 +33449,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="9:11">
+    <row r="587" spans="1:11">
+      <c r="A587" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587">
+        <v>7</v>
+      </c>
       <c r="I587">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32180,7 +33472,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="9:11">
+    <row r="588" spans="1:11">
+      <c r="A588" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588">
+        <v>7</v>
+      </c>
       <c r="I588">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32194,7 +33495,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="9:11">
+    <row r="589" spans="1:11">
+      <c r="A589" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B589" t="s">
+        <v>9</v>
+      </c>
+      <c r="C589">
+        <v>7</v>
+      </c>
       <c r="I589">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32208,7 +33518,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="9:11">
+    <row r="590" spans="1:11">
+      <c r="A590" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B590" t="s">
+        <v>9</v>
+      </c>
+      <c r="C590">
+        <v>7</v>
+      </c>
       <c r="I590">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32222,7 +33541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="9:11">
+    <row r="591" spans="1:11">
       <c r="I591">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -32236,7 +33555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="9:11">
+    <row r="592" spans="1:11">
       <c r="I592">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -34295,6 +35614,14 @@
       </c>
     </row>
     <row r="739" spans="1:11">
+      <c r="A739" s="6"/>
+      <c r="B739" s="6"/>
+      <c r="C739" s="6"/>
+      <c r="D739" s="6"/>
+      <c r="E739" s="6"/>
+      <c r="F739" s="6"/>
+      <c r="G739" s="6"/>
+      <c r="H739" s="6"/>
       <c r="I739">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -34304,70 +35631,6 @@
         <v>0</v>
       </c>
       <c r="K739" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:11">
-      <c r="I740">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J740" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K740" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="1:11">
-      <c r="I741">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J741" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K741" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="1:11">
-      <c r="I742">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J742" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K742" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:11">
-      <c r="A743" s="6"/>
-      <c r="B743" s="6"/>
-      <c r="C743" s="6"/>
-      <c r="D743" s="6"/>
-      <c r="E743" s="6"/>
-      <c r="F743" s="6"/>
-      <c r="G743" s="6"/>
-      <c r="H743" s="6"/>
-      <c r="I743">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J743" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K743" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
         <v>0</v>
       </c>
@@ -34438,7 +35701,7 @@
       </c>
       <c r="D3">
         <f>'EXP lvls'!O10/Summary!C3</f>
-        <v>10.685009981583352</v>
+        <v>5.0327945565428829</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1">
@@ -39623,10 +40886,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39798,6 +41061,28 @@
       </c>
       <c r="F9" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -15,16 +15,17 @@
     <sheet name="TabPrz" sheetId="5" r:id="rId6"/>
     <sheet name="Runes to mobs" sheetId="7" r:id="rId7"/>
     <sheet name="Runes" sheetId="8" r:id="rId8"/>
+    <sheet name="Fusion" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId9"/>
+    <pivotCache cacheId="52" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="305">
   <si>
     <t>Star</t>
   </si>
@@ -784,6 +785,162 @@
   <si>
     <t>Hero</t>
   </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Golem(water)</t>
+  </si>
+  <si>
+    <t>M.Archer(fire)</t>
+  </si>
+  <si>
+    <t>Werewolf(fire)</t>
+  </si>
+  <si>
+    <t>Howl(wind)</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>Inugami(water)</t>
+  </si>
+  <si>
+    <t>Griffon(water)</t>
+  </si>
+  <si>
+    <t>Bearman(wind)</t>
+  </si>
+  <si>
+    <t>Yeti(fire)</t>
+  </si>
+  <si>
+    <t>9-tailed Fox</t>
+  </si>
+  <si>
+    <t>Harpy(wind)</t>
+  </si>
+  <si>
+    <t>Amazon(wind)</t>
+  </si>
+  <si>
+    <t>High Elem(fire)</t>
+  </si>
+  <si>
+    <t>Garuda(water)</t>
+  </si>
+  <si>
+    <t>Toget</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>M.Cat (water)</t>
+  </si>
+  <si>
+    <t>Shop/SD</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Veromos</t>
+  </si>
+  <si>
+    <t>Sylph</t>
+  </si>
+  <si>
+    <t>Undine</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>Bearman(water)</t>
+  </si>
+  <si>
+    <t>G.reapen(water)</t>
+  </si>
+  <si>
+    <t>Inferno(wind)</t>
+  </si>
+  <si>
+    <t>Imp(fire)</t>
+  </si>
+  <si>
+    <t>Beast Hunter(fire)</t>
+  </si>
+  <si>
+    <t>Salamander(fire)</t>
+  </si>
+  <si>
+    <t>Harpy(water)</t>
+  </si>
+  <si>
+    <t>Harpu(wind)</t>
+  </si>
+  <si>
+    <t>Lizardman(wind)</t>
+  </si>
+  <si>
+    <t>Minotaur(wind)</t>
+  </si>
+  <si>
+    <t>L.Armor(fire)</t>
+  </si>
+  <si>
+    <t>Pixie(water)</t>
+  </si>
+  <si>
+    <t>Yeti(dark)</t>
+  </si>
+  <si>
+    <t>Serpent(fire)</t>
+  </si>
+  <si>
+    <t>M.Cat(fire)</t>
+  </si>
+  <si>
+    <t>M.Archer(water)</t>
+  </si>
+  <si>
+    <t>Salamander(wind)</t>
+  </si>
+  <si>
+    <t>SD/Shop</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>17.18</t>
+  </si>
+  <si>
+    <t>17.55</t>
+  </si>
+  <si>
+    <t>18.37</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>19.23</t>
+  </si>
+  <si>
+    <t>Time sec</t>
+  </si>
 </sst>
 </file>
 
@@ -837,7 +994,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,8 +1019,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1038,11 +1201,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1130,6 +1330,43 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -9421,7 +9658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9538,7 +9775,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9793,10 +10030,11 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="LocFeatures" displayName="LocFeatures" ref="A1:V115" totalsRowShown="0">
   <autoFilter ref="A1:V115">
-    <filterColumn colId="11"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Faimon"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Location"/>
@@ -9836,10 +10074,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DropAnalityka" displayName="DropAnalityka" ref="A1:M739" totalsRowShown="0">
-  <autoFilter ref="A1:M739">
-    <filterColumn colId="7"/>
-    <filterColumn colId="10"/>
-  </autoFilter>
+  <autoFilter ref="A1:M739"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="LVL"/>
@@ -10188,7 +10423,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10357,16 +10592,16 @@
       </c>
       <c r="M3">
         <f>5-N3</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s">
         <v>13</v>
@@ -10433,14 +10668,14 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1">
         <f>M4*$B$5</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" t="s">
         <v>13</v>
@@ -10504,14 +10739,14 @@
       </c>
       <c r="M5">
         <f>MAXA(4*M3-Tabela6[[#This Row],[Done]],0)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s">
         <v>13</v>
@@ -10574,18 +10809,18 @@
         <v>86</v>
       </c>
       <c r="M6">
-        <f>MAXA(M5-Tabela6[[#This Row],[Done]],0)</f>
-        <v>12</v>
+        <f>MAXA(M5+M4-Tabela6[[#This Row],[Done]],0)</f>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <f>M6*$B$4</f>
-        <v>986184</v>
+        <v>410910</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R6" t="s">
         <v>28</v>
@@ -10648,15 +10883,15 @@
         <v>87</v>
       </c>
       <c r="M7">
-        <f>MAXA(3*(M5+M4)-Tabela6[[#This Row],[Done]],0)</f>
-        <v>40</v>
+        <f>3*(M5+M4)-Tabela6[[#This Row],[Done]]</f>
+        <v>8</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R7" t="s">
         <v>28</v>
@@ -10714,17 +10949,17 @@
       </c>
       <c r="M8">
         <f>MAXA(M7+M6-Tabela6[[#This Row],[Done]],0)</f>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <f>M8*$B$3</f>
-        <v>1253770</v>
+        <v>465686</v>
       </c>
       <c r="P8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
         <v>29</v>
@@ -10781,15 +11016,15 @@
         <v>144</v>
       </c>
       <c r="M9" s="6">
-        <f>MAXA(2*(M7+M6)-Tabela6[[#This Row],[Done]],0)</f>
-        <v>95</v>
+        <f>2*(M7+M6)-Tabela6[[#This Row],[Done]]</f>
+        <v>-3</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O9" s="45"/>
       <c r="P9">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -10819,14 +11054,14 @@
       </c>
       <c r="M10">
         <f>MAXA((M9+M8)-Tabela6[[#This Row],[Done]],0)</f>
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" s="52">
         <f>Tabela6[[#This Row],[Missing]]*$B$2</f>
-        <v>1965600</v>
+        <v>151200</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -10859,10 +11094,10 @@
       </c>
       <c r="M11" s="6">
         <f>MAXA(2*M10-Tabela6[[#This Row],[Done]],0)</f>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O11" s="45"/>
       <c r="P11">
@@ -10896,7 +11131,7 @@
       </c>
       <c r="O12" s="44">
         <f>SUM(Tabela6[XP to gain])</f>
-        <v>4205554</v>
+        <v>1027796</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -11064,7 +11299,7 @@
         <v>88</v>
       </c>
       <c r="M17">
-        <f>4-Tabela66[[#This Row],[Done]]</f>
+        <f>MAXA(4-Tabela66[[#This Row],[Done]],0)</f>
         <v>4</v>
       </c>
       <c r="N17">
@@ -11102,7 +11337,7 @@
         <v>86</v>
       </c>
       <c r="M18">
-        <f>M17-Tabela66[[#This Row],[Done]]</f>
+        <f>MAXA(M17-Tabela66[[#This Row],[Done]],0)</f>
         <v>4</v>
       </c>
       <c r="N18">
@@ -11170,7 +11405,7 @@
         <v>141</v>
       </c>
       <c r="M20">
-        <f>M19+M18-Tabela66[[#This Row],[Done]]</f>
+        <f>MAXA(M19+M18-Tabela66[[#This Row],[Done]],0)</f>
         <v>16</v>
       </c>
       <c r="N20">
@@ -11232,7 +11467,7 @@
         <v>193</v>
       </c>
       <c r="M22">
-        <f>(M21+M20)-Tabela66[[#This Row],[Done]]</f>
+        <f>MAXA((M21+M20)-Tabela66[[#This Row],[Done]],0)</f>
         <v>48</v>
       </c>
       <c r="N22">
@@ -11263,7 +11498,7 @@
         <v>194</v>
       </c>
       <c r="M23" s="6">
-        <f>2*M22-Tabela66[[#This Row],[Done]]</f>
+        <f>MAXA(2*M22-Tabela66[[#This Row],[Done]],0)</f>
         <v>96</v>
       </c>
       <c r="N23">
@@ -11502,7 +11737,7 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11588,7 +11823,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" hidden="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11646,7 +11881,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" hidden="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -11681,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" hidden="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11739,7 +11974,7 @@
         <v>1396.9213483146066</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" hidden="1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11774,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" hidden="1">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -11817,7 +12052,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" hidden="1">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -11860,7 +12095,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1">
+    <row r="8" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -11991,7 +12226,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -12037,7 +12272,7 @@
       </c>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:22" s="10" customFormat="1">
+    <row r="11" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -12086,7 +12321,7 @@
       </c>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:22" s="10" customFormat="1">
+    <row r="12" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -12155,7 +12390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="10" customFormat="1">
+    <row r="13" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -12208,7 +12443,7 @@
       </c>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:22" s="10" customFormat="1">
+    <row r="14" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
@@ -12260,7 +12495,7 @@
       </c>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:22" s="10" customFormat="1">
+    <row r="15" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -12321,7 +12556,7 @@
       </c>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:22" s="10" customFormat="1">
+    <row r="16" spans="1:22" s="10" customFormat="1" hidden="1">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -12374,7 +12609,7 @@
       </c>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:20" s="10" customFormat="1">
+    <row r="17" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
@@ -12445,15 +12680,15 @@
         <v>5581.1860465116279</v>
       </c>
       <c r="J18" s="56">
-        <f>J9</f>
-        <v>0.87654320987654322</v>
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A18,DropAnalityka[LVL],'Location features'!$B18,DropAnalityka[Stage],'Location features'!$C18)</f>
+        <v>0.79069767441860461</v>
       </c>
       <c r="K18" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>5104</v>
       </c>
       <c r="L18" s="10">
-        <f>3*E18</f>
+        <f t="shared" ref="L18:L24" si="1">3*E18</f>
         <v>3828</v>
       </c>
       <c r="M18" s="58">
@@ -12462,15 +12697,15 @@
       </c>
       <c r="N18" s="57">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1786.8619358396911</v>
+        <v>1739.0652173913045</v>
       </c>
       <c r="O18" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1225.5652173913043</v>
+        <v>1192.7826086956522</v>
       </c>
       <c r="P18" s="57">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>2547.0289548671753</v>
+        <v>2478.898550724638</v>
       </c>
       <c r="S18">
         <v>122</v>
@@ -12511,7 +12746,7 @@
         <v>8100</v>
       </c>
       <c r="L19" s="10">
-        <f>3*E19</f>
+        <f t="shared" si="1"/>
         <v>6075</v>
       </c>
       <c r="M19" s="53"/>
@@ -12531,7 +12766,7 @@
       <c r="R19" s="10"/>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" hidden="1">
       <c r="A20" s="10" t="s">
         <v>166</v>
       </c>
@@ -12563,7 +12798,7 @@
         <v>1960</v>
       </c>
       <c r="L20" s="10">
-        <f>3*E20</f>
+        <f t="shared" si="1"/>
         <v>1176</v>
       </c>
       <c r="M20" s="58">
@@ -12585,7 +12820,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" hidden="1">
       <c r="A21" s="10" t="s">
         <v>204</v>
       </c>
@@ -12617,7 +12852,7 @@
         <v>3025</v>
       </c>
       <c r="L21" s="10">
-        <f>3*E21</f>
+        <f t="shared" si="1"/>
         <v>1815</v>
       </c>
       <c r="M21" s="58">
@@ -12639,7 +12874,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" hidden="1">
       <c r="A22" s="10" t="s">
         <v>204</v>
       </c>
@@ -12671,7 +12906,7 @@
         <v>3800</v>
       </c>
       <c r="L22" s="10">
-        <f>3*E22</f>
+        <f t="shared" si="1"/>
         <v>2280</v>
       </c>
       <c r="M22" s="58">
@@ -12693,7 +12928,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" hidden="1">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -12723,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="10">
-        <f>3*E23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="58">
@@ -12745,7 +12980,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" hidden="1">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -12771,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="10">
-        <f>3*E24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="58" t="e">
@@ -12794,14 +13029,58 @@
       <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="I25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="O25" s="54" t="e">
+      <c r="A25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="10">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1276</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A25,DropAnalityka[LVL],'Location features'!B25,DropAnalityka[Stage],'Location features'!C25)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A25,DropAnalityka[LVL],'Location features'!B25,DropAnalityka[Stage],'Location features'!C25)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A25,DropAnalityka[LVL],'Location features'!B25,DropAnalityka[Stage],'Location features'!C25)</f>
+        <v>5208.4385080645161</v>
+      </c>
+      <c r="J25" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A25,DropAnalityka[LVL],'Location features'!$B25,DropAnalityka[Stage],'Location features'!$C25)</f>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="K25" s="10">
+        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>5104</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" ref="L25" si="2">3*E25</f>
+        <v>3828</v>
+      </c>
+      <c r="M25" s="58">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A25,DropAnalityka[LVL],'Location features'!$B25,DropAnalityka[Stage],'Location features'!$C25)</f>
+        <v>1890</v>
+      </c>
+      <c r="N25" s="57">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1717.6765292553191</v>
+      </c>
+      <c r="O25" s="57">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>1262.4255319148936</v>
+      </c>
+      <c r="P25" s="57">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1885.7234042553191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1">
       <c r="I26" s="49"/>
       <c r="M26" s="49"/>
       <c r="O26" s="54" t="e">
@@ -12809,7 +13088,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" hidden="1">
       <c r="I27" s="49"/>
       <c r="M27" s="49"/>
       <c r="O27" s="54" t="e">
@@ -12817,7 +13096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" hidden="1">
       <c r="I28" s="49"/>
       <c r="M28" s="49"/>
       <c r="O28" s="54" t="e">
@@ -12825,7 +13104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" hidden="1">
       <c r="I29" s="49"/>
       <c r="M29" s="49"/>
       <c r="O29" s="54" t="e">
@@ -12833,7 +13112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" hidden="1">
       <c r="I30" s="49"/>
       <c r="M30" s="49"/>
       <c r="O30" s="54" t="e">
@@ -12841,7 +13120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" hidden="1">
       <c r="I31" s="49"/>
       <c r="M31" s="49"/>
       <c r="O31" s="54" t="e">
@@ -12849,7 +13128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" hidden="1">
       <c r="I32" s="49"/>
       <c r="M32" s="49"/>
       <c r="O32" s="54" t="e">
@@ -12857,7 +13136,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="9:15">
+    <row r="33" spans="9:15" hidden="1">
       <c r="I33" s="49"/>
       <c r="M33" s="49"/>
       <c r="O33" s="54" t="e">
@@ -12865,7 +13144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="9:15">
+    <row r="34" spans="9:15" hidden="1">
       <c r="I34" s="49"/>
       <c r="M34" s="49"/>
       <c r="O34" s="54" t="e">
@@ -12873,7 +13152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="9:15">
+    <row r="35" spans="9:15" hidden="1">
       <c r="I35" s="49"/>
       <c r="M35" s="49"/>
       <c r="O35" s="54" t="e">
@@ -12881,7 +13160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="9:15">
+    <row r="36" spans="9:15" hidden="1">
       <c r="I36" s="49"/>
       <c r="M36" s="49"/>
       <c r="O36" s="54" t="e">
@@ -12889,7 +13168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="9:15">
+    <row r="37" spans="9:15" hidden="1">
       <c r="I37" s="49"/>
       <c r="M37" s="49"/>
       <c r="O37" s="54" t="e">
@@ -12897,7 +13176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="9:15">
+    <row r="38" spans="9:15" hidden="1">
       <c r="I38" s="49"/>
       <c r="M38" s="49"/>
       <c r="O38" s="54" t="e">
@@ -12905,7 +13184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="9:15">
+    <row r="39" spans="9:15" hidden="1">
       <c r="I39" s="49"/>
       <c r="M39" s="49"/>
       <c r="O39" s="54" t="e">
@@ -12913,7 +13192,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="9:15">
+    <row r="40" spans="9:15" hidden="1">
       <c r="I40" s="49"/>
       <c r="M40" s="49"/>
       <c r="O40" s="54" t="e">
@@ -12921,7 +13200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="9:15">
+    <row r="41" spans="9:15" hidden="1">
       <c r="I41" s="49"/>
       <c r="M41" s="49"/>
       <c r="O41" s="54" t="e">
@@ -12929,7 +13208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="9:15">
+    <row r="42" spans="9:15" hidden="1">
       <c r="I42" s="49"/>
       <c r="M42" s="49"/>
       <c r="O42" s="54" t="e">
@@ -12937,7 +13216,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="9:15">
+    <row r="43" spans="9:15" hidden="1">
       <c r="I43" s="49"/>
       <c r="M43" s="49"/>
       <c r="O43" s="54" t="e">
@@ -12945,7 +13224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="9:15">
+    <row r="44" spans="9:15" hidden="1">
       <c r="I44" s="49"/>
       <c r="M44" s="49"/>
       <c r="O44" s="54" t="e">
@@ -12953,7 +13232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="9:15">
+    <row r="45" spans="9:15" hidden="1">
       <c r="I45" s="49"/>
       <c r="M45" s="49"/>
       <c r="O45" s="54" t="e">
@@ -12961,7 +13240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="9:15">
+    <row r="46" spans="9:15" hidden="1">
       <c r="I46" s="49"/>
       <c r="M46" s="49"/>
       <c r="O46" s="54" t="e">
@@ -12969,7 +13248,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="9:15">
+    <row r="47" spans="9:15" hidden="1">
       <c r="I47" s="49"/>
       <c r="M47" s="49"/>
       <c r="O47" s="54" t="e">
@@ -12977,7 +13256,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="9:15">
+    <row r="48" spans="9:15" hidden="1">
       <c r="I48" s="49"/>
       <c r="M48" s="49"/>
       <c r="O48" s="54" t="e">
@@ -12985,7 +13264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="9:15">
+    <row r="49" spans="9:15" hidden="1">
       <c r="I49" s="49"/>
       <c r="M49" s="49"/>
       <c r="O49" s="54" t="e">
@@ -12993,7 +13272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="9:15">
+    <row r="50" spans="9:15" hidden="1">
       <c r="I50" s="49"/>
       <c r="M50" s="49"/>
       <c r="O50" s="54" t="e">
@@ -13001,7 +13280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="9:15">
+    <row r="51" spans="9:15" hidden="1">
       <c r="I51" s="49"/>
       <c r="M51" s="49"/>
       <c r="O51" s="54" t="e">
@@ -13009,7 +13288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="9:15">
+    <row r="52" spans="9:15" hidden="1">
       <c r="I52" s="49"/>
       <c r="M52" s="49"/>
       <c r="O52" s="54" t="e">
@@ -13017,7 +13296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="9:15">
+    <row r="53" spans="9:15" hidden="1">
       <c r="I53" s="49"/>
       <c r="M53" s="49"/>
       <c r="O53" s="54" t="e">
@@ -13025,7 +13304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="9:15">
+    <row r="54" spans="9:15" hidden="1">
       <c r="I54" s="49"/>
       <c r="M54" s="49"/>
       <c r="O54" s="54" t="e">
@@ -13033,7 +13312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="9:15">
+    <row r="55" spans="9:15" hidden="1">
       <c r="I55" s="49"/>
       <c r="M55" s="49"/>
       <c r="O55" s="54" t="e">
@@ -13041,7 +13320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="9:15">
+    <row r="56" spans="9:15" hidden="1">
       <c r="I56" s="49"/>
       <c r="M56" s="49"/>
       <c r="O56" s="54" t="e">
@@ -13049,7 +13328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="9:15">
+    <row r="57" spans="9:15" hidden="1">
       <c r="I57" s="49"/>
       <c r="M57" s="49"/>
       <c r="O57" s="54" t="e">
@@ -13057,7 +13336,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="9:15">
+    <row r="58" spans="9:15" hidden="1">
       <c r="I58" s="49"/>
       <c r="M58" s="49"/>
       <c r="O58" s="54" t="e">
@@ -13065,7 +13344,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="9:15">
+    <row r="59" spans="9:15" hidden="1">
       <c r="I59" s="49"/>
       <c r="M59" s="49"/>
       <c r="O59" s="54" t="e">
@@ -13073,7 +13352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="9:15">
+    <row r="60" spans="9:15" hidden="1">
       <c r="I60" s="49"/>
       <c r="M60" s="49"/>
       <c r="O60" s="54" t="e">
@@ -13081,7 +13360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="9:15">
+    <row r="61" spans="9:15" hidden="1">
       <c r="I61" s="49"/>
       <c r="M61" s="49"/>
       <c r="O61" s="54" t="e">
@@ -13089,7 +13368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="9:15">
+    <row r="62" spans="9:15" hidden="1">
       <c r="I62" s="49"/>
       <c r="M62" s="49"/>
       <c r="O62" s="54" t="e">
@@ -13097,7 +13376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="9:15">
+    <row r="63" spans="9:15" hidden="1">
       <c r="I63" s="49"/>
       <c r="M63" s="49"/>
       <c r="O63" s="54" t="e">
@@ -13105,7 +13384,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="9:15">
+    <row r="64" spans="9:15" hidden="1">
       <c r="I64" s="49"/>
       <c r="M64" s="49"/>
       <c r="O64" s="54" t="e">
@@ -13113,7 +13392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="9:15">
+    <row r="65" spans="9:15" hidden="1">
       <c r="I65" s="49"/>
       <c r="M65" s="49"/>
       <c r="O65" s="54" t="e">
@@ -13121,7 +13400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="9:15">
+    <row r="66" spans="9:15" hidden="1">
       <c r="I66" s="49"/>
       <c r="M66" s="49"/>
       <c r="O66" s="54" t="e">
@@ -13129,7 +13408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="9:15">
+    <row r="67" spans="9:15" hidden="1">
       <c r="I67" s="49"/>
       <c r="M67" s="49"/>
       <c r="O67" s="54" t="e">
@@ -13137,7 +13416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="9:15">
+    <row r="68" spans="9:15" hidden="1">
       <c r="I68" s="49"/>
       <c r="M68" s="49"/>
       <c r="O68" s="54" t="e">
@@ -13145,7 +13424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="9:15">
+    <row r="69" spans="9:15" hidden="1">
       <c r="I69" s="49"/>
       <c r="M69" s="49"/>
       <c r="O69" s="54" t="e">
@@ -13153,7 +13432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="9:15">
+    <row r="70" spans="9:15" hidden="1">
       <c r="I70" s="49"/>
       <c r="M70" s="49"/>
       <c r="O70" s="54" t="e">
@@ -13161,7 +13440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="9:15">
+    <row r="71" spans="9:15" hidden="1">
       <c r="I71" s="49"/>
       <c r="M71" s="49"/>
       <c r="O71" s="54" t="e">
@@ -13169,7 +13448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="9:15">
+    <row r="72" spans="9:15" hidden="1">
       <c r="I72" s="49"/>
       <c r="M72" s="49"/>
       <c r="O72" s="54" t="e">
@@ -13177,7 +13456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="9:15">
+    <row r="73" spans="9:15" hidden="1">
       <c r="I73" s="49"/>
       <c r="M73" s="49"/>
       <c r="O73" s="54" t="e">
@@ -13185,7 +13464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="9:15">
+    <row r="74" spans="9:15" hidden="1">
       <c r="I74" s="49"/>
       <c r="M74" s="49"/>
       <c r="O74" s="54" t="e">
@@ -13193,7 +13472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="9:15">
+    <row r="75" spans="9:15" hidden="1">
       <c r="I75" s="49"/>
       <c r="M75" s="49"/>
       <c r="O75" s="54" t="e">
@@ -13201,7 +13480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="9:15">
+    <row r="76" spans="9:15" hidden="1">
       <c r="I76" s="49"/>
       <c r="M76" s="49"/>
       <c r="O76" s="54" t="e">
@@ -13209,7 +13488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="9:15">
+    <row r="77" spans="9:15" hidden="1">
       <c r="I77" s="49"/>
       <c r="M77" s="49"/>
       <c r="O77" s="54" t="e">
@@ -13217,7 +13496,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="9:15">
+    <row r="78" spans="9:15" hidden="1">
       <c r="I78" s="49"/>
       <c r="M78" s="49"/>
       <c r="O78" s="54" t="e">
@@ -13225,7 +13504,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="9:15">
+    <row r="79" spans="9:15" hidden="1">
       <c r="I79" s="49"/>
       <c r="M79" s="49"/>
       <c r="O79" s="54" t="e">
@@ -13233,7 +13512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="9:15">
+    <row r="80" spans="9:15" hidden="1">
       <c r="I80" s="49"/>
       <c r="M80" s="49"/>
       <c r="O80" s="54" t="e">
@@ -13241,7 +13520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="9:15">
+    <row r="81" spans="9:15" hidden="1">
       <c r="I81" s="49"/>
       <c r="M81" s="49"/>
       <c r="O81" s="54" t="e">
@@ -13249,7 +13528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="9:15">
+    <row r="82" spans="9:15" hidden="1">
       <c r="I82" s="49"/>
       <c r="M82" s="49"/>
       <c r="O82" s="54" t="e">
@@ -13257,7 +13536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="9:15">
+    <row r="83" spans="9:15" hidden="1">
       <c r="I83" s="49"/>
       <c r="M83" s="49"/>
       <c r="O83" s="54" t="e">
@@ -13265,7 +13544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="9:15">
+    <row r="84" spans="9:15" hidden="1">
       <c r="I84" s="49"/>
       <c r="M84" s="49"/>
       <c r="O84" s="54" t="e">
@@ -13273,7 +13552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="9:15">
+    <row r="85" spans="9:15" hidden="1">
       <c r="I85" s="49"/>
       <c r="M85" s="49"/>
       <c r="O85" s="54" t="e">
@@ -13281,7 +13560,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="9:15">
+    <row r="86" spans="9:15" hidden="1">
       <c r="I86" s="49"/>
       <c r="M86" s="49"/>
       <c r="O86" s="54" t="e">
@@ -13289,7 +13568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="9:15">
+    <row r="87" spans="9:15" hidden="1">
       <c r="I87" s="49"/>
       <c r="M87" s="49"/>
       <c r="O87" s="54" t="e">
@@ -13297,7 +13576,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="9:15">
+    <row r="88" spans="9:15" hidden="1">
       <c r="I88" s="49"/>
       <c r="M88" s="49"/>
       <c r="O88" s="54" t="e">
@@ -13305,7 +13584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="9:15">
+    <row r="89" spans="9:15" hidden="1">
       <c r="I89" s="49"/>
       <c r="M89" s="49"/>
       <c r="O89" s="54" t="e">
@@ -13313,7 +13592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="9:15">
+    <row r="90" spans="9:15" hidden="1">
       <c r="I90" s="49"/>
       <c r="M90" s="49"/>
       <c r="O90" s="54" t="e">
@@ -13321,7 +13600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="9:15">
+    <row r="91" spans="9:15" hidden="1">
       <c r="I91" s="49"/>
       <c r="M91" s="49"/>
       <c r="O91" s="54" t="e">
@@ -13329,7 +13608,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="9:15">
+    <row r="92" spans="9:15" hidden="1">
       <c r="I92" s="49"/>
       <c r="M92" s="49"/>
       <c r="O92" s="54" t="e">
@@ -13337,7 +13616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="9:15">
+    <row r="93" spans="9:15" hidden="1">
       <c r="I93" s="49"/>
       <c r="M93" s="49"/>
       <c r="O93" s="54" t="e">
@@ -13345,7 +13624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="9:15">
+    <row r="94" spans="9:15" hidden="1">
       <c r="I94" s="49"/>
       <c r="M94" s="49"/>
       <c r="O94" s="54" t="e">
@@ -13353,7 +13632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="9:15">
+    <row r="95" spans="9:15" hidden="1">
       <c r="I95" s="49"/>
       <c r="M95" s="49"/>
       <c r="O95" s="54" t="e">
@@ -13361,7 +13640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="9:15">
+    <row r="96" spans="9:15" hidden="1">
       <c r="I96" s="49"/>
       <c r="M96" s="49"/>
       <c r="O96" s="54" t="e">
@@ -13369,7 +13648,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="9:15">
+    <row r="97" spans="9:15" hidden="1">
       <c r="I97" s="49"/>
       <c r="M97" s="49"/>
       <c r="O97" s="54" t="e">
@@ -13377,7 +13656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="9:15">
+    <row r="98" spans="9:15" hidden="1">
       <c r="I98" s="49"/>
       <c r="M98" s="49"/>
       <c r="O98" s="54" t="e">
@@ -13385,7 +13664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="9:15">
+    <row r="99" spans="9:15" hidden="1">
       <c r="I99" s="49"/>
       <c r="M99" s="49"/>
       <c r="O99" s="54" t="e">
@@ -13393,7 +13672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="9:15">
+    <row r="100" spans="9:15" hidden="1">
       <c r="I100" s="49"/>
       <c r="M100" s="49"/>
       <c r="O100" s="54" t="e">
@@ -13401,7 +13680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="9:15">
+    <row r="101" spans="9:15" hidden="1">
       <c r="I101" s="49"/>
       <c r="M101" s="49"/>
       <c r="O101" s="54" t="e">
@@ -13409,7 +13688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="9:15">
+    <row r="102" spans="9:15" hidden="1">
       <c r="I102" s="49"/>
       <c r="M102" s="49"/>
       <c r="O102" s="54" t="e">
@@ -13417,7 +13696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="9:15">
+    <row r="103" spans="9:15" hidden="1">
       <c r="I103" s="49"/>
       <c r="M103" s="49"/>
       <c r="O103" s="54" t="e">
@@ -13425,7 +13704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="9:15">
+    <row r="104" spans="9:15" hidden="1">
       <c r="I104" s="49"/>
       <c r="M104" s="49"/>
       <c r="O104" s="54" t="e">
@@ -13433,7 +13712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="9:15">
+    <row r="105" spans="9:15" hidden="1">
       <c r="I105" s="49"/>
       <c r="M105" s="49"/>
       <c r="O105" s="54" t="e">
@@ -13441,7 +13720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="9:15">
+    <row r="106" spans="9:15" hidden="1">
       <c r="I106" s="49"/>
       <c r="M106" s="49"/>
       <c r="O106" s="54" t="e">
@@ -13449,7 +13728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="9:15">
+    <row r="107" spans="9:15" hidden="1">
       <c r="I107" s="49"/>
       <c r="M107" s="49"/>
       <c r="O107" s="54" t="e">
@@ -13457,7 +13736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="9:15">
+    <row r="108" spans="9:15" hidden="1">
       <c r="I108" s="49"/>
       <c r="M108" s="49"/>
       <c r="O108" s="54" t="e">
@@ -13465,7 +13744,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="9:15">
+    <row r="109" spans="9:15" hidden="1">
       <c r="I109" s="49"/>
       <c r="M109" s="49"/>
       <c r="O109" s="54" t="e">
@@ -13473,7 +13752,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="9:15">
+    <row r="110" spans="9:15" hidden="1">
       <c r="I110" s="49"/>
       <c r="M110" s="49"/>
       <c r="O110" s="54" t="e">
@@ -13481,7 +13760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="9:15">
+    <row r="111" spans="9:15" hidden="1">
       <c r="I111" s="49"/>
       <c r="M111" s="49"/>
       <c r="O111" s="54" t="e">
@@ -13489,7 +13768,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="9:15">
+    <row r="112" spans="9:15" hidden="1">
       <c r="I112" s="49"/>
       <c r="M112" s="49"/>
       <c r="O112" s="54" t="e">
@@ -13497,7 +13776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="9:15">
+    <row r="113" spans="9:15" hidden="1">
       <c r="I113" s="49"/>
       <c r="M113" s="49"/>
       <c r="O113" s="54" t="e">
@@ -13505,7 +13784,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="9:15">
+    <row r="114" spans="9:15" hidden="1">
       <c r="I114" s="49"/>
       <c r="M114" s="49"/>
       <c r="O114" s="54" t="e">
@@ -13513,7 +13792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="9:15">
+    <row r="115" spans="9:15" hidden="1">
       <c r="I115" s="49"/>
       <c r="M115" s="49"/>
       <c r="O115" s="54" t="e">
@@ -13534,8 +13813,8 @@
   <dimension ref="A1:M739"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A584" sqref="A584"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -33430,10 +33709,27 @@
       </c>
     </row>
     <row r="585" spans="1:12">
-      <c r="A585" s="10"/>
+      <c r="A585" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B585" t="s">
+        <v>32</v>
+      </c>
+      <c r="C585">
+        <v>8</v>
+      </c>
+      <c r="D585">
+        <v>707</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="I585">
+        <v>1824</v>
+      </c>
       <c r="J585">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K585" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33445,40 +33741,97 @@
       </c>
     </row>
     <row r="586" spans="1:12">
-      <c r="A586" s="10"/>
+      <c r="A586" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B586" t="s">
+        <v>32</v>
+      </c>
+      <c r="C586">
+        <v>8</v>
+      </c>
+      <c r="D586">
+        <v>1504</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>62</v>
+      </c>
+      <c r="G586" t="s">
+        <v>13</v>
+      </c>
       <c r="J586">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
       </c>
       <c r="K586" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="L586" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="587" spans="1:12">
-      <c r="A587" s="10"/>
+      <c r="A587" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B587" t="s">
+        <v>32</v>
+      </c>
+      <c r="C587">
+        <v>8</v>
+      </c>
+      <c r="D587">
+        <v>1442</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>62</v>
+      </c>
+      <c r="G587" t="s">
+        <v>13</v>
+      </c>
       <c r="J587">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
       </c>
       <c r="K587" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="L587" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="588" spans="1:12">
-      <c r="A588" s="10"/>
+      <c r="A588" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B588" t="s">
+        <v>32</v>
+      </c>
+      <c r="C588">
+        <v>8</v>
+      </c>
+      <c r="D588">
+        <v>1510</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="I588">
+        <v>1824</v>
+      </c>
       <c r="J588">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K588" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33490,10 +33843,30 @@
       </c>
     </row>
     <row r="589" spans="1:12">
-      <c r="A589" s="10"/>
+      <c r="A589" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B589" t="s">
+        <v>32</v>
+      </c>
+      <c r="C589">
+        <v>8</v>
+      </c>
+      <c r="D589">
+        <v>1606</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589" t="s">
+        <v>36</v>
+      </c>
+      <c r="G589">
+        <v>2</v>
+      </c>
       <c r="J589">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K589" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33505,10 +33878,30 @@
       </c>
     </row>
     <row r="590" spans="1:12">
-      <c r="A590" s="10"/>
+      <c r="A590" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B590" t="s">
+        <v>32</v>
+      </c>
+      <c r="C590">
+        <v>8</v>
+      </c>
+      <c r="D590">
+        <v>1532</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590" t="s">
+        <v>36</v>
+      </c>
+      <c r="G590">
+        <v>2</v>
+      </c>
       <c r="J590">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K590" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33520,9 +33913,27 @@
       </c>
     </row>
     <row r="591" spans="1:12">
+      <c r="A591" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B591" t="s">
+        <v>32</v>
+      </c>
+      <c r="C591">
+        <v>8</v>
+      </c>
+      <c r="D591">
+        <v>1918</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="I591">
+        <v>1824</v>
+      </c>
       <c r="J591">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K591" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33534,9 +33945,30 @@
       </c>
     </row>
     <row r="592" spans="1:12">
+      <c r="A592" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B592" t="s">
+        <v>32</v>
+      </c>
+      <c r="C592">
+        <v>8</v>
+      </c>
+      <c r="D592">
+        <v>2175</v>
+      </c>
+      <c r="E592">
+        <v>2</v>
+      </c>
+      <c r="F592" t="s">
+        <v>36</v>
+      </c>
+      <c r="G592">
+        <v>2</v>
+      </c>
       <c r="J592">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K592" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33547,10 +33979,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="10:12">
+    <row r="593" spans="1:12">
+      <c r="A593" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B593" t="s">
+        <v>32</v>
+      </c>
+      <c r="C593">
+        <v>8</v>
+      </c>
+      <c r="D593">
+        <v>1952</v>
+      </c>
+      <c r="E593">
+        <v>2</v>
+      </c>
+      <c r="I593">
+        <v>3182</v>
+      </c>
       <c r="J593">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>3182</v>
       </c>
       <c r="K593" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33561,10 +34011,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="10:12">
+    <row r="594" spans="1:12">
+      <c r="A594" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B594" t="s">
+        <v>32</v>
+      </c>
+      <c r="C594">
+        <v>8</v>
+      </c>
+      <c r="D594">
+        <v>2050</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="I594">
+        <v>3427</v>
+      </c>
       <c r="J594">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>3427</v>
       </c>
       <c r="K594" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33575,10 +34043,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="10:12">
+    <row r="595" spans="1:12">
+      <c r="A595" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B595" t="s">
+        <v>32</v>
+      </c>
+      <c r="C595">
+        <v>8</v>
+      </c>
+      <c r="D595">
+        <v>1235</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="I595">
+        <v>1824</v>
+      </c>
       <c r="J595">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K595" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33589,10 +34075,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="10:12">
+    <row r="596" spans="1:12">
+      <c r="A596" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B596" t="s">
+        <v>32</v>
+      </c>
+      <c r="C596">
+        <v>8</v>
+      </c>
+      <c r="D596">
+        <v>1960</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="I596">
+        <v>1824</v>
+      </c>
       <c r="J596">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K596" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33603,10 +34107,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="10:12">
+    <row r="597" spans="1:12">
+      <c r="A597" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B597" t="s">
+        <v>32</v>
+      </c>
+      <c r="C597">
+        <v>8</v>
+      </c>
+      <c r="D597">
+        <v>1632</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="I597">
+        <v>1824</v>
+      </c>
       <c r="J597">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K597" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33617,10 +34139,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="10:12">
+    <row r="598" spans="1:12">
+      <c r="A598" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B598" t="s">
+        <v>32</v>
+      </c>
+      <c r="C598">
+        <v>8</v>
+      </c>
+      <c r="D598">
+        <v>1128</v>
+      </c>
+      <c r="E598">
+        <v>0</v>
+      </c>
+      <c r="I598">
+        <v>1824</v>
+      </c>
       <c r="J598">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K598" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33631,10 +34171,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="10:12">
+    <row r="599" spans="1:12">
+      <c r="A599" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B599" t="s">
+        <v>32</v>
+      </c>
+      <c r="C599">
+        <v>8</v>
+      </c>
+      <c r="D599">
+        <v>1864</v>
+      </c>
+      <c r="E599">
+        <v>1</v>
+      </c>
+      <c r="F599" t="s">
+        <v>36</v>
+      </c>
+      <c r="G599">
+        <v>2</v>
+      </c>
       <c r="J599">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K599" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33645,10 +34206,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="10:12">
+    <row r="600" spans="1:12">
+      <c r="A600" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B600" t="s">
+        <v>32</v>
+      </c>
+      <c r="C600">
+        <v>8</v>
+      </c>
+      <c r="D600">
+        <v>1372</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="I600">
+        <v>2280</v>
+      </c>
       <c r="J600">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="K600" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33659,10 +34238,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="10:12">
+    <row r="601" spans="1:12">
+      <c r="A601" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B601" t="s">
+        <v>32</v>
+      </c>
+      <c r="C601">
+        <v>8</v>
+      </c>
+      <c r="D601">
+        <v>1560</v>
+      </c>
+      <c r="E601">
+        <v>3</v>
+      </c>
+      <c r="I601">
+        <v>1824</v>
+      </c>
       <c r="J601">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K601" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33673,10 +34270,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="10:12">
+    <row r="602" spans="1:12">
+      <c r="A602" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B602" t="s">
+        <v>32</v>
+      </c>
+      <c r="C602">
+        <v>8</v>
+      </c>
+      <c r="D602">
+        <v>971</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="I602">
+        <v>1824</v>
+      </c>
       <c r="J602">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K602" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33687,10 +34302,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="10:12">
+    <row r="603" spans="1:12">
+      <c r="A603" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B603" t="s">
+        <v>32</v>
+      </c>
+      <c r="C603">
+        <v>8</v>
+      </c>
+      <c r="D603">
+        <v>1750</v>
+      </c>
+      <c r="E603">
+        <v>2</v>
+      </c>
+      <c r="I603">
+        <v>2128</v>
+      </c>
       <c r="J603">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2128</v>
       </c>
       <c r="K603" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33701,24 +34334,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="10:12">
+    <row r="604" spans="1:12">
+      <c r="A604" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B604" t="s">
+        <v>32</v>
+      </c>
+      <c r="C604">
+        <v>8</v>
+      </c>
+      <c r="D604">
+        <v>586</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604" t="s">
+        <v>62</v>
+      </c>
+      <c r="G604" t="s">
+        <v>13</v>
+      </c>
       <c r="J604">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
       </c>
       <c r="K604" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="L604" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="10:12">
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12">
+      <c r="A605" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B605" t="s">
+        <v>32</v>
+      </c>
+      <c r="C605">
+        <v>8</v>
+      </c>
+      <c r="D605">
+        <v>1287</v>
+      </c>
+      <c r="E605">
+        <v>4</v>
+      </c>
+      <c r="F605" t="s">
+        <v>36</v>
+      </c>
+      <c r="G605">
+        <v>2</v>
+      </c>
       <c r="J605">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K605" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33729,10 +34404,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="10:12">
+    <row r="606" spans="1:12">
+      <c r="A606" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B606" t="s">
+        <v>32</v>
+      </c>
+      <c r="C606">
+        <v>8</v>
+      </c>
+      <c r="D606">
+        <v>1485</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606" t="s">
+        <v>36</v>
+      </c>
+      <c r="G606">
+        <v>2</v>
+      </c>
       <c r="J606">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K606" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33743,10 +34439,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="10:12">
+    <row r="607" spans="1:12">
+      <c r="A607" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B607" t="s">
+        <v>32</v>
+      </c>
+      <c r="C607">
+        <v>8</v>
+      </c>
+      <c r="D607">
+        <v>2328</v>
+      </c>
+      <c r="E607">
+        <v>2</v>
+      </c>
+      <c r="I607">
+        <v>1824</v>
+      </c>
       <c r="J607">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K607" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33757,10 +34471,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="10:12">
+    <row r="608" spans="1:12">
+      <c r="A608" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B608" t="s">
+        <v>32</v>
+      </c>
+      <c r="C608">
+        <v>8</v>
+      </c>
+      <c r="D608">
+        <v>1784</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608" t="s">
+        <v>36</v>
+      </c>
+      <c r="G608">
+        <v>2</v>
+      </c>
       <c r="J608">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K608" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33771,10 +34506,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="10:12">
+    <row r="609" spans="1:12">
+      <c r="A609" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B609" t="s">
+        <v>32</v>
+      </c>
+      <c r="C609">
+        <v>8</v>
+      </c>
+      <c r="D609">
+        <v>2122</v>
+      </c>
+      <c r="E609">
+        <v>2</v>
+      </c>
+      <c r="I609">
+        <v>1976</v>
+      </c>
       <c r="J609">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1976</v>
       </c>
       <c r="K609" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33785,10 +34538,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="10:12">
+    <row r="610" spans="1:12">
+      <c r="A610" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B610" t="s">
+        <v>32</v>
+      </c>
+      <c r="C610">
+        <v>8</v>
+      </c>
+      <c r="D610">
+        <v>1311</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+      <c r="I610">
+        <v>1824</v>
+      </c>
       <c r="J610">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K610" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33799,24 +34570,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="10:12">
+    <row r="611" spans="1:12">
+      <c r="A611" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B611" t="s">
+        <v>32</v>
+      </c>
+      <c r="C611">
+        <v>8</v>
+      </c>
+      <c r="D611">
+        <v>1185</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611" t="s">
+        <v>62</v>
+      </c>
+      <c r="G611" t="s">
+        <v>13</v>
+      </c>
       <c r="J611">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
       </c>
       <c r="K611" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="L611" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="10:12">
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12">
+      <c r="A612" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B612" t="s">
+        <v>32</v>
+      </c>
+      <c r="C612">
+        <v>8</v>
+      </c>
+      <c r="D612">
+        <v>1211</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="I612">
+        <v>2937</v>
+      </c>
       <c r="J612">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="K612" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33827,10 +34637,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="10:12">
+    <row r="613" spans="1:12">
+      <c r="A613" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B613" t="s">
+        <v>32</v>
+      </c>
+      <c r="C613">
+        <v>8</v>
+      </c>
+      <c r="D613">
+        <v>1078</v>
+      </c>
+      <c r="E613">
+        <v>1</v>
+      </c>
+      <c r="I613">
+        <v>1824</v>
+      </c>
       <c r="J613">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K613" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33841,10 +34669,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="10:12">
+    <row r="614" spans="1:12">
+      <c r="A614" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B614" t="s">
+        <v>32</v>
+      </c>
+      <c r="C614">
+        <v>8</v>
+      </c>
+      <c r="D614">
+        <v>1832</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="I614">
+        <v>1824</v>
+      </c>
       <c r="J614">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K614" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33855,10 +34701,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="10:12">
+    <row r="615" spans="1:12">
+      <c r="A615" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B615" t="s">
+        <v>32</v>
+      </c>
+      <c r="C615">
+        <v>8</v>
+      </c>
+      <c r="D615">
+        <v>1974</v>
+      </c>
+      <c r="E615">
+        <v>1</v>
+      </c>
+      <c r="I615">
+        <v>3427</v>
+      </c>
       <c r="J615">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>3427</v>
       </c>
       <c r="K615" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -33869,7 +34733,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="10:12">
+    <row r="616" spans="1:12">
+      <c r="A616" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B616" t="s">
+        <v>32</v>
+      </c>
+      <c r="C616">
+        <v>8</v>
+      </c>
       <c r="J616">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33883,7 +34756,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="10:12">
+    <row r="617" spans="1:12">
+      <c r="C617">
+        <v>8</v>
+      </c>
       <c r="J617">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33897,7 +34773,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="10:12">
+    <row r="618" spans="1:12">
+      <c r="C618">
+        <v>8</v>
+      </c>
       <c r="J618">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33911,7 +34790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="10:12">
+    <row r="619" spans="1:12">
+      <c r="C619">
+        <v>8</v>
+      </c>
       <c r="J619">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33925,7 +34807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="10:12">
+    <row r="620" spans="1:12">
+      <c r="C620">
+        <v>8</v>
+      </c>
       <c r="J620">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33939,7 +34824,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="10:12">
+    <row r="621" spans="1:12">
+      <c r="C621">
+        <v>8</v>
+      </c>
       <c r="J621">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33953,7 +34841,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="10:12">
+    <row r="622" spans="1:12">
+      <c r="C622">
+        <v>8</v>
+      </c>
       <c r="J622">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33967,7 +34858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="10:12">
+    <row r="623" spans="1:12">
+      <c r="C623">
+        <v>8</v>
+      </c>
       <c r="J623">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -33981,7 +34875,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="10:12">
+    <row r="624" spans="1:12">
+      <c r="C624">
+        <v>8</v>
+      </c>
       <c r="J624">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -35680,7 +36577,7 @@
       </c>
       <c r="D3">
         <f>'EXP lvls'!O10/Summary!C3</f>
-        <v>5.0327945565428829</v>
+        <v>0.38713804281099101</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1">
@@ -37201,11 +38098,11 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="22"/>
-        <v>865881.59326788213</v>
+        <v>842720.1514726507</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="23"/>
-        <v>631223.38901227282</v>
+        <v>614338.81276297336</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -37240,7 +38137,7 @@
       </c>
       <c r="N36">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I36,LocFeatures[[#All],[LVL]],Summary!$J36,LocFeatures[[#All],[Stage]],Summary!$K36)</f>
-        <v>0.87654320987654322</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="O36">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I36,LocFeatures[[#All],[LVL]],Summary!$J36,LocFeatures[[#All],[Stage]],Summary!$K36)</f>
@@ -37253,11 +38150,11 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="22"/>
-        <v>657219.23141654977</v>
+        <v>639639.29312762967</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="23"/>
-        <v>958219.12327093619</v>
+        <v>932587.74754558201</v>
       </c>
       <c r="D37">
         <v>90</v>
@@ -37295,7 +38192,7 @@
       </c>
       <c r="N37">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I37,LocFeatures[[#All],[LVL]],Summary!$J37,LocFeatures[[#All],[Stage]],Summary!$K37)</f>
-        <v>0.87654320987654322</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="O37">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I37,LocFeatures[[#All],[LVL]],Summary!$J37,LocFeatures[[#All],[Stage]],Summary!$K37)</f>
@@ -37308,11 +38205,11 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="22"/>
-        <v>876292.30855539965</v>
+        <v>852852.39083683956</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="23"/>
-        <v>958219.12327093619</v>
+        <v>932587.74754558201</v>
       </c>
       <c r="D38">
         <v>90</v>
@@ -37350,7 +38247,7 @@
       </c>
       <c r="N38">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I38,LocFeatures[[#All],[LVL]],Summary!$J38,LocFeatures[[#All],[Stage]],Summary!$K38)</f>
-        <v>0.87654320987654322</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="O38">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I38,LocFeatures[[#All],[LVL]],Summary!$J38,LocFeatures[[#All],[Stage]],Summary!$K38)</f>
@@ -37366,7 +38263,7 @@
       </c>
       <c r="R38">
         <f>P38*($O38-$N38)</f>
-        <v>92.167577413479052</v>
+        <v>94.700724361418224</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -37551,7 +38448,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -41413,4 +42310,513 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1"/>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1"/>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83"/>
+    </row>
+    <row r="10" spans="1:17" ht="15">
+      <c r="A10" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="N15" t="s">
+        <v>292</v>
+      </c>
+      <c r="P15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="N16" t="s">
+        <v>298</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17">
+      <c r="N17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17">
+      <c r="N18" t="s">
+        <v>300</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>2.5</v>
+      </c>
+      <c r="Q18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17">
+      <c r="N19" t="s">
+        <v>301</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17">
+      <c r="N20" t="s">
+        <v>303</v>
+      </c>
+      <c r="O20">
+        <v>9</v>
+      </c>
+      <c r="P20">
+        <v>3.5</v>
+      </c>
+      <c r="Q20">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="D9:P9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Summoners_wars.xlsx
+++ b/Summoners_wars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXP lvls" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId10"/>
+    <pivotCache cacheId="86" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="304">
   <si>
     <t>Star</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Comb/hour</t>
   </si>
   <si>
-    <t>MagicKnight+Ramagos</t>
-  </si>
-  <si>
     <t>TimeToComplete Sek2</t>
   </si>
   <si>
@@ -664,12 +661,6 @@
   </si>
   <si>
     <t>Exp Gain</t>
-  </si>
-  <si>
-    <t>MagicKnight</t>
-  </si>
-  <si>
-    <t>19.54.42</t>
   </si>
   <si>
     <t>XP drop</t>
@@ -940,6 +931,12 @@
   </si>
   <si>
     <t>Time sec</t>
+  </si>
+  <si>
+    <t>Próbka</t>
+  </si>
+  <si>
+    <t>Lapis</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1327,9 +1324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1371,7 +1366,13 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -9658,7 +9659,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9775,7 +9776,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9949,7 +9950,7 @@
     <dataField name="Licznik z Drop" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -9959,7 +9960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10007,7 +10008,7 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Missing"/>
     <tableColumn id="3" name="Done"/>
-    <tableColumn id="4" name="XP to gain" dataDxfId="9"/>
+    <tableColumn id="4" name="XP to gain" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10020,7 +10021,7 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Missing"/>
     <tableColumn id="3" name="Done"/>
-    <tableColumn id="4" name="XP to gain" dataDxfId="8"/>
+    <tableColumn id="4" name="XP to gain" dataDxfId="10"/>
     <tableColumn id="5" name="Kolumna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10028,14 +10029,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="LocFeatures" displayName="LocFeatures" ref="A1:V115" totalsRowShown="0">
-  <autoFilter ref="A1:V115">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Faimon"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela610" displayName="Tabela610" ref="L27:O36" totalsRowShown="0">
+  <autoFilter ref="L27:O36"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Kolumna1"/>
+    <tableColumn id="2" name="Missing"/>
+    <tableColumn id="3" name="Done"/>
+    <tableColumn id="4" name="XP to gain" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="LocFeatures" displayName="LocFeatures" ref="A1:V109" totalsRowShown="0">
+  <autoFilter ref="A1:V109">
+    <filterColumn colId="0"/>
   </autoFilter>
+  <sortState ref="A2:V109">
+    <sortCondition descending="1" ref="O2:O109"/>
+  </sortState>
   <tableColumns count="22">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="LVL"/>
@@ -10045,23 +10058,25 @@
     <tableColumn id="6" name="Mon nbr"/>
     <tableColumn id="7" name="Uwagi"/>
     <tableColumn id="8" name="Soloable"/>
-    <tableColumn id="9" name="Drop worth gain" dataDxfId="7">
+    <tableColumn id="9" name="Drop worth gain" dataDxfId="9">
       <calculatedColumnFormula>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Energy gain"/>
-    <tableColumn id="17" name="XP Total Gain" dataDxfId="6">
+    <tableColumn id="17" name="XP Total Gain" dataDxfId="8">
       <calculatedColumnFormula>4*LocFeatures[[#This Row],[XP Gain per member]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="XP Train Gain"/>
-    <tableColumn id="22" name="XP drop" dataDxfId="5">
+    <tableColumn id="22" name="XP drop" dataDxfId="7">
       <calculatedColumnFormula>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A2,DropAnalityka[LVL],'Location features'!$B2,DropAnalityka[Stage],'Location features'!$C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="DropWorthGain/Energy"/>
-    <tableColumn id="23" name="XP train/energy" dataDxfId="4">
+    <tableColumn id="23" name="XP train/energy" dataDxfId="6">
       <calculatedColumnFormula>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="XP/Energy"/>
-    <tableColumn id="15" name="Kolumna2"/>
+    <tableColumn id="15" name="Próbka" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="16" name="Kolumna3"/>
     <tableColumn id="18" name="TimeToComplete Sek"/>
     <tableColumn id="19" name="SetToComplete"/>
@@ -10072,7 +10087,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DropAnalityka" displayName="DropAnalityka" ref="A1:M739" totalsRowShown="0">
   <autoFilter ref="A1:M739"/>
   <tableColumns count="13">
@@ -10086,10 +10101,10 @@
     <tableColumn id="13" name="Grade"/>
     <tableColumn id="11" name="Sell Drop"/>
     <tableColumn id="7" name="Drop Worth"/>
-    <tableColumn id="12" name="Fod Worth" dataDxfId="3">
+    <tableColumn id="12" name="Fod Worth" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Exp Gain" dataDxfId="2">
+    <tableColumn id="10" name="Exp Gain" dataDxfId="4">
       <calculatedColumnFormula>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Time"/>
@@ -10098,7 +10113,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A1:F38" totalsRowShown="0">
   <autoFilter ref="A1:F38"/>
   <tableColumns count="6">
@@ -10113,7 +10128,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela8" displayName="Tabela8" ref="A1:M10" totalsRowShown="0">
   <autoFilter ref="A1:M10"/>
   <tableColumns count="13">
@@ -10422,8 +10437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10481,7 +10496,7 @@
         <v>84</v>
       </c>
       <c r="W1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X1" t="s">
         <v>83</v>
@@ -10592,10 +10607,10 @@
       </c>
       <c r="M3">
         <f>5-N3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -10665,14 +10680,14 @@
       </c>
       <c r="M4">
         <f>MAXA(M3-Tabela6[[#This Row],[Done]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
         <f>M4*$B$5</f>
-        <v>0</v>
+        <v>189750</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -10739,10 +10754,10 @@
       </c>
       <c r="M5">
         <f>MAXA(4*M3-Tabela6[[#This Row],[Done]],0)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5">
@@ -10810,14 +10825,14 @@
       </c>
       <c r="M6">
         <f>MAXA(M5+M4-Tabela6[[#This Row],[Done]],0)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" s="1">
         <f>M6*$B$4</f>
-        <v>410910</v>
+        <v>1725822</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -10884,10 +10899,10 @@
       </c>
       <c r="M7">
         <f>3*(M5+M4)-Tabela6[[#This Row],[Done]]</f>
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
@@ -10949,14 +10964,14 @@
       </c>
       <c r="M8">
         <f>MAXA(M7+M6-Tabela6[[#This Row],[Done]],0)</f>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" s="1">
         <f>M8*$B$3</f>
-        <v>465686</v>
+        <v>3009048</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -11017,10 +11032,10 @@
       </c>
       <c r="M9" s="6">
         <f>2*(M7+M6)-Tabela6[[#This Row],[Done]]</f>
-        <v>-3</v>
+        <v>168</v>
       </c>
       <c r="N9">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O9" s="45"/>
       <c r="P9">
@@ -11050,18 +11065,18 @@
         <v>2888</v>
       </c>
       <c r="L10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M10">
         <f>MAXA((M9+M8)-Tabela6[[#This Row],[Done]],0)</f>
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" s="52">
         <f>Tabela6[[#This Row],[Missing]]*$B$2</f>
-        <v>151200</v>
+        <v>3810240</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -11090,11 +11105,11 @@
         <v>3240</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M11" s="6">
         <f>MAXA(2*M10-Tabela6[[#This Row],[Done]],0)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N11">
         <v>300</v>
@@ -11131,7 +11146,7 @@
       </c>
       <c r="O12" s="44">
         <f>SUM(Tabela6[XP to gain])</f>
-        <v>1027796</v>
+        <v>8734860</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -11230,10 +11245,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
+        <v>163</v>
+      </c>
+      <c r="R15" t="s">
         <v>164</v>
-      </c>
-      <c r="R15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -11464,7 +11479,7 @@
         <v>11811</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M22">
         <f>MAXA((M21+M20)-Tabela66[[#This Row],[Done]],0)</f>
@@ -11495,7 +11510,7 @@
         <v>13371</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M23" s="6">
         <f>MAXA(2*M22-Tabela66[[#This Row],[Done]],0)</f>
@@ -11550,7 +11565,7 @@
         <v>17296</v>
       </c>
     </row>
-    <row r="26" spans="4:17">
+    <row r="26" spans="4:17" ht="15">
       <c r="D26">
         <v>25</v>
       </c>
@@ -11562,6 +11577,9 @@
       </c>
       <c r="J26">
         <v>19758</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="4:17">
@@ -11577,6 +11595,18 @@
       <c r="J27">
         <v>22572</v>
       </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="28" spans="4:17">
       <c r="D28">
@@ -11591,6 +11621,18 @@
       <c r="J28">
         <v>25786</v>
       </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="4:17">
       <c r="D29">
@@ -11605,6 +11647,19 @@
       <c r="J29">
         <v>29458</v>
       </c>
+      <c r="L29" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <f>M29*$B$5</f>
+        <v>2466750</v>
+      </c>
     </row>
     <row r="30" spans="4:17">
       <c r="D30">
@@ -11619,6 +11674,17 @@
       <c r="J30">
         <v>33954</v>
       </c>
+      <c r="L30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30">
+        <f>MAXA(4*M28-Tabela610[[#This Row],[Done]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="4:17">
       <c r="D31">
@@ -11630,6 +11696,20 @@
       <c r="J31">
         <v>39134</v>
       </c>
+      <c r="L31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31">
+        <f>M29+M30</f>
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f>M31*$B$4</f>
+        <v>2383278</v>
+      </c>
     </row>
     <row r="32" spans="4:17">
       <c r="D32">
@@ -11641,8 +11721,19 @@
       <c r="J32">
         <v>45107</v>
       </c>
-    </row>
-    <row r="33" spans="4:10">
+      <c r="L32" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32">
+        <f>3*(M29+M30)</f>
+        <v>87</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="4:15">
       <c r="D33">
         <v>32</v>
       </c>
@@ -11652,8 +11743,22 @@
       <c r="J33">
         <v>51990</v>
       </c>
-    </row>
-    <row r="34" spans="4:10">
+      <c r="L33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33">
+        <f>3+M32</f>
+        <v>90</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f>M33*$B$3</f>
+        <v>3223980</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15">
       <c r="D34">
         <v>33</v>
       </c>
@@ -11663,8 +11768,19 @@
       <c r="J34">
         <v>59924</v>
       </c>
-    </row>
-    <row r="35" spans="4:10">
+      <c r="L34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="6">
+        <f>2*(M31+M32-10)</f>
+        <v>212</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="45"/>
+    </row>
+    <row r="35" spans="4:15">
       <c r="D35">
         <v>34</v>
       </c>
@@ -11674,24 +11790,56 @@
       <c r="J35">
         <v>69068</v>
       </c>
-    </row>
-    <row r="36" spans="4:10">
+      <c r="L35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35">
+        <f>M34+M33</f>
+        <v>302</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="52">
+        <f>Tabela610[[#This Row],[Missing]]*$B$2</f>
+        <v>4566240</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15">
       <c r="D36">
         <v>35</v>
       </c>
       <c r="J36">
         <v>76085</v>
       </c>
-    </row>
-    <row r="37" spans="4:10">
+      <c r="L36" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" s="6">
+        <f>MAXA(2*M35-Tabela610[[#This Row],[Done]],0)</f>
+        <v>304</v>
+      </c>
+      <c r="N36">
+        <v>300</v>
+      </c>
+      <c r="O36" s="45"/>
+    </row>
+    <row r="37" spans="4:15" ht="15">
       <c r="D37">
         <v>36</v>
       </c>
       <c r="J37">
         <v>83816</v>
       </c>
-    </row>
-    <row r="38" spans="4:10">
+      <c r="N37" t="s">
+        <v>143</v>
+      </c>
+      <c r="O37" s="44">
+        <f>SUM(Tabela610[XP to gain])+4*B6</f>
+        <v>14426836</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15">
       <c r="D38">
         <v>37</v>
       </c>
@@ -11699,7 +11847,7 @@
         <v>92332</v>
       </c>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="4:15">
       <c r="D39">
         <v>38</v>
       </c>
@@ -11707,7 +11855,7 @@
         <v>101712</v>
       </c>
     </row>
-    <row r="40" spans="4:10">
+    <row r="40" spans="4:15">
       <c r="D40">
         <v>39</v>
       </c>
@@ -11715,7 +11863,7 @@
         <v>112046</v>
       </c>
     </row>
-    <row r="41" spans="4:10">
+    <row r="41" spans="4:15">
       <c r="D41">
         <v>40</v>
       </c>
@@ -11723,21 +11871,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11781,7 +11930,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -11793,19 +11942,19 @@
         <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s">
         <v>38</v>
@@ -11817,13 +11966,13 @@
         <v>151</v>
       </c>
       <c r="U1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" t="s">
         <v>155</v>
       </c>
-      <c r="V1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" hidden="1">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11849,11 +11998,11 @@
         <v>22</v>
       </c>
       <c r="I2" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)</f>
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
         <v>2227</v>
       </c>
       <c r="J2" s="19">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!A2,DropAnalityka[LVL],'Location features'!B2,DropAnalityka[Stage],'Location features'!C2)</f>
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
         <v>2</v>
       </c>
       <c r="K2">
@@ -11861,293 +12010,383 @@
         <v>2520</v>
       </c>
       <c r="L2">
-        <f>3*E2</f>
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>1890</v>
       </c>
-      <c r="M2" s="57">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A2,DropAnalityka[LVL],'Location features'!$B2,DropAnalityka[Stage],'Location features'!$C2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="57">
+      <c r="M2" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>2227</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1890</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1890</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" hidden="1">
-      <c r="A3" t="s">
+      <c r="Q2" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="I3" s="53" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A3,DropAnalityka[LVL],'Location features'!B3,DropAnalityka[Stage],'Location features'!C3)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A3,DropAnalityka[LVL],'Location features'!B3,DropAnalityka[Stage],'Location features'!C3)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A3,DropAnalityka[LVL],'Location features'!B3,DropAnalityka[Stage],'Location features'!C3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3">
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1800</v>
+      </c>
+      <c r="F3" s="10">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>4412.5320512820508</v>
+      </c>
+      <c r="J3" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="K3" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" t="e">
+        <v>7200</v>
+      </c>
+      <c r="L3">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>5400</v>
+      </c>
+      <c r="M3" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1984.6666666666667</v>
+      </c>
+      <c r="N3" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="54">
+        <v>1097.8548644338116</v>
+      </c>
+      <c r="O3" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
+        <v>1343.5406698564593</v>
+      </c>
+      <c r="P3" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" hidden="1">
-      <c r="A4" t="s">
+        <v>1837.3333333333335</v>
+      </c>
+      <c r="Q3" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>156</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>642</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1800</v>
+      </c>
+      <c r="F4" s="10">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)</f>
-        <v>2788.2439024390246</v>
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>3818.9444444444443</v>
       </c>
       <c r="J4" s="19">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!A4,DropAnalityka[LVL],'Location features'!B4,DropAnalityka[Stage],'Location features'!C4)</f>
-        <v>0.82926829268292679</v>
-      </c>
-      <c r="K4">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K4" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>2568</v>
+        <v>7200</v>
       </c>
       <c r="L4">
-        <f>3*E4</f>
-        <v>1926</v>
-      </c>
-      <c r="M4" s="57">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A4,DropAnalityka[LVL],'Location features'!$B4,DropAnalityka[Stage],'Location features'!$C4)</f>
-        <v>1106.3414634146341</v>
-      </c>
-      <c r="N4" s="57">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>5400</v>
+      </c>
+      <c r="M4" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1284.4719101123596</v>
-      </c>
-      <c r="O4" s="57">
+        <v>916.54666666666662</v>
+      </c>
+      <c r="O4" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>887.25842696629206</v>
-      </c>
-      <c r="P4" s="57">
+        <v>1296</v>
+      </c>
+      <c r="P4" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1396.9213483146066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" hidden="1">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="53">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A5,DropAnalityka[LVL],'Location features'!B5,DropAnalityka[Stage],'Location features'!C5)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A5,DropAnalityka[LVL],'Location features'!B5,DropAnalityka[Stage],'Location features'!C5)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A5,DropAnalityka[LVL],'Location features'!B5,DropAnalityka[Stage],'Location features'!C5)</f>
-        <v>2788.2439024390246</v>
-      </c>
-      <c r="K5">
+        <v>1296</v>
+      </c>
+      <c r="Q4" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>92</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1276</v>
+      </c>
+      <c r="I5" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>4887.5714285714284</v>
+      </c>
+      <c r="J5" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="K5" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="54">
+        <v>5104</v>
+      </c>
+      <c r="L5">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3828</v>
+      </c>
+      <c r="M5" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1234.2857142857142</v>
+      </c>
+      <c r="N5" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>929.41463414634154</v>
-      </c>
-      <c r="O5" s="54">
+        <v>1545.1032258064515</v>
+      </c>
+      <c r="O5" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="54">
+        <v>1210.1419354838708</v>
+      </c>
+      <c r="P5" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" hidden="1">
+        <v>1600.3354838709674</v>
+      </c>
+      <c r="Q5" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>49</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5">
+        <v>58</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" s="10" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="10">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="53" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A6,DropAnalityka[LVL],'Location features'!B6,DropAnalityka[Stage],'Location features'!C6)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A6,DropAnalityka[LVL],'Location features'!B6,DropAnalityka[Stage],'Location features'!C6)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A6,DropAnalityka[LVL],'Location features'!B6,DropAnalityka[Stage],'Location features'!C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1276</v>
+      </c>
+      <c r="I6" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>5581.1860465116279</v>
+      </c>
+      <c r="J6" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.79069767441860461</v>
+      </c>
       <c r="K6" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="53"/>
-      <c r="N6" t="e">
+        <v>5104</v>
+      </c>
+      <c r="L6">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3828</v>
+      </c>
+      <c r="M6" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>4127.5348837209303</v>
+      </c>
+      <c r="N6" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="54">
+        <v>1739.0652173913045</v>
+      </c>
+      <c r="O6" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
+        <v>1192.7826086956522</v>
+      </c>
+      <c r="P6" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" hidden="1">
+        <v>2478.898550724638</v>
+      </c>
+      <c r="Q6" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>43</v>
+      </c>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:22" s="10" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="53" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A7,DropAnalityka[LVL],'Location features'!B7,DropAnalityka[Stage],'Location features'!C7)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A7,DropAnalityka[LVL],'Location features'!B7,DropAnalityka[Stage],'Location features'!C7)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A7,DropAnalityka[LVL],'Location features'!B7,DropAnalityka[Stage],'Location features'!C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="10"/>
+      <c r="E7" s="10">
+        <v>799</v>
+      </c>
+      <c r="F7" s="10">
+        <v>13</v>
+      </c>
+      <c r="I7" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>3789.9479166666665</v>
+      </c>
+      <c r="J7" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.88541666666666663</v>
+      </c>
       <c r="K7" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="53"/>
-      <c r="N7" t="e">
+        <v>3196</v>
+      </c>
+      <c r="L7">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>2397</v>
+      </c>
+      <c r="M7" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1417.5</v>
+      </c>
+      <c r="N7" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="54">
+        <v>1792.2906403940885</v>
+      </c>
+      <c r="O7" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
+        <v>1133.5566502463053</v>
+      </c>
+      <c r="P7" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" hidden="1">
+        <v>1803.9014778325122</v>
+      </c>
+      <c r="Q7" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>96</v>
+      </c>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:22" s="10" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
-        <v>1098</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="10">
-        <v>12</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I8" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A8,DropAnalityka[LVL],'Location features'!B8,DropAnalityka[Stage],'Location features'!C8)</f>
-        <v>4179.565312046444</v>
-      </c>
-      <c r="J8" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
-        <v>0.86792452830188682</v>
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>12692</v>
+      </c>
+      <c r="J8" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1</v>
       </c>
       <c r="K8" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>4392</v>
-      </c>
-      <c r="L8" s="10">
-        <f>3*E8</f>
-        <v>3294</v>
-      </c>
-      <c r="M8" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A8,DropAnalityka[LVL],'Location features'!$B8,DropAnalityka[Stage],'Location features'!$C8)</f>
-        <v>2387.5849056603774</v>
-      </c>
-      <c r="N8" s="57">
+        <v>6000</v>
+      </c>
+      <c r="L8">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>4500</v>
+      </c>
+      <c r="M8" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>66062</v>
+      </c>
+      <c r="N8" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1334.4395273401299</v>
-      </c>
-      <c r="O8" s="57">
+        <v>3173</v>
+      </c>
+      <c r="O8" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1051.698795180723</v>
-      </c>
-      <c r="P8" s="57">
+        <v>1125</v>
+      </c>
+      <c r="P8" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1814.0000000000002</v>
+        <v>17640.5</v>
+      </c>
+      <c r="Q8" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1</v>
       </c>
       <c r="S8"/>
     </row>
@@ -12174,59 +12413,44 @@
         <v>19</v>
       </c>
       <c r="I9" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A9,DropAnalityka[LVL],'Location features'!B9,DropAnalityka[Stage],'Location features'!C9)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A9,DropAnalityka[LVL],'Location features'!B9,DropAnalityka[Stage],'Location features'!C9)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A9,DropAnalityka[LVL],'Location features'!B9,DropAnalityka[Stage],'Location features'!C9)</f>
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
         <v>3224.358024691358</v>
       </c>
-      <c r="J9" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A9,DropAnalityka[LVL],'Location features'!$B9,DropAnalityka[Stage],'Location features'!$C9)</f>
+      <c r="J9" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
         <v>0.87654320987654322</v>
       </c>
       <c r="K9" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>3024</v>
       </c>
-      <c r="L9" s="10">
-        <f>3*E9</f>
+      <c r="L9">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>2268</v>
       </c>
-      <c r="M9" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A9,DropAnalityka[LVL],'Location features'!$B9,DropAnalityka[Stage],'Location features'!$C9)</f>
+      <c r="M9" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
         <v>560</v>
       </c>
-      <c r="N9" s="57">
+      <c r="N9" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1518.4476744186045</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1068.0697674418604</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>1331.7906976744187</v>
       </c>
-      <c r="Q9" s="10">
-        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N8-1</f>
-        <v>0.13789170907223403</v>
-      </c>
-      <c r="R9" s="10">
-        <f>LocFeatures[[#This Row],[XP/Energy]]/P8-1</f>
-        <v>-0.26582651726878803</v>
-      </c>
-      <c r="S9">
-        <v>62</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="U9" s="10">
-        <v>125</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" hidden="1">
+      <c r="Q9" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>81</v>
+      </c>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:22" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -12234,1570 +12458,1430 @@
         <v>32</v>
       </c>
       <c r="C10" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10">
         <v>4</v>
       </c>
       <c r="E10" s="10">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="F10" s="10">
         <v>12</v>
       </c>
-      <c r="I10" s="53" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A10,DropAnalityka[LVL],'Location features'!B10,DropAnalityka[Stage],'Location features'!C10)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A10,DropAnalityka[LVL],'Location features'!B10,DropAnalityka[Stage],'Location features'!C10)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A10,DropAnalityka[LVL],'Location features'!B10,DropAnalityka[Stage],'Location features'!C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="10" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A10,DropAnalityka[LVL],'Location features'!$B10,DropAnalityka[Stage],'Location features'!$C10)</f>
-        <v>#DIV/0!</v>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>4179.565312046444</v>
+      </c>
+      <c r="J10" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.86792452830188682</v>
       </c>
       <c r="K10" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>4476</v>
-      </c>
-      <c r="M10" s="53"/>
-      <c r="N10" t="e">
+        <v>4392</v>
+      </c>
+      <c r="L10">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3294</v>
+      </c>
+      <c r="M10" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2387.5849056603774</v>
+      </c>
+      <c r="N10" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="54" t="e">
+        <v>1334.4395273401299</v>
+      </c>
+      <c r="O10" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" t="e">
+        <v>1051.698795180723</v>
+      </c>
+      <c r="P10" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
+        <v>1814.0000000000002</v>
+      </c>
+      <c r="Q10" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>53</v>
       </c>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:22" s="10" customFormat="1" hidden="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:22" s="10" customFormat="1">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>642</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2788.2439024390246</v>
+      </c>
+      <c r="J11" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="K11">
+        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>2568</v>
+      </c>
+      <c r="L11">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>1926</v>
+      </c>
+      <c r="M11" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1106.3414634146341</v>
+      </c>
+      <c r="N11" s="56">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1284.4719101123596</v>
+      </c>
+      <c r="O11" s="56">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>887.25842696629206</v>
+      </c>
+      <c r="P11" s="56">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1396.9213483146066</v>
+      </c>
+      <c r="Q11" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>41</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" s="10" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C12" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>1116</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>12</v>
       </c>
-      <c r="I11" s="53">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A11,DropAnalityka[LVL],'Location features'!B11,DropAnalityka[Stage],'Location features'!C11)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A11,DropAnalityka[LVL],'Location features'!B11,DropAnalityka[Stage],'Location features'!C11)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A11,DropAnalityka[LVL],'Location features'!B11,DropAnalityka[Stage],'Location features'!C11)</f>
+      <c r="I12" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
         <v>2652</v>
       </c>
-      <c r="J11" s="10">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A11,DropAnalityka[LVL],'Location features'!$B11,DropAnalityka[Stage],'Location features'!$C11)</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="J12" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>4464</v>
       </c>
-      <c r="M11" s="53">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A11,DropAnalityka[LVL],'Location features'!$B11,DropAnalityka[Stage],'Location features'!$C11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="54">
+      <c r="L12">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3348</v>
+      </c>
+      <c r="M12" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>663</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O12" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="54">
+        <v>837</v>
+      </c>
+      <c r="P12" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>0</v>
-      </c>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:22" s="10" customFormat="1" hidden="1">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10">
-        <v>5</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1800</v>
-      </c>
-      <c r="F12" s="10">
-        <v>12</v>
-      </c>
-      <c r="I12" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A12,DropAnalityka[LVL],'Location features'!B12,DropAnalityka[Stage],'Location features'!C12)</f>
-        <v>4440.4901960784318</v>
-      </c>
-      <c r="J12" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
-        <v>0.97385620915032678</v>
-      </c>
-      <c r="K12" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>7200</v>
-      </c>
-      <c r="L12" s="10">
-        <f t="shared" ref="L12:L17" si="0">3*E12</f>
-        <v>5400</v>
-      </c>
-      <c r="M12" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A12,DropAnalityka[LVL],'Location features'!$B12,DropAnalityka[Stage],'Location features'!$C12)</f>
-        <v>2023.5816993464052</v>
-      </c>
-      <c r="N12" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1102.9139610389611</v>
-      </c>
-      <c r="O12" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1341.2337662337663</v>
-      </c>
-      <c r="P12" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1843.8441558441559</v>
-      </c>
-      <c r="Q12" s="10">
-        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N9-1</f>
-        <v>-0.27365691974782491</v>
-      </c>
-      <c r="R12" s="10">
-        <f>LocFeatures[[#This Row],[XP/Energy]]/P9-1</f>
-        <v>0.3844849337541465</v>
-      </c>
-      <c r="S12">
-        <v>178</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="10" customFormat="1" hidden="1">
+        <v>837</v>
+      </c>
+      <c r="Q12" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1</v>
+      </c>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:22" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="10">
-        <v>439</v>
-      </c>
-      <c r="F13" s="10">
-        <v>10</v>
+        <v>804</v>
       </c>
       <c r="I13" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A13,DropAnalityka[LVL],'Location features'!B13,DropAnalityka[Stage],'Location features'!C13)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A13,DropAnalityka[LVL],'Location features'!B13,DropAnalityka[Stage],'Location features'!C13)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A13,DropAnalityka[LVL],'Location features'!B13,DropAnalityka[Stage],'Location features'!C13)</f>
-        <v>4124.8571428571431</v>
-      </c>
-      <c r="J13" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A13,DropAnalityka[LVL],'Location features'!$B13,DropAnalityka[Stage],'Location features'!$C13)</f>
-        <v>0.7142857142857143</v>
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2964</v>
+      </c>
+      <c r="J13" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
       </c>
       <c r="K13" s="10">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3216</v>
+      </c>
+      <c r="L13">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>2412</v>
+      </c>
+      <c r="M13" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="56">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>988</v>
+      </c>
+      <c r="O13" s="56">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>804</v>
+      </c>
+      <c r="P13" s="56">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>804</v>
+      </c>
+      <c r="Q13" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2</v>
+      </c>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:22" s="10" customFormat="1">
+      <c r="A14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>804</v>
+      </c>
+      <c r="F14" s="10">
+        <v>13</v>
+      </c>
+      <c r="I14" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>3392</v>
+      </c>
+      <c r="J14" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3216</v>
+      </c>
+      <c r="L14">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>2412</v>
+      </c>
+      <c r="M14" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="56">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1130.6666666666667</v>
+      </c>
+      <c r="O14" s="56">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>804</v>
+      </c>
+      <c r="P14" s="56">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>804</v>
+      </c>
+      <c r="Q14" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1</v>
+      </c>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
+        <v>760</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>7963.2727272727279</v>
+      </c>
+      <c r="J15" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K15" s="10">
+        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3800</v>
+      </c>
+      <c r="L15">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>2280</v>
+      </c>
+      <c r="M15" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>6005.636363636364</v>
+      </c>
+      <c r="N15" s="56">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1307.4029850746269</v>
+      </c>
+      <c r="O15" s="56">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>374.32835820895525</v>
+      </c>
+      <c r="P15" s="56">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1360.3283582089553</v>
+      </c>
+      <c r="Q15" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>11</v>
+      </c>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
+        <v>605</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>7394.5</v>
+      </c>
+      <c r="J16" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1.75</v>
+      </c>
+      <c r="K16" s="10">
+        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>3025</v>
+      </c>
+      <c r="L16">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>1815</v>
+      </c>
+      <c r="M16" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="56">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>1408.4761904761904</v>
+      </c>
+      <c r="O16" s="56">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>345.71428571428572</v>
+      </c>
+      <c r="P16" s="56">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>345.71428571428572</v>
+      </c>
+      <c r="Q16" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>16</v>
+      </c>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10">
+        <v>439</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>4124.8571428571431</v>
+      </c>
+      <c r="J17" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K17" s="10">
+        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>1756</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="0"/>
+      <c r="L17">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
         <v>1317</v>
       </c>
-      <c r="M13" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A13,DropAnalityka[LVL],'Location features'!$B13,DropAnalityka[Stage],'Location features'!$C13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="57">
+      <c r="M17" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>962.46666666666681</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O17" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>307.3</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P17" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>307.3</v>
       </c>
-      <c r="S13"/>
-    </row>
-    <row r="14" spans="1:22" s="10" customFormat="1" hidden="1">
-      <c r="A14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="Q17" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>7</v>
+      </c>
+      <c r="R17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10">
         <v>5</v>
       </c>
-      <c r="E14" s="10">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="10">
-        <v>10</v>
-      </c>
-      <c r="I14" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A14,DropAnalityka[LVL],'Location features'!B14,DropAnalityka[Stage],'Location features'!C14)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A14,DropAnalityka[LVL],'Location features'!B14,DropAnalityka[Stage],'Location features'!C14)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A14,DropAnalityka[LVL],'Location features'!B14,DropAnalityka[Stage],'Location features'!C14)</f>
-        <v>12692</v>
-      </c>
-      <c r="J14" s="56">
-        <v>0.65</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="D18" s="10">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10">
+        <v>392</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2788.25</v>
+      </c>
+      <c r="J18" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="10">
+        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>1960</v>
+      </c>
+      <c r="L18">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>1176</v>
+      </c>
+      <c r="M18" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="56">
+        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>506.95454545454544</v>
+      </c>
+      <c r="O18" s="56">
+        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>213.81818181818181</v>
+      </c>
+      <c r="P18" s="56">
+        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
+        <v>213.81818181818181</v>
+      </c>
+      <c r="Q18" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>16</v>
+      </c>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="55">
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2788.2439024390246</v>
+      </c>
+      <c r="J19" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="K19">
         <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>6000</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="0"/>
-        <v>4500</v>
-      </c>
-      <c r="M14" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A14,DropAnalityka[LVL],'Location features'!$B14,DropAnalityka[Stage],'Location features'!$C14)</f>
-        <v>66062</v>
-      </c>
-      <c r="N14" s="57">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>1106.3414634146341</v>
+      </c>
+      <c r="N19" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>2917.7011494252874</v>
-      </c>
-      <c r="O14" s="57">
+        <v>1284.4719101123596</v>
+      </c>
+      <c r="O19" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1034.4827586206898</v>
-      </c>
-      <c r="P14" s="57">
+        <v>0</v>
+      </c>
+      <c r="P19" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>16221.149425287358</v>
-      </c>
-      <c r="S14"/>
-    </row>
-    <row r="15" spans="1:22" s="10" customFormat="1" hidden="1">
-      <c r="A15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10">
-        <v>799</v>
-      </c>
-      <c r="F15" s="10">
-        <v>13</v>
-      </c>
-      <c r="I15" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A15,DropAnalityka[LVL],'Location features'!B15,DropAnalityka[Stage],'Location features'!C15)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A15,DropAnalityka[LVL],'Location features'!B15,DropAnalityka[Stage],'Location features'!C15)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A15,DropAnalityka[LVL],'Location features'!B15,DropAnalityka[Stage],'Location features'!C15)</f>
-        <v>3789.9479166666665</v>
-      </c>
-      <c r="J15" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A15,DropAnalityka[LVL],'Location features'!$B15,DropAnalityka[Stage],'Location features'!$C15)</f>
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="K15" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>3196</v>
-      </c>
-      <c r="L15" s="10">
-        <f t="shared" si="0"/>
-        <v>2397</v>
-      </c>
-      <c r="M15" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A15,DropAnalityka[LVL],'Location features'!$B15,DropAnalityka[Stage],'Location features'!$C15)</f>
-        <v>1417.5</v>
-      </c>
-      <c r="N15" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1792.2906403940885</v>
-      </c>
-      <c r="O15" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1133.5566502463053</v>
-      </c>
-      <c r="P15" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1803.9014778325122</v>
-      </c>
-      <c r="Q15" s="10">
-        <f>LocFeatures[[#This Row],[DropWorthGain/Energy]]/N9-1</f>
-        <v>0.18034402540761585</v>
-      </c>
-      <c r="R15" s="10">
-        <f>LocFeatures[[#This Row],[XP/Energy]]/P9-1</f>
-        <v>0.35449322553648743</v>
-      </c>
-      <c r="S15"/>
-    </row>
-    <row r="16" spans="1:22" s="10" customFormat="1" hidden="1">
-      <c r="A16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10">
-        <v>3</v>
-      </c>
-      <c r="E16" s="10">
-        <v>804</v>
-      </c>
-      <c r="F16" s="10">
-        <v>13</v>
-      </c>
-      <c r="I16" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A16,DropAnalityka[LVL],'Location features'!B16,DropAnalityka[Stage],'Location features'!C16)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A16,DropAnalityka[LVL],'Location features'!B16,DropAnalityka[Stage],'Location features'!C16)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A16,DropAnalityka[LVL],'Location features'!B16,DropAnalityka[Stage],'Location features'!C16)</f>
-        <v>3392</v>
-      </c>
-      <c r="J16" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A16,DropAnalityka[LVL],'Location features'!$B16,DropAnalityka[Stage],'Location features'!$C16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>3216</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="0"/>
-        <v>2412</v>
-      </c>
-      <c r="M16" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A16,DropAnalityka[LVL],'Location features'!$B16,DropAnalityka[Stage],'Location features'!$C16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1130.6666666666667</v>
-      </c>
-      <c r="O16" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>804</v>
-      </c>
-      <c r="P16" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>804</v>
-      </c>
-      <c r="S16"/>
-    </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" hidden="1">
-      <c r="A17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="10">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10">
-        <v>804</v>
-      </c>
-      <c r="I17" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A17,DropAnalityka[LVL],'Location features'!B17,DropAnalityka[Stage],'Location features'!C17)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A17,DropAnalityka[LVL],'Location features'!B17,DropAnalityka[Stage],'Location features'!C17)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A17,DropAnalityka[LVL],'Location features'!B17,DropAnalityka[Stage],'Location features'!C17)</f>
-        <v>2964</v>
-      </c>
-      <c r="J17" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A17,DropAnalityka[LVL],'Location features'!$B17,DropAnalityka[Stage],'Location features'!$C17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>3216</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" si="0"/>
-        <v>2412</v>
-      </c>
-      <c r="M17" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A17,DropAnalityka[LVL],'Location features'!$B17,DropAnalityka[Stage],'Location features'!$C17)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>988</v>
-      </c>
-      <c r="O17" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>804</v>
-      </c>
-      <c r="P17" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>804</v>
-      </c>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:20" s="10" customFormat="1">
-      <c r="A18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>4</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1276</v>
-      </c>
-      <c r="I18" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A18,DropAnalityka[LVL],'Location features'!B18,DropAnalityka[Stage],'Location features'!C18)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A18,DropAnalityka[LVL],'Location features'!B18,DropAnalityka[Stage],'Location features'!C18)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A18,DropAnalityka[LVL],'Location features'!B18,DropAnalityka[Stage],'Location features'!C18)</f>
-        <v>5581.1860465116279</v>
-      </c>
-      <c r="J18" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A18,DropAnalityka[LVL],'Location features'!$B18,DropAnalityka[Stage],'Location features'!$C18)</f>
-        <v>0.79069767441860461</v>
-      </c>
-      <c r="K18" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>5104</v>
-      </c>
-      <c r="L18" s="10">
-        <f t="shared" ref="L18:L24" si="1">3*E18</f>
-        <v>3828</v>
-      </c>
-      <c r="M18" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A18,DropAnalityka[LVL],'Location features'!$B18,DropAnalityka[Stage],'Location features'!$C18)</f>
-        <v>4127.5348837209303</v>
-      </c>
-      <c r="N18" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1739.0652173913045</v>
-      </c>
-      <c r="O18" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1192.7826086956522</v>
-      </c>
-      <c r="P18" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>2478.898550724638</v>
-      </c>
-      <c r="S18">
-        <v>122</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2025</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="53" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A19,DropAnalityka[LVL],'Location features'!B19,DropAnalityka[Stage],'Location features'!C19)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A19,DropAnalityka[LVL],'Location features'!B19,DropAnalityka[Stage],'Location features'!C19)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A19,DropAnalityka[LVL],'Location features'!B19,DropAnalityka[Stage],'Location features'!C19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="10">
-        <f>J9</f>
-        <v>0.87654320987654322</v>
-      </c>
-      <c r="K19" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>8100</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="1"/>
-        <v>6075</v>
-      </c>
-      <c r="M19" s="53"/>
-      <c r="N19" t="e">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="54">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1473.2784431137725</v>
-      </c>
-      <c r="P19">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1473.2784431137725</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20" hidden="1">
+        <v>509.66292134831451</v>
+      </c>
+      <c r="Q19" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="10" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="10">
-        <v>6</v>
-      </c>
-      <c r="E20" s="10">
-        <v>392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A20,DropAnalityka[LVL],'Location features'!B20,DropAnalityka[Stage],'Location features'!C20)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A20,DropAnalityka[LVL],'Location features'!B20,DropAnalityka[Stage],'Location features'!C20)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A20,DropAnalityka[LVL],'Location features'!B20,DropAnalityka[Stage],'Location features'!C20)</f>
-        <v>2788.25</v>
-      </c>
-      <c r="J20" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A20,DropAnalityka[LVL],'Location features'!$B20,DropAnalityka[Stage],'Location features'!$C20)</f>
-        <v>0.5</v>
+        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>2767.4736842105262</v>
+      </c>
+      <c r="J20" s="19">
+        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0.68421052631578949</v>
       </c>
       <c r="K20" s="10">
         <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>1960</v>
-      </c>
-      <c r="L20" s="10">
-        <f t="shared" si="1"/>
-        <v>1176</v>
-      </c>
-      <c r="M20" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A20,DropAnalityka[LVL],'Location features'!$B20,DropAnalityka[Stage],'Location features'!$C20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>506.95454545454544</v>
-      </c>
-      <c r="O20" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>213.81818181818181</v>
-      </c>
-      <c r="P20" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>213.81818181818181</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" hidden="1">
-      <c r="A21" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10">
-        <v>5</v>
-      </c>
-      <c r="D21" s="10">
-        <v>7</v>
-      </c>
-      <c r="E21" s="10">
-        <v>605</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A21,DropAnalityka[LVL],'Location features'!B21,DropAnalityka[Stage],'Location features'!C21)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A21,DropAnalityka[LVL],'Location features'!B21,DropAnalityka[Stage],'Location features'!C21)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A21,DropAnalityka[LVL],'Location features'!B21,DropAnalityka[Stage],'Location features'!C21)</f>
-        <v>7394.5</v>
-      </c>
-      <c r="J21" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A21,DropAnalityka[LVL],'Location features'!$B21,DropAnalityka[Stage],'Location features'!$C21)</f>
-        <v>1.75</v>
-      </c>
-      <c r="K21" s="10">
-        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>3025</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="1"/>
-        <v>1815</v>
-      </c>
-      <c r="M21" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A21,DropAnalityka[LVL],'Location features'!$B21,DropAnalityka[Stage],'Location features'!$C21)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1408.4761904761904</v>
-      </c>
-      <c r="O21" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>345.71428571428572</v>
-      </c>
-      <c r="P21" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>345.71428571428572</v>
-      </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" hidden="1">
-      <c r="A22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="10">
-        <v>6</v>
-      </c>
-      <c r="D22" s="10">
-        <v>7</v>
-      </c>
-      <c r="E22" s="10">
-        <v>760</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A22,DropAnalityka[LVL],'Location features'!B22,DropAnalityka[Stage],'Location features'!C22)</f>
-        <v>7963.2727272727279</v>
-      </c>
-      <c r="J22" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="K22" s="10">
-        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>3800</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" si="1"/>
-        <v>2280</v>
-      </c>
-      <c r="M22" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A22,DropAnalityka[LVL],'Location features'!$B22,DropAnalityka[Stage],'Location features'!$C22)</f>
-        <v>6005.636363636364</v>
-      </c>
-      <c r="N22" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1307.4029850746269</v>
-      </c>
-      <c r="O22" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>374.32835820895525</v>
-      </c>
-      <c r="P22" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1360.3283582089553</v>
-      </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" hidden="1">
-      <c r="A23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="10">
-        <v>7</v>
-      </c>
-      <c r="D23" s="10">
-        <v>7</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A23,DropAnalityka[LVL],'Location features'!B23,DropAnalityka[Stage],'Location features'!C23)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A23,DropAnalityka[LVL],'Location features'!B23,DropAnalityka[Stage],'Location features'!C23)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A23,DropAnalityka[LVL],'Location features'!B23,DropAnalityka[Stage],'Location features'!C23)</f>
-        <v>2767.4736842105262</v>
-      </c>
-      <c r="J23" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A23,DropAnalityka[LVL],'Location features'!$B23,DropAnalityka[Stage],'Location features'!$C23)</f>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="K23" s="10">
-        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A23,DropAnalityka[LVL],'Location features'!$B23,DropAnalityka[Stage],'Location features'!$C23)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="57">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>3*LocFeatures[[#This Row],[XP Gain per member]]</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="56">
+        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="56">
         <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>438.18333333333334</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O20" s="56">
         <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>0</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P20" s="56">
         <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" hidden="1">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="I24" s="55" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A24,DropAnalityka[LVL],'Location features'!B24,DropAnalityka[Stage],'Location features'!C24)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A24,DropAnalityka[LVL],'Location features'!B24,DropAnalityka[Stage],'Location features'!C24)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A24,DropAnalityka[LVL],'Location features'!B24,DropAnalityka[Stage],'Location features'!C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="56" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A24,DropAnalityka[LVL],'Location features'!$B24,DropAnalityka[Stage],'Location features'!$C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="10">
-        <f>5*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="58" t="e">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A24,DropAnalityka[LVL],'Location features'!$B24,DropAnalityka[Stage],'Location features'!$C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="57" t="e">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="57" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="57" t="e">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="10">
-        <v>8</v>
-      </c>
-      <c r="D25" s="10">
-        <v>4</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1276</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="55">
-        <f>AVERAGEIFS(DropAnalityka[Mana drop],DropAnalityka[Location],'Location features'!A25,DropAnalityka[LVL],'Location features'!B25,DropAnalityka[Stage],'Location features'!C25)+AVERAGEIFS(DropAnalityka[Drop Worth],DropAnalityka[Location],'Location features'!A25,DropAnalityka[LVL],'Location features'!B25,DropAnalityka[Stage],'Location features'!C25)+AVERAGEIFS(DropAnalityka[Fod Worth],DropAnalityka[Location],'Location features'!A25,DropAnalityka[LVL],'Location features'!B25,DropAnalityka[Stage],'Location features'!C25)</f>
-        <v>5208.4385080645161</v>
-      </c>
-      <c r="J25" s="56">
-        <f>AVERAGEIFS(DropAnalityka[Energy Drop],DropAnalityka[Location],'Location features'!$A25,DropAnalityka[LVL],'Location features'!$B25,DropAnalityka[Stage],'Location features'!$C25)</f>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="K25" s="10">
-        <f>4*LocFeatures[[#This Row],[XP Gain per member]]</f>
-        <v>5104</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" ref="L25" si="2">3*E25</f>
-        <v>3828</v>
-      </c>
-      <c r="M25" s="58">
-        <f>AVERAGEIFS(DropAnalityka[Exp Gain],DropAnalityka[Location],'Location features'!$A25,DropAnalityka[LVL],'Location features'!$B25,DropAnalityka[Stage],'Location features'!$C25)</f>
-        <v>1890</v>
-      </c>
-      <c r="N25" s="57">
-        <f>LocFeatures[[#This Row],[Drop worth gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1717.6765292553191</v>
-      </c>
-      <c r="O25" s="57">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1262.4255319148936</v>
-      </c>
-      <c r="P25" s="57">
-        <f>(LocFeatures[[#This Row],[XP Train Gain]]+LocFeatures[[#This Row],[XP drop]])/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>1885.7234042553191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1">
+      <c r="Q20" s="53">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>19</v>
+      </c>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="I21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="O21" s="54"/>
+      <c r="Q21" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="I22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="O22" s="54"/>
+      <c r="Q22" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="I23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="O23" s="54"/>
+      <c r="Q23" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="I24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="O24" s="54"/>
+      <c r="Q24" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="I25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="O25" s="54"/>
+      <c r="Q25" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="I26" s="49"/>
       <c r="M26" s="49"/>
-      <c r="O26" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1">
+      <c r="O26" s="54"/>
+      <c r="Q26" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="I27" s="49"/>
       <c r="M27" s="49"/>
-      <c r="O27" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" hidden="1">
+      <c r="O27" s="54"/>
+      <c r="Q27" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="I28" s="49"/>
       <c r="M28" s="49"/>
-      <c r="O28" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1">
+      <c r="O28" s="54"/>
+      <c r="Q28" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="I29" s="49"/>
       <c r="M29" s="49"/>
-      <c r="O29" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1">
+      <c r="O29" s="54"/>
+      <c r="Q29" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="I30" s="49"/>
       <c r="M30" s="49"/>
-      <c r="O30" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1">
+      <c r="O30" s="54"/>
+      <c r="Q30" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="I31" s="49"/>
       <c r="M31" s="49"/>
-      <c r="O31" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1">
+      <c r="O31" s="54"/>
+      <c r="Q31" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="I32" s="49"/>
       <c r="M32" s="49"/>
-      <c r="O32" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="9:15" hidden="1">
+      <c r="O32" s="54"/>
+      <c r="Q32" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:17">
       <c r="I33" s="49"/>
       <c r="M33" s="49"/>
-      <c r="O33" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="9:15" hidden="1">
+      <c r="O33" s="54"/>
+      <c r="Q33" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:17">
       <c r="I34" s="49"/>
       <c r="M34" s="49"/>
-      <c r="O34" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="9:15" hidden="1">
+      <c r="O34" s="54"/>
+      <c r="Q34" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:17">
       <c r="I35" s="49"/>
       <c r="M35" s="49"/>
-      <c r="O35" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="9:15" hidden="1">
+      <c r="O35" s="54"/>
+      <c r="Q35" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:17">
       <c r="I36" s="49"/>
       <c r="M36" s="49"/>
-      <c r="O36" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="9:15" hidden="1">
+      <c r="O36" s="54"/>
+      <c r="Q36" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:17">
       <c r="I37" s="49"/>
       <c r="M37" s="49"/>
-      <c r="O37" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="9:15" hidden="1">
+      <c r="O37" s="54"/>
+      <c r="Q37" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:17">
       <c r="I38" s="49"/>
       <c r="M38" s="49"/>
-      <c r="O38" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="9:15" hidden="1">
+      <c r="O38" s="54"/>
+      <c r="Q38" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:17">
       <c r="I39" s="49"/>
       <c r="M39" s="49"/>
-      <c r="O39" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="9:15" hidden="1">
+      <c r="O39" s="54"/>
+      <c r="Q39" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:17">
       <c r="I40" s="49"/>
       <c r="M40" s="49"/>
-      <c r="O40" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="9:15" hidden="1">
+      <c r="O40" s="54"/>
+      <c r="Q40" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:17">
       <c r="I41" s="49"/>
       <c r="M41" s="49"/>
-      <c r="O41" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="9:15" hidden="1">
+      <c r="O41" s="54"/>
+      <c r="Q41" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:17">
       <c r="I42" s="49"/>
       <c r="M42" s="49"/>
-      <c r="O42" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="9:15" hidden="1">
+      <c r="O42" s="54"/>
+      <c r="Q42" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:17">
       <c r="I43" s="49"/>
       <c r="M43" s="49"/>
-      <c r="O43" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="9:15" hidden="1">
+      <c r="O43" s="54"/>
+      <c r="Q43" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:17">
       <c r="I44" s="49"/>
       <c r="M44" s="49"/>
-      <c r="O44" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="9:15" hidden="1">
+      <c r="O44" s="54"/>
+      <c r="Q44" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:17">
       <c r="I45" s="49"/>
       <c r="M45" s="49"/>
-      <c r="O45" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="9:15" hidden="1">
+      <c r="O45" s="54"/>
+      <c r="Q45" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:17">
       <c r="I46" s="49"/>
       <c r="M46" s="49"/>
-      <c r="O46" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="9:15" hidden="1">
+      <c r="O46" s="54"/>
+      <c r="Q46" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:17">
       <c r="I47" s="49"/>
       <c r="M47" s="49"/>
-      <c r="O47" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="9:15" hidden="1">
+      <c r="O47" s="54"/>
+      <c r="Q47" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:17">
       <c r="I48" s="49"/>
       <c r="M48" s="49"/>
-      <c r="O48" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="9:15" hidden="1">
+      <c r="O48" s="54"/>
+      <c r="Q48" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:17">
       <c r="I49" s="49"/>
       <c r="M49" s="49"/>
-      <c r="O49" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="9:15" hidden="1">
+      <c r="O49" s="54"/>
+      <c r="Q49" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:17">
       <c r="I50" s="49"/>
       <c r="M50" s="49"/>
-      <c r="O50" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="9:15" hidden="1">
+      <c r="O50" s="54"/>
+      <c r="Q50" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:17">
       <c r="I51" s="49"/>
       <c r="M51" s="49"/>
-      <c r="O51" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="9:15" hidden="1">
+      <c r="O51" s="54"/>
+      <c r="Q51" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:17">
       <c r="I52" s="49"/>
       <c r="M52" s="49"/>
-      <c r="O52" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="9:15" hidden="1">
+      <c r="O52" s="54"/>
+      <c r="Q52" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:17">
       <c r="I53" s="49"/>
       <c r="M53" s="49"/>
-      <c r="O53" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="9:15" hidden="1">
+      <c r="O53" s="54"/>
+      <c r="Q53" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:17">
       <c r="I54" s="49"/>
       <c r="M54" s="49"/>
-      <c r="O54" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="9:15" hidden="1">
+      <c r="O54" s="54"/>
+      <c r="Q54" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:17">
       <c r="I55" s="49"/>
       <c r="M55" s="49"/>
-      <c r="O55" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="9:15" hidden="1">
+      <c r="O55" s="54"/>
+      <c r="Q55" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:17">
       <c r="I56" s="49"/>
       <c r="M56" s="49"/>
-      <c r="O56" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="9:15" hidden="1">
+      <c r="O56" s="54"/>
+      <c r="Q56" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:17">
       <c r="I57" s="49"/>
       <c r="M57" s="49"/>
-      <c r="O57" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="9:15" hidden="1">
+      <c r="O57" s="54"/>
+      <c r="Q57" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:17">
       <c r="I58" s="49"/>
       <c r="M58" s="49"/>
-      <c r="O58" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="9:15" hidden="1">
+      <c r="O58" s="54"/>
+      <c r="Q58" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:17">
       <c r="I59" s="49"/>
       <c r="M59" s="49"/>
-      <c r="O59" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="9:15" hidden="1">
+      <c r="O59" s="54"/>
+      <c r="Q59" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="9:17">
       <c r="I60" s="49"/>
       <c r="M60" s="49"/>
-      <c r="O60" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="9:15" hidden="1">
+      <c r="O60" s="54"/>
+      <c r="Q60" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="9:17">
       <c r="I61" s="49"/>
       <c r="M61" s="49"/>
-      <c r="O61" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="9:15" hidden="1">
+      <c r="O61" s="54"/>
+      <c r="Q61" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:17">
       <c r="I62" s="49"/>
       <c r="M62" s="49"/>
-      <c r="O62" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="9:15" hidden="1">
+      <c r="O62" s="54"/>
+      <c r="Q62" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:17">
       <c r="I63" s="49"/>
       <c r="M63" s="49"/>
-      <c r="O63" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="9:15" hidden="1">
+      <c r="O63" s="54"/>
+      <c r="Q63" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:17">
       <c r="I64" s="49"/>
       <c r="M64" s="49"/>
-      <c r="O64" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="9:15" hidden="1">
+      <c r="O64" s="54"/>
+      <c r="Q64" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:17">
       <c r="I65" s="49"/>
       <c r="M65" s="49"/>
-      <c r="O65" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="9:15" hidden="1">
+      <c r="O65" s="54"/>
+      <c r="Q65" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:17">
       <c r="I66" s="49"/>
       <c r="M66" s="49"/>
-      <c r="O66" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="9:15" hidden="1">
+      <c r="O66" s="54"/>
+      <c r="Q66" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:17">
       <c r="I67" s="49"/>
       <c r="M67" s="49"/>
-      <c r="O67" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="9:15" hidden="1">
+      <c r="O67" s="54"/>
+      <c r="Q67" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:17">
       <c r="I68" s="49"/>
       <c r="M68" s="49"/>
-      <c r="O68" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="9:15" hidden="1">
+      <c r="O68" s="54"/>
+      <c r="Q68" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:17">
       <c r="I69" s="49"/>
       <c r="M69" s="49"/>
-      <c r="O69" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="9:15" hidden="1">
+      <c r="O69" s="54"/>
+      <c r="Q69" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:17">
       <c r="I70" s="49"/>
       <c r="M70" s="49"/>
-      <c r="O70" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="9:15" hidden="1">
+      <c r="O70" s="54"/>
+      <c r="Q70" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:17">
       <c r="I71" s="49"/>
       <c r="M71" s="49"/>
-      <c r="O71" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="9:15" hidden="1">
+      <c r="O71" s="54"/>
+      <c r="Q71" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:17">
       <c r="I72" s="49"/>
       <c r="M72" s="49"/>
-      <c r="O72" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="9:15" hidden="1">
+      <c r="O72" s="54"/>
+      <c r="Q72" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:17">
       <c r="I73" s="49"/>
       <c r="M73" s="49"/>
-      <c r="O73" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="9:15" hidden="1">
+      <c r="O73" s="54"/>
+      <c r="Q73" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:17">
       <c r="I74" s="49"/>
       <c r="M74" s="49"/>
-      <c r="O74" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="9:15" hidden="1">
+      <c r="O74" s="54"/>
+      <c r="Q74" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:17">
       <c r="I75" s="49"/>
       <c r="M75" s="49"/>
-      <c r="O75" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="9:15" hidden="1">
+      <c r="O75" s="54"/>
+      <c r="Q75" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:17">
       <c r="I76" s="49"/>
       <c r="M76" s="49"/>
-      <c r="O76" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="9:15" hidden="1">
+      <c r="O76" s="54"/>
+      <c r="Q76" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:17">
       <c r="I77" s="49"/>
       <c r="M77" s="49"/>
-      <c r="O77" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="9:15" hidden="1">
+      <c r="O77" s="54"/>
+      <c r="Q77" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:17">
       <c r="I78" s="49"/>
       <c r="M78" s="49"/>
-      <c r="O78" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="9:15" hidden="1">
+      <c r="O78" s="54"/>
+      <c r="Q78" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:17">
       <c r="I79" s="49"/>
       <c r="M79" s="49"/>
-      <c r="O79" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="9:15" hidden="1">
+      <c r="O79" s="54"/>
+      <c r="Q79" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:17">
       <c r="I80" s="49"/>
       <c r="M80" s="49"/>
-      <c r="O80" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="9:15" hidden="1">
+      <c r="O80" s="54"/>
+      <c r="Q80" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:17">
       <c r="I81" s="49"/>
       <c r="M81" s="49"/>
-      <c r="O81" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="9:15" hidden="1">
+      <c r="O81" s="54"/>
+      <c r="Q81" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:17">
       <c r="I82" s="49"/>
       <c r="M82" s="49"/>
-      <c r="O82" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="9:15" hidden="1">
+      <c r="O82" s="54"/>
+      <c r="Q82" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:17">
       <c r="I83" s="49"/>
       <c r="M83" s="49"/>
-      <c r="O83" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="9:15" hidden="1">
+      <c r="O83" s="54"/>
+      <c r="Q83" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="9:17">
       <c r="I84" s="49"/>
       <c r="M84" s="49"/>
-      <c r="O84" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="9:15" hidden="1">
+      <c r="O84" s="54"/>
+      <c r="Q84" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:17">
       <c r="I85" s="49"/>
       <c r="M85" s="49"/>
-      <c r="O85" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="9:15" hidden="1">
+      <c r="O85" s="54"/>
+      <c r="Q85" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="9:17">
       <c r="I86" s="49"/>
       <c r="M86" s="49"/>
-      <c r="O86" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="9:15" hidden="1">
+      <c r="O86" s="54"/>
+      <c r="Q86" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="9:17">
       <c r="I87" s="49"/>
       <c r="M87" s="49"/>
-      <c r="O87" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="9:15" hidden="1">
+      <c r="O87" s="54"/>
+      <c r="Q87" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:17">
       <c r="I88" s="49"/>
       <c r="M88" s="49"/>
-      <c r="O88" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" spans="9:15" hidden="1">
+      <c r="O88" s="54"/>
+      <c r="Q88" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="9:17">
       <c r="I89" s="49"/>
       <c r="M89" s="49"/>
-      <c r="O89" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="9:15" hidden="1">
+      <c r="O89" s="54"/>
+      <c r="Q89" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:17">
       <c r="I90" s="49"/>
       <c r="M90" s="49"/>
-      <c r="O90" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="91" spans="9:15" hidden="1">
+      <c r="O90" s="54"/>
+      <c r="Q90" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:17">
       <c r="I91" s="49"/>
       <c r="M91" s="49"/>
-      <c r="O91" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="92" spans="9:15" hidden="1">
+      <c r="O91" s="54"/>
+      <c r="Q91" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="9:17">
       <c r="I92" s="49"/>
       <c r="M92" s="49"/>
-      <c r="O92" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="93" spans="9:15" hidden="1">
+      <c r="O92" s="54"/>
+      <c r="Q92" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:17">
       <c r="I93" s="49"/>
       <c r="M93" s="49"/>
-      <c r="O93" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="94" spans="9:15" hidden="1">
+      <c r="O93" s="54"/>
+      <c r="Q93" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="9:17">
       <c r="I94" s="49"/>
       <c r="M94" s="49"/>
-      <c r="O94" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="9:15" hidden="1">
+      <c r="O94" s="54"/>
+      <c r="Q94" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="9:17">
       <c r="I95" s="49"/>
       <c r="M95" s="49"/>
-      <c r="O95" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="9:15" hidden="1">
+      <c r="O95" s="54"/>
+      <c r="Q95" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:17">
       <c r="I96" s="49"/>
       <c r="M96" s="49"/>
-      <c r="O96" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="9:15" hidden="1">
+      <c r="O96" s="54"/>
+      <c r="Q96" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:17">
       <c r="I97" s="49"/>
       <c r="M97" s="49"/>
-      <c r="O97" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="9:15" hidden="1">
+      <c r="O97" s="54"/>
+      <c r="Q97" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:17">
       <c r="I98" s="49"/>
       <c r="M98" s="49"/>
-      <c r="O98" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="99" spans="9:15" hidden="1">
+      <c r="O98" s="54"/>
+      <c r="Q98" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:17">
       <c r="I99" s="49"/>
       <c r="M99" s="49"/>
-      <c r="O99" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="100" spans="9:15" hidden="1">
+      <c r="O99" s="54"/>
+      <c r="Q99" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:17">
       <c r="I100" s="49"/>
       <c r="M100" s="49"/>
-      <c r="O100" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="9:15" hidden="1">
+      <c r="O100" s="54"/>
+      <c r="Q100" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:17">
       <c r="I101" s="49"/>
       <c r="M101" s="49"/>
-      <c r="O101" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="9:15" hidden="1">
+      <c r="O101" s="54"/>
+      <c r="Q101" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:17">
       <c r="I102" s="49"/>
       <c r="M102" s="49"/>
-      <c r="O102" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="9:15" hidden="1">
+      <c r="O102" s="54"/>
+      <c r="Q102" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:17">
       <c r="I103" s="49"/>
       <c r="M103" s="49"/>
-      <c r="O103" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="9:15" hidden="1">
+      <c r="O103" s="54"/>
+      <c r="Q103" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:17">
       <c r="I104" s="49"/>
       <c r="M104" s="49"/>
-      <c r="O104" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="9:15" hidden="1">
+      <c r="O104" s="54"/>
+      <c r="Q104" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:17">
       <c r="I105" s="49"/>
       <c r="M105" s="49"/>
-      <c r="O105" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="9:15" hidden="1">
+      <c r="O105" s="54"/>
+      <c r="Q105" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:17">
       <c r="I106" s="49"/>
       <c r="M106" s="49"/>
-      <c r="O106" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="9:15" hidden="1">
+      <c r="O106" s="54"/>
+      <c r="Q106" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:17">
       <c r="I107" s="49"/>
       <c r="M107" s="49"/>
-      <c r="O107" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="9:15" hidden="1">
+      <c r="O107" s="54"/>
+      <c r="Q107" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:17">
       <c r="I108" s="49"/>
       <c r="M108" s="49"/>
-      <c r="O108" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="9:15" hidden="1">
+      <c r="O108" s="54"/>
+      <c r="Q108" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:17">
       <c r="I109" s="49"/>
       <c r="M109" s="49"/>
-      <c r="O109" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="9:15" hidden="1">
-      <c r="I110" s="49"/>
-      <c r="M110" s="49"/>
-      <c r="O110" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="9:15" hidden="1">
-      <c r="I111" s="49"/>
-      <c r="M111" s="49"/>
-      <c r="O111" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="9:15" hidden="1">
-      <c r="I112" s="49"/>
-      <c r="M112" s="49"/>
-      <c r="O112" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="9:15" hidden="1">
-      <c r="I113" s="49"/>
-      <c r="M113" s="49"/>
-      <c r="O113" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="9:15" hidden="1">
-      <c r="I114" s="49"/>
-      <c r="M114" s="49"/>
-      <c r="O114" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="9:15" hidden="1">
-      <c r="I115" s="49"/>
-      <c r="M115" s="49"/>
-      <c r="O115" s="54" t="e">
-        <f>LocFeatures[[#This Row],[XP Train Gain]]/(LocFeatures[[#This Row],[E. Cost]]-LocFeatures[[#This Row],[Energy gain]])</f>
-        <v>#DIV/0!</v>
+      <c r="O109" s="54"/>
+      <c r="Q109" s="49">
+        <f>COUNTIFS(DropAnalityka[Location],LocFeatures[[#This Row],[Location]],DropAnalityka[LVL],LocFeatures[[#This Row],[LVL]],DropAnalityka[Stage],LocFeatures[[#This Row],[Stage]])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13813,8 +13897,8 @@
   <dimension ref="A1:M739"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C654" sqref="C654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13850,19 +13934,19 @@
         <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M1" t="s">
         <v>79</v>
@@ -23389,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G284">
         <v>4</v>
@@ -23411,7 +23495,7 @@
     </row>
     <row r="285" spans="1:13">
       <c r="A285" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B285" t="s">
         <v>9</v>
@@ -23426,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -23448,7 +23532,7 @@
     </row>
     <row r="286" spans="1:13">
       <c r="A286" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B286" t="s">
         <v>9</v>
@@ -23463,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -23485,7 +23569,7 @@
     </row>
     <row r="287" spans="1:13">
       <c r="A287" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
@@ -23500,7 +23584,7 @@
         <v>1</v>
       </c>
       <c r="F287" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -23522,7 +23606,7 @@
     </row>
     <row r="288" spans="1:13">
       <c r="A288" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
@@ -23537,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G288">
         <v>2</v>
@@ -23559,7 +23643,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
@@ -23574,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -23596,7 +23680,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
@@ -23611,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -23633,7 +23717,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
@@ -23648,7 +23732,7 @@
         <v>1</v>
       </c>
       <c r="F291" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G291" t="s">
         <v>13</v>
@@ -23670,7 +23754,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
@@ -23685,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G292">
         <v>2</v>
@@ -23707,7 +23791,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
@@ -23722,7 +23806,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -23744,7 +23828,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
@@ -23782,7 +23866,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
@@ -23797,7 +23881,7 @@
         <v>1</v>
       </c>
       <c r="F295" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G295">
         <v>3</v>
@@ -23819,7 +23903,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
@@ -23857,7 +23941,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B297" t="s">
         <v>9</v>
@@ -23872,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -23894,7 +23978,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
@@ -23909,7 +23993,7 @@
         <v>0</v>
       </c>
       <c r="F298" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -23931,7 +24015,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B299" t="s">
         <v>9</v>
@@ -23969,7 +24053,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B300" t="s">
         <v>9</v>
@@ -23984,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G300">
         <v>4</v>
@@ -24282,7 +24366,7 @@
         <v>1</v>
       </c>
       <c r="F309" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -25093,7 +25177,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B334" t="s">
         <v>9</v>
@@ -25155,7 +25239,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B336" t="s">
         <v>9</v>
@@ -25170,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G336">
         <v>5</v>
@@ -25518,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I347">
         <v>0</v>
@@ -26151,7 +26235,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B367" t="s">
         <v>9</v>
@@ -26182,7 +26266,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B368" t="s">
         <v>9</v>
@@ -26213,7 +26297,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B369" t="s">
         <v>9</v>
@@ -26244,7 +26328,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B370" t="s">
         <v>9</v>
@@ -26259,7 +26343,7 @@
         <v>2</v>
       </c>
       <c r="F370" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I370">
         <v>0</v>
@@ -26278,7 +26362,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B371" t="s">
         <v>9</v>
@@ -26316,7 +26400,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B372" t="s">
         <v>9</v>
@@ -26354,7 +26438,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B373" t="s">
         <v>9</v>
@@ -26385,7 +26469,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B374" t="s">
         <v>9</v>
@@ -26416,7 +26500,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B375" t="s">
         <v>9</v>
@@ -26447,7 +26531,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B376" t="s">
         <v>9</v>
@@ -26478,7 +26562,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B377" t="s">
         <v>9</v>
@@ -26509,7 +26593,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B378" t="s">
         <v>9</v>
@@ -26540,7 +26624,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B379" t="s">
         <v>9</v>
@@ -26578,7 +26662,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B380" t="s">
         <v>9</v>
@@ -26609,7 +26693,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B381" t="s">
         <v>9</v>
@@ -26647,7 +26731,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B382" t="s">
         <v>9</v>
@@ -28508,7 +28592,7 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B438" t="s">
         <v>9</v>
@@ -29473,7 +29557,7 @@
         <v>1</v>
       </c>
       <c r="F466" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I466">
         <v>0</v>
@@ -29508,7 +29592,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I467">
         <v>0</v>
@@ -29709,7 +29793,7 @@
         <v>1</v>
       </c>
       <c r="F473" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I473">
         <v>0</v>
@@ -30082,7 +30166,7 @@
         <v>1</v>
       </c>
       <c r="F484" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I484">
         <v>0</v>
@@ -30641,7 +30725,7 @@
         <v>2</v>
       </c>
       <c r="F501" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I501">
         <v>0</v>
@@ -31460,7 +31544,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B525" t="s">
         <v>9</v>
@@ -31492,7 +31576,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B526" t="s">
         <v>9</v>
@@ -31530,7 +31614,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B527" t="s">
         <v>9</v>
@@ -31562,7 +31646,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B528" t="s">
         <v>9</v>
@@ -31600,7 +31684,7 @@
     </row>
     <row r="529" spans="1:12">
       <c r="A529" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B529" t="s">
         <v>9</v>
@@ -31632,7 +31716,7 @@
     </row>
     <row r="530" spans="1:12">
       <c r="A530" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B530" t="s">
         <v>9</v>
@@ -31647,7 +31731,7 @@
         <v>0</v>
       </c>
       <c r="F530" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I530">
         <v>0</v>
@@ -31667,7 +31751,7 @@
     </row>
     <row r="531" spans="1:12">
       <c r="A531" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B531" t="s">
         <v>9</v>
@@ -31705,7 +31789,7 @@
     </row>
     <row r="532" spans="1:12">
       <c r="A532" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B532" t="s">
         <v>9</v>
@@ -31737,7 +31821,7 @@
     </row>
     <row r="533" spans="1:12">
       <c r="A533" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B533" t="s">
         <v>9</v>
@@ -31769,7 +31853,7 @@
     </row>
     <row r="534" spans="1:12">
       <c r="A534" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B534" t="s">
         <v>9</v>
@@ -31807,7 +31891,7 @@
     </row>
     <row r="535" spans="1:12">
       <c r="A535" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B535" t="s">
         <v>9</v>
@@ -31845,7 +31929,7 @@
     </row>
     <row r="536" spans="1:12">
       <c r="A536" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B536" t="s">
         <v>9</v>
@@ -31860,7 +31944,7 @@
         <v>0</v>
       </c>
       <c r="F536" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G536">
         <v>1</v>
@@ -31883,7 +31967,7 @@
     </row>
     <row r="537" spans="1:12">
       <c r="A537" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B537" t="s">
         <v>9</v>
@@ -31921,7 +32005,7 @@
     </row>
     <row r="538" spans="1:12">
       <c r="A538" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B538" t="s">
         <v>9</v>
@@ -31936,7 +32020,7 @@
         <v>1</v>
       </c>
       <c r="F538" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G538">
         <v>1</v>
@@ -31959,7 +32043,7 @@
     </row>
     <row r="539" spans="1:12">
       <c r="A539" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B539" t="s">
         <v>9</v>
@@ -31974,7 +32058,7 @@
         <v>0</v>
       </c>
       <c r="F539" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G539">
         <v>1</v>
@@ -31997,7 +32081,7 @@
     </row>
     <row r="540" spans="1:12">
       <c r="A540" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B540" t="s">
         <v>9</v>
@@ -32012,7 +32096,7 @@
         <v>0</v>
       </c>
       <c r="F540" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G540">
         <v>2</v>
@@ -32035,7 +32119,7 @@
     </row>
     <row r="541" spans="1:12">
       <c r="A541" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B541" t="s">
         <v>9</v>
@@ -32073,7 +32157,7 @@
     </row>
     <row r="542" spans="1:12">
       <c r="A542" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B542" t="s">
         <v>9</v>
@@ -32111,7 +32195,7 @@
     </row>
     <row r="543" spans="1:12">
       <c r="A543" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B543" t="s">
         <v>9</v>
@@ -32149,7 +32233,7 @@
     </row>
     <row r="544" spans="1:12">
       <c r="A544" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B544" t="s">
         <v>9</v>
@@ -32187,7 +32271,7 @@
     </row>
     <row r="545" spans="1:12">
       <c r="A545" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B545" t="s">
         <v>9</v>
@@ -32225,7 +32309,7 @@
     </row>
     <row r="546" spans="1:12">
       <c r="A546" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B546" t="s">
         <v>9</v>
@@ -32263,7 +32347,7 @@
     </row>
     <row r="547" spans="1:12">
       <c r="A547" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B547" t="s">
         <v>9</v>
@@ -32301,7 +32385,7 @@
     </row>
     <row r="548" spans="1:12">
       <c r="A548" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B548" t="s">
         <v>9</v>
@@ -32316,7 +32400,7 @@
         <v>0</v>
       </c>
       <c r="F548" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G548">
         <v>1</v>
@@ -32339,7 +32423,7 @@
     </row>
     <row r="549" spans="1:12">
       <c r="A549" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B549" t="s">
         <v>9</v>
@@ -32377,7 +32461,7 @@
     </row>
     <row r="550" spans="1:12">
       <c r="A550" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B550" t="s">
         <v>9</v>
@@ -32415,7 +32499,7 @@
     </row>
     <row r="551" spans="1:12">
       <c r="A551" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B551" t="s">
         <v>9</v>
@@ -32453,7 +32537,7 @@
     </row>
     <row r="552" spans="1:12">
       <c r="A552" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B552" t="s">
         <v>9</v>
@@ -32491,7 +32575,7 @@
     </row>
     <row r="553" spans="1:12">
       <c r="A553" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B553" t="s">
         <v>9</v>
@@ -32529,7 +32613,7 @@
     </row>
     <row r="554" spans="1:12">
       <c r="A554" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B554" t="s">
         <v>9</v>
@@ -32567,7 +32651,7 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B555" t="s">
         <v>9</v>
@@ -32582,7 +32666,7 @@
         <v>0</v>
       </c>
       <c r="F555" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G555">
         <v>1</v>
@@ -32605,7 +32689,7 @@
     </row>
     <row r="556" spans="1:12">
       <c r="A556" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B556" t="s">
         <v>9</v>
@@ -32620,7 +32704,7 @@
         <v>3</v>
       </c>
       <c r="F556" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G556">
         <v>1</v>
@@ -32643,7 +32727,7 @@
     </row>
     <row r="557" spans="1:12">
       <c r="A557" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B557" t="s">
         <v>9</v>
@@ -32658,7 +32742,7 @@
         <v>0</v>
       </c>
       <c r="F557" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -32681,7 +32765,7 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B558" t="s">
         <v>9</v>
@@ -32719,7 +32803,7 @@
     </row>
     <row r="559" spans="1:12">
       <c r="A559" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B559" t="s">
         <v>9</v>
@@ -32757,7 +32841,7 @@
     </row>
     <row r="560" spans="1:12">
       <c r="A560" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B560" t="s">
         <v>9</v>
@@ -32772,7 +32856,7 @@
         <v>1</v>
       </c>
       <c r="F560" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G560" t="s">
         <v>18</v>
@@ -32795,7 +32879,7 @@
     </row>
     <row r="561" spans="1:12">
       <c r="A561" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B561" t="s">
         <v>9</v>
@@ -32833,7 +32917,7 @@
     </row>
     <row r="562" spans="1:12">
       <c r="A562" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B562" t="s">
         <v>9</v>
@@ -32871,7 +32955,7 @@
     </row>
     <row r="563" spans="1:12">
       <c r="A563" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B563" t="s">
         <v>9</v>
@@ -32886,7 +32970,7 @@
         <v>3</v>
       </c>
       <c r="F563" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G563">
         <v>1</v>
@@ -32909,7 +32993,7 @@
     </row>
     <row r="564" spans="1:12">
       <c r="A564" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B564" t="s">
         <v>9</v>
@@ -32924,7 +33008,7 @@
         <v>1</v>
       </c>
       <c r="F564" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G564">
         <v>1</v>
@@ -32947,7 +33031,7 @@
     </row>
     <row r="565" spans="1:12">
       <c r="A565" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B565" t="s">
         <v>9</v>
@@ -32962,7 +33046,7 @@
         <v>1</v>
       </c>
       <c r="F565" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G565">
         <v>2</v>
@@ -32985,7 +33069,7 @@
     </row>
     <row r="566" spans="1:12">
       <c r="A566" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B566" t="s">
         <v>9</v>
@@ -33023,7 +33107,7 @@
     </row>
     <row r="567" spans="1:12">
       <c r="A567" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B567" t="s">
         <v>9</v>
@@ -33038,7 +33122,7 @@
         <v>0</v>
       </c>
       <c r="F567" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G567">
         <v>3</v>
@@ -33570,7 +33654,7 @@
         <v>1</v>
       </c>
       <c r="F581" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G581">
         <v>1</v>
@@ -33646,7 +33730,7 @@
         <v>1</v>
       </c>
       <c r="F583" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G583">
         <v>2</v>
@@ -33669,7 +33753,7 @@
     </row>
     <row r="584" spans="1:12">
       <c r="A584" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B584" t="s">
         <v>9</v>
@@ -33690,7 +33774,7 @@
         <v>29</v>
       </c>
       <c r="H584" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I584">
         <v>3307</v>
@@ -33716,7 +33800,7 @@
         <v>32</v>
       </c>
       <c r="C585">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D585">
         <v>707</v>
@@ -33748,7 +33832,7 @@
         <v>32</v>
       </c>
       <c r="C586">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D586">
         <v>1504</v>
@@ -33783,7 +33867,7 @@
         <v>32</v>
       </c>
       <c r="C587">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D587">
         <v>1442</v>
@@ -33818,7 +33902,7 @@
         <v>32</v>
       </c>
       <c r="C588">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D588">
         <v>1510</v>
@@ -33850,7 +33934,7 @@
         <v>32</v>
       </c>
       <c r="C589">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D589">
         <v>1606</v>
@@ -33885,7 +33969,7 @@
         <v>32</v>
       </c>
       <c r="C590">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D590">
         <v>1532</v>
@@ -33920,7 +34004,7 @@
         <v>32</v>
       </c>
       <c r="C591">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D591">
         <v>1918</v>
@@ -33952,7 +34036,7 @@
         <v>32</v>
       </c>
       <c r="C592">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D592">
         <v>2175</v>
@@ -33987,7 +34071,7 @@
         <v>32</v>
       </c>
       <c r="C593">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D593">
         <v>1952</v>
@@ -34019,7 +34103,7 @@
         <v>32</v>
       </c>
       <c r="C594">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D594">
         <v>2050</v>
@@ -34051,7 +34135,7 @@
         <v>32</v>
       </c>
       <c r="C595">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D595">
         <v>1235</v>
@@ -34083,7 +34167,7 @@
         <v>32</v>
       </c>
       <c r="C596">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D596">
         <v>1960</v>
@@ -34115,7 +34199,7 @@
         <v>32</v>
       </c>
       <c r="C597">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D597">
         <v>1632</v>
@@ -34147,7 +34231,7 @@
         <v>32</v>
       </c>
       <c r="C598">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D598">
         <v>1128</v>
@@ -34179,7 +34263,7 @@
         <v>32</v>
       </c>
       <c r="C599">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D599">
         <v>1864</v>
@@ -34214,7 +34298,7 @@
         <v>32</v>
       </c>
       <c r="C600">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D600">
         <v>1372</v>
@@ -34246,7 +34330,7 @@
         <v>32</v>
       </c>
       <c r="C601">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D601">
         <v>1560</v>
@@ -34278,7 +34362,7 @@
         <v>32</v>
       </c>
       <c r="C602">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D602">
         <v>971</v>
@@ -34310,7 +34394,7 @@
         <v>32</v>
       </c>
       <c r="C603">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D603">
         <v>1750</v>
@@ -34342,7 +34426,7 @@
         <v>32</v>
       </c>
       <c r="C604">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D604">
         <v>586</v>
@@ -34377,7 +34461,7 @@
         <v>32</v>
       </c>
       <c r="C605">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D605">
         <v>1287</v>
@@ -34412,7 +34496,7 @@
         <v>32</v>
       </c>
       <c r="C606">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D606">
         <v>1485</v>
@@ -34447,7 +34531,7 @@
         <v>32</v>
       </c>
       <c r="C607">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D607">
         <v>2328</v>
@@ -34479,7 +34563,7 @@
         <v>32</v>
       </c>
       <c r="C608">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D608">
         <v>1784</v>
@@ -34514,7 +34598,7 @@
         <v>32</v>
       </c>
       <c r="C609">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D609">
         <v>2122</v>
@@ -34546,7 +34630,7 @@
         <v>32</v>
       </c>
       <c r="C610">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D610">
         <v>1311</v>
@@ -34578,7 +34662,7 @@
         <v>32</v>
       </c>
       <c r="C611">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D611">
         <v>1185</v>
@@ -34613,7 +34697,7 @@
         <v>32</v>
       </c>
       <c r="C612">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D612">
         <v>1211</v>
@@ -34645,7 +34729,7 @@
         <v>32</v>
       </c>
       <c r="C613">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D613">
         <v>1078</v>
@@ -34677,7 +34761,7 @@
         <v>32</v>
       </c>
       <c r="C614">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D614">
         <v>1832</v>
@@ -34709,7 +34793,7 @@
         <v>32</v>
       </c>
       <c r="C615">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D615">
         <v>1974</v>
@@ -34735,433 +34819,937 @@
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B616" t="s">
+        <v>34</v>
+      </c>
+      <c r="C616">
+        <v>3</v>
+      </c>
+      <c r="D616">
+        <v>1628</v>
+      </c>
+      <c r="E616">
+        <v>2</v>
+      </c>
+      <c r="I616">
+        <v>1159</v>
+      </c>
+      <c r="J616">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1159</v>
+      </c>
+      <c r="K616" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L616" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12">
+      <c r="A617" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B617" t="s">
+        <v>34</v>
+      </c>
+      <c r="C617">
+        <v>3</v>
+      </c>
+      <c r="D617">
+        <v>1636</v>
+      </c>
+      <c r="E617">
+        <v>2</v>
+      </c>
+      <c r="I617">
+        <v>1159</v>
+      </c>
+      <c r="J617">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1159</v>
+      </c>
+      <c r="K617" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L617" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12">
+      <c r="A618" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B618" t="s">
+        <v>34</v>
+      </c>
+      <c r="C618">
+        <v>3</v>
+      </c>
+      <c r="D618">
+        <v>2219</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+      <c r="I618">
+        <v>1159</v>
+      </c>
+      <c r="J618">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1159</v>
+      </c>
+      <c r="K618" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L618" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12">
+      <c r="A619" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B619" t="s">
         <v>32</v>
       </c>
-      <c r="C616">
+      <c r="C619">
+        <v>11</v>
+      </c>
+      <c r="D619">
+        <v>2000</v>
+      </c>
+      <c r="E619">
+        <v>2</v>
+      </c>
+      <c r="F619" t="s">
+        <v>36</v>
+      </c>
+      <c r="G619">
+        <v>2</v>
+      </c>
+      <c r="J619">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>4000</v>
+      </c>
+      <c r="K619" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L619" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12">
+      <c r="A620" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B620" t="s">
+        <v>32</v>
+      </c>
+      <c r="C620">
+        <v>11</v>
+      </c>
+      <c r="D620">
+        <v>1918</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620" t="s">
+        <v>36</v>
+      </c>
+      <c r="G620">
+        <v>2</v>
+      </c>
+      <c r="J620">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>4000</v>
+      </c>
+      <c r="K620" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L620" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12">
+      <c r="A621" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B621" t="s">
+        <v>32</v>
+      </c>
+      <c r="C621">
+        <v>11</v>
+      </c>
+      <c r="D621">
+        <v>1961</v>
+      </c>
+      <c r="E621">
+        <v>1</v>
+      </c>
+      <c r="F621" t="s">
+        <v>36</v>
+      </c>
+      <c r="G621">
+        <v>2</v>
+      </c>
+      <c r="J621">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>4000</v>
+      </c>
+      <c r="K621" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L621" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12">
+      <c r="A622" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B622" t="s">
+        <v>32</v>
+      </c>
+      <c r="C622">
+        <v>11</v>
+      </c>
+      <c r="D622">
+        <v>1686</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="I622">
+        <v>1824</v>
+      </c>
+      <c r="J622">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K622" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L622" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12">
+      <c r="A623" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B623" t="s">
+        <v>32</v>
+      </c>
+      <c r="C623">
+        <v>11</v>
+      </c>
+      <c r="D623">
+        <v>1336</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+      <c r="I623">
+        <v>1976</v>
+      </c>
+      <c r="J623">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1976</v>
+      </c>
+      <c r="K623" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L623" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12">
+      <c r="A624" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B624" t="s">
+        <v>32</v>
+      </c>
+      <c r="C624">
+        <v>11</v>
+      </c>
+      <c r="D624">
+        <v>2019</v>
+      </c>
+      <c r="E624">
+        <v>2</v>
+      </c>
+      <c r="I624">
+        <v>1976</v>
+      </c>
+      <c r="J624">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1976</v>
+      </c>
+      <c r="K624" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L624" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12">
+      <c r="A625" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B625" t="s">
+        <v>32</v>
+      </c>
+      <c r="C625">
+        <v>11</v>
+      </c>
+      <c r="D625">
+        <v>2327</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+      <c r="I625">
+        <v>1824</v>
+      </c>
+      <c r="J625">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K625" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L625" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12">
+      <c r="A626" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B626" t="s">
+        <v>32</v>
+      </c>
+      <c r="C626">
+        <v>11</v>
+      </c>
+      <c r="D626">
+        <v>1196</v>
+      </c>
+      <c r="E626">
+        <v>0</v>
+      </c>
+      <c r="I626">
+        <v>1824</v>
+      </c>
+      <c r="J626">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K626" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L626" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12">
+      <c r="A627" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B627" t="s">
+        <v>32</v>
+      </c>
+      <c r="C627">
+        <v>11</v>
+      </c>
+      <c r="D627">
+        <v>1637</v>
+      </c>
+      <c r="E627">
+        <v>0</v>
+      </c>
+      <c r="I627">
+        <v>2937</v>
+      </c>
+      <c r="J627">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>2937</v>
+      </c>
+      <c r="K627" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L627" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12">
+      <c r="A628" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B628" t="s">
+        <v>32</v>
+      </c>
+      <c r="C628">
+        <v>11</v>
+      </c>
+      <c r="D628">
+        <v>1391</v>
+      </c>
+      <c r="E628">
+        <v>2</v>
+      </c>
+      <c r="I628">
+        <v>1824</v>
+      </c>
+      <c r="J628">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K628" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L628" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12">
+      <c r="A629" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B629" t="s">
+        <v>32</v>
+      </c>
+      <c r="C629">
+        <v>11</v>
+      </c>
+      <c r="D629">
+        <v>895</v>
+      </c>
+      <c r="E629">
+        <v>0</v>
+      </c>
+      <c r="I629">
+        <v>1824</v>
+      </c>
+      <c r="J629">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K629" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L629" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12">
+      <c r="A630" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B630" t="s">
+        <v>32</v>
+      </c>
+      <c r="C630">
+        <v>11</v>
+      </c>
+      <c r="D630">
+        <v>1297</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="I630">
+        <v>1824</v>
+      </c>
+      <c r="J630">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K630" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L630" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12">
+      <c r="A631" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B631" t="s">
+        <v>32</v>
+      </c>
+      <c r="C631">
+        <v>11</v>
+      </c>
+      <c r="D631">
+        <v>1906</v>
+      </c>
+      <c r="E631">
+        <v>1</v>
+      </c>
+      <c r="I631">
+        <v>1824</v>
+      </c>
+      <c r="J631">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1824</v>
+      </c>
+      <c r="K631" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L631" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12">
+      <c r="A632" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B632" t="s">
+        <v>32</v>
+      </c>
+      <c r="C632">
+        <v>11</v>
+      </c>
+      <c r="D632">
+        <v>1554</v>
+      </c>
+      <c r="E632">
+        <v>0</v>
+      </c>
+      <c r="I632">
+        <v>2937</v>
+      </c>
+      <c r="J632">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>2937</v>
+      </c>
+      <c r="K632" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L632" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12">
+      <c r="A633" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C633">
+        <v>11</v>
+      </c>
+      <c r="D633">
+        <v>1561</v>
+      </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
+      <c r="I633">
+        <v>3182</v>
+      </c>
+      <c r="J633">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>3182</v>
+      </c>
+      <c r="K633" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L633" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12">
+      <c r="A634" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B634" t="s">
+        <v>32</v>
+      </c>
+      <c r="C634">
+        <v>11</v>
+      </c>
+      <c r="D634">
+        <v>1059</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="I634">
+        <v>2128</v>
+      </c>
+      <c r="J634">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>2128</v>
+      </c>
+      <c r="K634" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L634" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12">
+      <c r="A635" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B635" t="s">
+        <v>32</v>
+      </c>
+      <c r="C635">
+        <v>11</v>
+      </c>
+      <c r="D635">
+        <v>1954</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+      <c r="F635" t="s">
+        <v>36</v>
+      </c>
+      <c r="G635">
+        <v>2</v>
+      </c>
+      <c r="J635">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>4000</v>
+      </c>
+      <c r="K635" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L635" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12">
+      <c r="A636" t="s">
         <v>8</v>
       </c>
-      <c r="J616">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K616" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L616" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="1:12">
-      <c r="C617">
+      <c r="B636" t="s">
+        <v>34</v>
+      </c>
+      <c r="C636">
+        <v>13</v>
+      </c>
+      <c r="D636">
+        <v>1836</v>
+      </c>
+      <c r="E636">
+        <v>1</v>
+      </c>
+      <c r="I636">
+        <v>1352</v>
+      </c>
+      <c r="J636">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1352</v>
+      </c>
+      <c r="K636" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L636" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12">
+      <c r="A637" t="s">
         <v>8</v>
       </c>
-      <c r="J617">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K617" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L617" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:12">
-      <c r="C618">
+      <c r="B637" t="s">
+        <v>34</v>
+      </c>
+      <c r="C637">
+        <v>13</v>
+      </c>
+      <c r="D637">
+        <v>1596</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
+      <c r="F637" t="s">
+        <v>36</v>
+      </c>
+      <c r="G637">
+        <v>3</v>
+      </c>
+      <c r="J637">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>6000</v>
+      </c>
+      <c r="K637" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L637" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12">
+      <c r="A638" t="s">
         <v>8</v>
       </c>
-      <c r="J618">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K618" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L618" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:12">
-      <c r="C619">
+      <c r="B638" t="s">
+        <v>34</v>
+      </c>
+      <c r="C638">
+        <v>13</v>
+      </c>
+      <c r="D638">
+        <v>1249</v>
+      </c>
+      <c r="E638">
+        <v>1</v>
+      </c>
+      <c r="I638">
+        <v>1352</v>
+      </c>
+      <c r="J638">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1352</v>
+      </c>
+      <c r="K638" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L638" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12">
+      <c r="A639" t="s">
         <v>8</v>
       </c>
-      <c r="J619">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K619" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L619" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:12">
-      <c r="C620">
+      <c r="B639" t="s">
+        <v>34</v>
+      </c>
+      <c r="C639">
+        <v>13</v>
+      </c>
+      <c r="D639">
+        <v>1211</v>
+      </c>
+      <c r="E639">
+        <v>1</v>
+      </c>
+      <c r="I639">
+        <v>1352</v>
+      </c>
+      <c r="J639">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1352</v>
+      </c>
+      <c r="K639" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L639" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12">
+      <c r="A640" t="s">
         <v>8</v>
       </c>
-      <c r="J620">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K620" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L620" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:12">
-      <c r="C621">
+      <c r="B640" t="s">
+        <v>34</v>
+      </c>
+      <c r="C640">
+        <v>13</v>
+      </c>
+      <c r="D640">
+        <v>1264</v>
+      </c>
+      <c r="E640">
+        <v>2</v>
+      </c>
+      <c r="I640">
+        <v>2411</v>
+      </c>
+      <c r="J640">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>2411</v>
+      </c>
+      <c r="K640" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L640" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13">
+      <c r="A641" t="s">
         <v>8</v>
       </c>
-      <c r="J621">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K621" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L621" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:12">
-      <c r="C622">
+      <c r="B641" t="s">
+        <v>34</v>
+      </c>
+      <c r="C641">
+        <v>13</v>
+      </c>
+      <c r="D641">
+        <v>2595</v>
+      </c>
+      <c r="E641">
+        <v>0</v>
+      </c>
+      <c r="I641">
+        <v>2067</v>
+      </c>
+      <c r="J641">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>2067</v>
+      </c>
+      <c r="K641" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L641" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13">
+      <c r="A642" t="s">
         <v>8</v>
       </c>
-      <c r="J622">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K622" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L622" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:12">
-      <c r="C623">
+      <c r="B642" t="s">
+        <v>34</v>
+      </c>
+      <c r="C642">
+        <v>13</v>
+      </c>
+      <c r="D642">
+        <v>1424</v>
+      </c>
+      <c r="E642">
+        <v>2</v>
+      </c>
+      <c r="I642">
+        <v>1159</v>
+      </c>
+      <c r="J642">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1159</v>
+      </c>
+      <c r="K642" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L642" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13">
+      <c r="A643" t="s">
         <v>8</v>
       </c>
-      <c r="J623">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K623" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L623" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:12">
-      <c r="C624">
+      <c r="B643" t="s">
+        <v>34</v>
+      </c>
+      <c r="C643">
+        <v>13</v>
+      </c>
+      <c r="D643">
+        <v>1971</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+      <c r="I643">
+        <v>1159</v>
+      </c>
+      <c r="J643">
+        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
+        <v>1159</v>
+      </c>
+      <c r="K643" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="L643" s="49">
+        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13">
+      <c r="A644" t="s">
         <v>8</v>
       </c>
-      <c r="J624">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K624" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L624" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="10:12">
-      <c r="J625">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K625" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L625" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="10:12">
-      <c r="J626">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K626" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L626" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="10:12">
-      <c r="J627">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K627" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L627" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="10:12">
-      <c r="J628">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K628" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L628" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="10:12">
-      <c r="J629">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K629" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L629" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="10:12">
-      <c r="J630">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K630" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L630" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="10:12">
-      <c r="J631">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K631" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L631" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="10:12">
-      <c r="J632">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K632" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L632" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="10:12">
-      <c r="J633">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K633" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L633" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="10:12">
-      <c r="J634">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K634" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L634" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="10:12">
-      <c r="J635">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K635" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L635" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="10:12">
-      <c r="J636">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K636" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L636" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="10:12">
-      <c r="J637">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K637" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L637" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="10:12">
-      <c r="J638">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K638" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L638" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="10:12">
-      <c r="J639">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K639" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L639" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="10:12">
-      <c r="J640">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K640" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L640" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="10:12">
-      <c r="J641">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K641" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L641" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="10:12">
-      <c r="J642">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K642" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L642" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="10:12">
-      <c r="J643">
-        <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K643" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L643" s="49">
-        <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="10:12">
+      <c r="B644" t="s">
+        <v>34</v>
+      </c>
+      <c r="C644">
+        <v>13</v>
+      </c>
+      <c r="D644">
+        <v>2145</v>
+      </c>
+      <c r="E644">
+        <v>0</v>
+      </c>
+      <c r="I644">
+        <v>2067</v>
+      </c>
       <c r="J644">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="K644" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35172,10 +35760,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="10:12">
+    <row r="645" spans="1:13">
+      <c r="A645" t="s">
+        <v>8</v>
+      </c>
+      <c r="B645" t="s">
+        <v>34</v>
+      </c>
+      <c r="C645">
+        <v>13</v>
+      </c>
+      <c r="D645">
+        <v>2223</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+      <c r="I645">
+        <v>1546</v>
+      </c>
       <c r="J645">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="K645" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35186,10 +35792,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="10:12">
+    <row r="646" spans="1:13">
+      <c r="A646" t="s">
+        <v>8</v>
+      </c>
+      <c r="B646" t="s">
+        <v>34</v>
+      </c>
+      <c r="C646">
+        <v>13</v>
+      </c>
+      <c r="D646">
+        <v>2364</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+      <c r="I646">
+        <v>1159</v>
+      </c>
       <c r="J646">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="K646" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35200,10 +35824,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="10:12">
+    <row r="647" spans="1:13">
+      <c r="A647" t="s">
+        <v>8</v>
+      </c>
+      <c r="B647" t="s">
+        <v>34</v>
+      </c>
+      <c r="C647">
+        <v>13</v>
+      </c>
+      <c r="D647">
+        <v>781</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="I647">
+        <v>2067</v>
+      </c>
       <c r="J647">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="K647" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35214,10 +35856,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="10:12">
+    <row r="648" spans="1:13">
+      <c r="A648" t="s">
+        <v>8</v>
+      </c>
+      <c r="B648" t="s">
+        <v>34</v>
+      </c>
+      <c r="C648">
+        <v>13</v>
+      </c>
+      <c r="D648">
+        <v>904</v>
+      </c>
+      <c r="E648">
+        <v>2</v>
+      </c>
+      <c r="F648" t="s">
+        <v>36</v>
+      </c>
+      <c r="G648">
+        <v>3</v>
+      </c>
       <c r="J648">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="K648" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35228,10 +35891,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="10:12">
+    <row r="649" spans="1:13">
+      <c r="A649" t="s">
+        <v>8</v>
+      </c>
+      <c r="B649" t="s">
+        <v>34</v>
+      </c>
+      <c r="C649">
+        <v>13</v>
+      </c>
+      <c r="D649">
+        <v>1500</v>
+      </c>
+      <c r="E649">
+        <v>0</v>
+      </c>
+      <c r="I649">
+        <v>1159</v>
+      </c>
       <c r="J649">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="K649" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35242,10 +35923,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="10:12">
+    <row r="650" spans="1:13">
+      <c r="A650" t="s">
+        <v>8</v>
+      </c>
+      <c r="B650" t="s">
+        <v>34</v>
+      </c>
+      <c r="C650">
+        <v>13</v>
+      </c>
+      <c r="D650">
+        <v>1071</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="I650">
+        <v>1159</v>
+      </c>
       <c r="J650">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="K650" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35256,10 +35955,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="10:12">
+    <row r="651" spans="1:13">
+      <c r="A651" t="s">
+        <v>8</v>
+      </c>
+      <c r="B651" t="s">
+        <v>34</v>
+      </c>
+      <c r="C651">
+        <v>13</v>
+      </c>
+      <c r="D651">
+        <v>1683</v>
+      </c>
+      <c r="E651">
+        <v>2</v>
+      </c>
+      <c r="I651">
+        <v>1159</v>
+      </c>
       <c r="J651">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="K651" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35270,10 +35987,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="10:12">
+    <row r="652" spans="1:13">
+      <c r="A652" t="s">
+        <v>8</v>
+      </c>
+      <c r="B652" t="s">
+        <v>34</v>
+      </c>
+      <c r="C652">
+        <v>13</v>
+      </c>
+      <c r="D652">
+        <v>1102</v>
+      </c>
+      <c r="E652">
+        <v>0</v>
+      </c>
+      <c r="I652">
+        <v>1159</v>
+      </c>
       <c r="J652">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="K652" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35284,10 +36019,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="10:12">
+    <row r="653" spans="1:13">
+      <c r="A653" t="s">
+        <v>8</v>
+      </c>
+      <c r="B653" t="s">
+        <v>34</v>
+      </c>
+      <c r="C653">
+        <v>13</v>
+      </c>
+      <c r="D653">
+        <v>1495</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+      <c r="F653" t="s">
+        <v>36</v>
+      </c>
+      <c r="G653">
+        <v>3</v>
+      </c>
       <c r="J653">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="K653" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35297,11 +36053,32 @@
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),15120,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),66062,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),66062,0)))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="654" spans="10:12">
+      <c r="M653">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13">
+      <c r="A654" t="s">
+        <v>33</v>
+      </c>
+      <c r="B654" t="s">
+        <v>32</v>
+      </c>
+      <c r="C654">
+        <v>11</v>
+      </c>
+      <c r="D654">
+        <v>946</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
+      </c>
+      <c r="I654">
+        <v>1824</v>
+      </c>
       <c r="J654">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="K654" s="49">
         <f>IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Fod",DropAnalityka[[#This Row],[Quality/Quantity]]="3*"),34500,IF(AND(DropAnalityka[[#This Row],[Drop]]="Rainb",DropAnalityka[[#This Row],[Quality/Quantity]]="2*"),11500,0)))</f>
@@ -35312,7 +36089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="10:12">
+    <row r="655" spans="1:13">
       <c r="J655">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -35326,7 +36103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="10:12">
+    <row r="656" spans="1:13">
       <c r="J656">
         <f>DropAnalityka[[#This Row],[Sell Drop]]+IF(DropAnalityka[[#This Row],[Drop]]="Scroll", 2000*DropAnalityka[[#This Row],[Quality/Quantity]],0)</f>
         <v>0</v>
@@ -36572,12 +37349,12 @@
         <v>293.25806451612902</v>
       </c>
       <c r="C3" s="6">
-        <f>(B3)*'Location features'!$P$9</f>
-        <v>390558.36234058515</v>
+        <f>(B3)*'Location features'!$P$6</f>
+        <v>726956.99111734459</v>
       </c>
       <c r="D3">
         <f>'EXP lvls'!O10/Summary!C3</f>
-        <v>0.38713804281099101</v>
+        <v>5.2413554674583978</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1">
@@ -36633,19 +37410,19 @@
         <v>153</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="U9" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickTop="1">
@@ -37097,11 +37874,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ref="B18:B21" si="3">(2*$G18+$H18)/($O18-$N18)*L18</f>
-        <v>2691106.2316715545</v>
+        <v>2695734.8973607039</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:C21" si="4">($G18+$H18)/($O18-$N18)*M18</f>
-        <v>2212931.6367302057</v>
+        <v>2202780.8585858587</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -37135,11 +37912,11 @@
       </c>
       <c r="M18">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N18">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O18">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I18,LocFeatures[[#All],[LVL]],Summary!$J18,LocFeatures[[#All],[Stage]],Summary!$K18)</f>
@@ -37152,11 +37929,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>4416524.1516547967</v>
+        <v>4424120.5124247577</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
-        <v>1815882.6107561796</v>
+        <v>1807553.1073896864</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -37190,11 +37967,11 @@
       </c>
       <c r="M19">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N19">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O19">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I19,LocFeatures[[#All],[LVL]],Summary!$J19,LocFeatures[[#All],[Stage]],Summary!$K19)</f>
@@ -37207,11 +37984,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>4049920.2555509005</v>
+        <v>4056886.0626639915</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
-        <v>1764413.2925743612</v>
+        <v>1756319.8803827749</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -37246,11 +38023,11 @@
       </c>
       <c r="M20">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N20">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O20">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I20,LocFeatures[[#All],[LVL]],Summary!$J20,LocFeatures[[#All],[Stage]],Summary!$K20)</f>
@@ -37263,11 +38040,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>3898014.7151235859</v>
+        <v>3904719.2467973451</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
-        <v>1764413.2925743612</v>
+        <v>1756319.8803827749</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -37302,11 +38079,11 @@
       </c>
       <c r="M21">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N21">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O21">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I21,LocFeatures[[#All],[LVL]],Summary!$J21,LocFeatures[[#All],[Stage]],Summary!$K21)</f>
@@ -37319,11 +38096,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22" si="5">(2*$G22+$H22)/($O22-$N22)*L22</f>
-        <v>1548304.2450087226</v>
+        <v>1550967.3070056415</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22" si="6">($G22+$H22)/($O22-$N22)*M22</f>
-        <v>636595.35375072702</v>
+        <v>633675.27339379641</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -37357,11 +38134,11 @@
       </c>
       <c r="M22">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N22">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O22">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I22,LocFeatures[[#All],[LVL]],Summary!$J22,LocFeatures[[#All],[Stage]],Summary!$K22)</f>
@@ -37374,11 +38151,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23" si="8">(2*$G23+$H23)/($O23-$N23)*L23</f>
-        <v>2060827.3146208632</v>
+        <v>2064371.909245254</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23" si="9">($G23+$H23)/($O23-$N23)*M23</f>
-        <v>847322.54503560963</v>
+        <v>843435.85326953745</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -37412,11 +38189,11 @@
       </c>
       <c r="M23">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N23">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O23">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I23,LocFeatures[[#All],[LVL]],Summary!$J23,LocFeatures[[#All],[Stage]],Summary!$K23)</f>
@@ -37429,11 +38206,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ref="B24:B26" si="10">(2*$G24+$H24)/($O24-$N24)*L24</f>
-        <v>4331579.3464599913</v>
+        <v>4339029.6033338476</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:C26" si="11">($G24+$H24)/($O24-$N24)*M24</f>
-        <v>1780957.0019899455</v>
+        <v>1772787.703349282</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -37464,11 +38241,11 @@
       </c>
       <c r="M24">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N24">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O24">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I24,LocFeatures[[#All],[LVL]],Summary!$J24,LocFeatures[[#All],[Stage]],Summary!$K24)</f>
@@ -37960,29 +38737,29 @@
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I33,LocFeatures[[#All],[LVL]],Summary!$J33,LocFeatures[[#All],[Stage]],Summary!$K33)</f>
         <v>3</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="e">
         <f>3600/SUMIFS(LocFeatures[[#All],[TimeToComplete Sek]],LocFeatures[[#All],[Location]],Summary!$I33,LocFeatures[[#All],[LVL]],Summary!$J33,LocFeatures[[#All],[Stage]],Summary!$K33)</f>
-        <v>58.064516129032256</v>
-      </c>
-      <c r="Q33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" t="e">
         <f>P33*$L33</f>
-        <v>175587.09677419355</v>
-      </c>
-      <c r="R33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" t="e">
         <f>P33*($O33-$N33)</f>
-        <v>123.29749103942653</v>
-      </c>
-      <c r="S33" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="2" t="e">
         <f>3600/SUMIFS(LocFeatures[[#All],[TimeToComplete Sek2]],LocFeatures[[#All],[Location]],Summary!$I33,LocFeatures[[#All],[LVL]],Summary!$J33,LocFeatures[[#All],[Stage]],Summary!$K33)</f>
-        <v>28.8</v>
-      </c>
-      <c r="T33" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="2" t="e">
         <f>S33*$L33*3/2</f>
-        <v>130636.79999999999</v>
-      </c>
-      <c r="U33" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="2" t="e">
         <f>S33*($O33-$N33)</f>
-        <v>61.155555555555559</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -37991,11 +38768,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="18"/>
-        <v>947603.288646837</v>
+        <v>949233.15326439263</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="19"/>
-        <v>389613.25120444078</v>
+        <v>387826.08452950552</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -38026,11 +38803,11 @@
       </c>
       <c r="M34">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N34">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O34">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I34,LocFeatures[[#All],[LVL]],Summary!$J34,LocFeatures[[#All],[Stage]],Summary!$K34)</f>
@@ -38043,11 +38820,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:B40" si="22">(2*$G35+$H35)/($O35-$N35)*L35</f>
-        <v>719247.42354419769</v>
+        <v>720484.51921592839</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ref="C35:C40" si="23">($G35+$H35)/($O35-$N35)*M35</f>
-        <v>591446.5060745707</v>
+        <v>588733.52472089301</v>
       </c>
       <c r="D35">
         <v>90</v>
@@ -38081,11 +38858,11 @@
       </c>
       <c r="M35">
         <f>SUMIFS(LocFeatures[[#All],[Drop worth gain]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
-        <v>4440.4901960784318</v>
+        <v>4412.5320512820508</v>
       </c>
       <c r="N35">
         <f>SUMIFS(LocFeatures[[#All],[Energy gain]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
-        <v>0.97385620915032678</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="O35">
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I35,LocFeatures[[#All],[LVL]],Summary!$J35,LocFeatures[[#All],[Stage]],Summary!$K35)</f>
@@ -38253,22 +39030,22 @@
         <f>SUMIFS(LocFeatures[[#All],[E. Cost]],LocFeatures[[#All],[Location]],Summary!$I38,LocFeatures[[#All],[LVL]],Summary!$J38,LocFeatures[[#All],[Stage]],Summary!$K38)</f>
         <v>4</v>
       </c>
-      <c r="P38">
+      <c r="P38" t="e">
         <f>3600/SUMIFS(LocFeatures[[#All],[TimeToComplete Sek]],LocFeatures[[#All],[Location]],Summary!$I38,LocFeatures[[#All],[LVL]],Summary!$J38,LocFeatures[[#All],[Stage]],Summary!$K38)</f>
-        <v>29.508196721311474</v>
-      </c>
-      <c r="Q38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" t="e">
         <f>P38*L38</f>
-        <v>150609.83606557376</v>
-      </c>
-      <c r="R38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" t="e">
         <f>P38*($O38-$N38)</f>
-        <v>94.700724361418224</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="22"/>
@@ -41024,10 +41801,10 @@
         <v>76</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -41059,7 +41836,7 @@
         <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
         <v>74</v>
@@ -41328,7 +42105,7 @@
       </c>
       <c r="E13" s="49"/>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -41779,19 +42556,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -41799,152 +42576,152 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
         <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
         <v>196</v>
       </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" t="s">
-        <v>197</v>
-      </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>183</v>
       </c>
-      <c r="C6" t="s">
-        <v>184</v>
-      </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
         <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -41952,10 +42729,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
         <v>98</v>
@@ -41987,48 +42764,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
         <v>228</v>
       </c>
-      <c r="B1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" t="s">
         <v>238</v>
-      </c>
-      <c r="L1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -42045,7 +42822,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -42065,7 +42842,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -42083,12 +42860,12 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -42106,12 +42883,12 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -42137,7 +42914,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -42160,7 +42937,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -42174,7 +42951,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -42194,7 +42971,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -42316,8 +43093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -42332,180 +43109,180 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="A2" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="15">
       <c r="A3" s="37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="J3" s="59"/>
+        <v>271</v>
+      </c>
+      <c r="J3" s="57"/>
       <c r="K3" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="62" t="s">
-        <v>242</v>
+      <c r="L4" s="60" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="63"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>242</v>
+        <v>267</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>239</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>242</v>
+      <c r="I6" s="62" t="s">
+        <v>239</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="63"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -42513,243 +43290,249 @@
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1"/>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="81"/>
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="A10" s="37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="N10" s="65"/>
+      <c r="O10" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="73" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="H11" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
+      <c r="I11" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="O11" s="65"/>
+      <c r="P11" s="66" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
+      <c r="F12" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
+        <v>267</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="M14" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
+        <v>266</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
     </row>
     <row r="15" spans="1:17">
       <c r="N15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="N16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -42757,7 +43540,7 @@
     </row>
     <row r="17" spans="14:17">
       <c r="N17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -42771,7 +43554,7 @@
     </row>
     <row r="18" spans="14:17">
       <c r="N18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O18">
         <v>7</v>
@@ -42785,7 +43568,7 @@
     </row>
     <row r="19" spans="14:17">
       <c r="N19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O19">
         <v>8</v>
@@ -42799,7 +43582,7 @@
     </row>
     <row r="20" spans="14:17">
       <c r="N20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O20">
         <v>9</v>
